--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1422.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1422.xlsx
@@ -9289,16 +9289,16 @@
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.02305279999999998</v>
+        <v>0.04538616406475898</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0002671045831472824</v>
+        <v>0.000535611713130404</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.03105279999999999</v>
+        <v>0.06489299000279436</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0002793418717042276</v>
+        <v>0.000602000731918219</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0196723904692457</v>
+        <v>0.05867805101522922</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007429039667636884</v>
+        <v>0.001314664629528426</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03727880583455218</v>
+        <v>0.03958416000000001</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006844300924386835</v>
+        <v>0.0008868715668161435</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.05144961689019867</v>
+        <v>0.08671477263357119</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000744130952965483</v>
+        <v>0.001594601711795454</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.06983029535764235</v>
+        <v>0.110788170206285</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007532532828915223</v>
+        <v>0.001596149156600758</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.05867805101522922</v>
+        <v>0.1056204918274126</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001314664629528426</v>
+        <v>0.003943993888585277</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.05505279999999999</v>
+        <v>0.06823055425359728</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00123344193721973</v>
+        <v>0.002660614700448431</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.09009156585050954</v>
+        <v>0.1031503728744522</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001488261905930966</v>
+        <v>0.002463532130044843</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1190942883166215</v>
+        <v>0.1380701914953072</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001506506565783045</v>
+        <v>0.00277147364630045</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.07934687354688874</v>
+        <v>0.112107946372341</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002228711900291065</v>
+        <v>0.004806123654359333</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.06453174611086965</v>
+        <v>0.07856818337941401</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00205329027731605</v>
+        <v>0.004786776229412546</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1031503728744522</v>
+        <v>0.1214819649150684</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.001991944387675056</v>
+        <v>0.004783805135386361</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.1380701914953072</v>
+        <v>0.158710621041006</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00207006484218601</v>
+        <v>0.004788447469802275</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.08878069885881129</v>
+        <v>0.1112270732676258</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002971615867054753</v>
+        <v>0.006408164872479111</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.06823055425359728</v>
+        <v>0.08586347828139929</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002547809467036886</v>
+        <v>0.006382368305883394</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1116499364678724</v>
+        <v>0.1316227907363999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002976523811861932</v>
+        <v>0.006378406847181816</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.1484141521326309</v>
+        <v>0.1719733899437956</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003013013131566089</v>
+        <v>0.006384596626403034</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.05867805101522922</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.1056204918274126</v>
+        <v>0.1121957916168611</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003943993888585277</v>
+        <v>0.008010206090598888</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.0722918694909391</v>
+        <v>0.09087169257073333</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003422150462193418</v>
+        <v>0.007977960382354243</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1186939148099526</v>
+        <v>0.1394277162645668</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003720654764827415</v>
+        <v>0.007973008558977269</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.1580562698505793</v>
+        <v>0.1854401850441459</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003766266414457611</v>
+        <v>0.007980745783003791</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0950942256170014</v>
+        <v>0.127093023281192</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00445742380058213</v>
+        <v>0.009612247308718666</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0749622109031198</v>
+        <v>0.09667256852200692</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004106580554632101</v>
+        <v>0.009573552458825092</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1257926309619307</v>
+        <v>0.1492345941186192</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004464785717792898</v>
+        <v>0.009567610270772723</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.1663314098820401</v>
+        <v>0.1949707991447317</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004519519697349134</v>
+        <v>0.009576894939604549</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1034154579528493</v>
+        <v>0.1339976901217639</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005200327767345819</v>
+        <v>0.01121428852683844</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.07954302790941142</v>
+        <v>0.101445848409811</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004791010647070785</v>
+        <v>0.01116914453529594</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1312540043565131</v>
+        <v>0.155781276917607</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00520891667075838</v>
+        <v>0.01116221198256818</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.1759501585749049</v>
+        <v>0.2044250250482272</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005272772980240656</v>
+        <v>0.01117304409620531</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1045538622896087</v>
+        <v>0.1549887139997219</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005943231734109507</v>
+        <v>0.01281632974495822</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.08223294627984024</v>
+        <v>0.1050712745087364</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005475440739509468</v>
+        <v>0.01276473661176679</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1368859544264062</v>
+        <v>0.1606056172805805</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005953047623723864</v>
+        <v>0.01275681369436363</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.1829231022770653</v>
+        <v>0.2127626555573073</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006026026263132179</v>
+        <v>0.01276919325280607</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1075060311427562</v>
+        <v>0.1551450167762113</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006686135700873196</v>
+        <v>0.014418370963078</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.08513059178443264</v>
+        <v>0.1084285890933739</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006159870831948152</v>
+        <v>0.01436032868823764</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1418964006043168</v>
+        <v>0.1654454678265898</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006697178576689346</v>
+        <v>0.01435141540615908</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1895608273364132</v>
+        <v>0.2198434834746466</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.0067792795460237</v>
+        <v>0.01436534240940682</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1252685570277684</v>
+        <v>0.1505455203123773</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007429039667636884</v>
+        <v>0.01602041218119778</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0886345901932149</v>
+        <v>0.1108975344383144</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.006844300924386836</v>
+        <v>0.01595592076470849</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.148293262322951</v>
+        <v>0.170438681174685</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00744130952965483</v>
+        <v>0.01594601711795454</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1970739201008396</v>
+        <v>0.2250273016029192</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007532532828915223</v>
+        <v>0.01596149156600758</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.126838032460122</v>
+        <v>0.173269146469365</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008171943634400571</v>
+        <v>0.01762245339931755</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.09124356727621333</v>
+        <v>0.1143578528181488</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00752873101682552</v>
+        <v>0.01755151284117934</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1526844590150157</v>
+        <v>0.1729231099439162</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008185440482620312</v>
+        <v>0.01754061882974999</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.2039729669182363</v>
+        <v>0.2290739027447998</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008285786111806744</v>
+        <v>0.01755764072260834</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1302110499552937</v>
+        <v>0.1643948171083198</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008914847601164261</v>
+        <v>0.01922449461743733</v>
       </c>
       <c r="J77" t="n">
-        <v>0.09465614880345424</v>
+        <v>0.1162892865074678</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008213161109264202</v>
+        <v>0.01914710491765018</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1568779101132171</v>
+        <v>0.1760366067533337</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008929571435585796</v>
+        <v>0.01913522054154545</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2090685541364952</v>
+        <v>0.2355430797029632</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009039039394698268</v>
+        <v>0.0191537898792091</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1313842020287599</v>
+        <v>0.1630014540903869</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009657751567927949</v>
+        <v>0.02082653583555711</v>
       </c>
       <c r="J78" t="n">
-        <v>0.09747096054496401</v>
+        <v>0.1183715777808624</v>
       </c>
       <c r="K78" t="n">
-        <v>0.008897591201702887</v>
+        <v>0.02074269699412103</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1617815350502619</v>
+        <v>0.1789170242219875</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009673702388551277</v>
+        <v>0.0207298222533409</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2149712681035074</v>
+        <v>0.2391946252800835</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009792292677589791</v>
+        <v>0.02074993903580986</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1403540811959975</v>
+        <v>0.1711679792767115</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01040065553469164</v>
+        <v>0.02242857705367689</v>
       </c>
       <c r="J79" t="n">
-        <v>0.09968662827076885</v>
+        <v>0.1195844689129234</v>
       </c>
       <c r="K79" t="n">
-        <v>0.00958202129414157</v>
+        <v>0.02233828907059188</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1649032532588565</v>
+        <v>0.1813022149689276</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01041783334151676</v>
+        <v>0.02232442396513635</v>
       </c>
       <c r="N79" t="n">
-        <v>0.221291695167165</v>
+        <v>0.2420883322788357</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01054554596048131</v>
+        <v>0.02234608819241062</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1581172799724831</v>
+        <v>0.1849733145284387</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01114355950145532</v>
+        <v>0.02403061827179667</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1030017777508951</v>
+        <v>0.1210075092430102</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01026645138658026</v>
+        <v>0.02393388114706273</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1686509841717074</v>
+        <v>0.1842261730909091</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01116196429448224</v>
+        <v>0.02391902567693181</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2278404216753593</v>
+        <v>0.2452839080394628</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01129879924337283</v>
+        <v>0.02394223734901138</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1646703908736931</v>
+        <v>0.1775106334403905</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01188646346821901</v>
+        <v>0.02563265948991644</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1058150347553692</v>
+        <v>0.1223900752655313</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01095088147901894</v>
+        <v>0.02552947322353358</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1723326472215211</v>
+        <v>0.1851100968275707</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01190609524744773</v>
+        <v>0.02551362738872726</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2319280339759817</v>
+        <v>0.249492717624632</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01205205252626436</v>
+        <v>0.02553838650561214</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1510100064151044</v>
+        <v>0.184953204220476</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0126293674349827</v>
+        <v>0.02723470070803622</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1069250250542173</v>
+        <v>0.1243269910029598</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01163531157145762</v>
+        <v>0.02712506530000443</v>
       </c>
       <c r="L82" t="n">
-        <v>0.176056161841004</v>
+        <v>0.1894233972386323</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01265022620041321</v>
+        <v>0.02710822910052271</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2352651184169241</v>
+        <v>0.2528103644318942</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01280530580915588</v>
+        <v>0.02713453566221289</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1541327191121936</v>
+        <v>0.1743204580545333</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01337227140174639</v>
+        <v>0.028836741926156</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1098303744174657</v>
+        <v>0.1262083718650703</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0123197416638963</v>
+        <v>0.02872065737647527</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1796294474628629</v>
+        <v>0.1908511586928455</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01339435715337869</v>
+        <v>0.02870283081231817</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2401622613460779</v>
+        <v>0.2538168252143127</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0135585590920474</v>
+        <v>0.02873068481881365</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1690351214804373</v>
+        <v>0.1815969073683568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01411517536851008</v>
+        <v>0.03043878314427577</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1127297086151409</v>
+        <v>0.1271243332616368</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01300417175633499</v>
+        <v>0.03031624945294613</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1815604235198041</v>
+        <v>0.1920784655589625</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01413848810634417</v>
+        <v>0.03029743252411363</v>
       </c>
       <c r="N84" t="n">
-        <v>0.2428300491113348</v>
+        <v>0.256692076724951</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01431181237493893</v>
+        <v>0.03032683397541441</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1667138060353121</v>
+        <v>0.1907670645877412</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01485807933527377</v>
+        <v>0.03204082436239555</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1137216534172691</v>
+        <v>0.1288649906024338</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01368860184877367</v>
+        <v>0.03191184152941697</v>
       </c>
       <c r="L85" t="n">
-        <v>0.185157009444534</v>
+        <v>0.1945904022057349</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01488261905930966</v>
+        <v>0.03189203423590908</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2461790680605862</v>
+        <v>0.2614160957168723</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01506506565783045</v>
+        <v>0.03192298313201516</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1661653652922947</v>
+        <v>0.1928154421384809</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01560098330203745</v>
+        <v>0.03364286558051533</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1167048345938766</v>
+        <v>0.1294204592972354</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01437303194121235</v>
+        <v>0.03350743360588782</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1855271246697592</v>
+        <v>0.1961720530019148</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01562675001227514</v>
+        <v>0.03348663594770453</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2497199045417242</v>
+        <v>0.26266885894314</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01581831894072197</v>
+        <v>0.03351913228861593</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1713863917668617</v>
+        <v>0.1957265524463704</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01634388726880114</v>
+        <v>0.03524490679863511</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1183778779149897</v>
+        <v>0.1314808547558159</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01505746203365104</v>
+        <v>0.03510302568235867</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1890786886281863</v>
+        <v>0.1979085023162538</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01637088096524062</v>
+        <v>0.03508123765949998</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2519631449026396</v>
+        <v>0.2662303431568173</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01657157222361349</v>
+        <v>0.03511528144521668</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1713734779744898</v>
+        <v>0.1884849079372043</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01708679123556483</v>
+        <v>0.03684694801675489</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1197394091506348</v>
+        <v>0.1327362923879498</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01574189212608972</v>
+        <v>0.03669861775882952</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1904196207525217</v>
+        <v>0.200084834517504</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01711501191820611</v>
+        <v>0.03667583937129544</v>
       </c>
       <c r="N88" t="n">
-        <v>0.2536193754912245</v>
+        <v>0.2661805251109676</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01732482550650501</v>
+        <v>0.03671143060181745</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1851232164306556</v>
+        <v>0.2030750210367769</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01782969520232852</v>
+        <v>0.03844898923487466</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1219880540708382</v>
+        <v>0.133176887603411</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0164263222185284</v>
+        <v>0.03829420983530037</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1920578404754719</v>
+        <v>0.2023861339744173</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01785914287117159</v>
+        <v>0.03827044108309089</v>
       </c>
       <c r="N89" t="n">
-        <v>0.2558991826553705</v>
+        <v>0.2679993815586543</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01807807878939654</v>
+        <v>0.0383075797584182</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1786321996508357</v>
+        <v>0.2054814041708828</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01857259916909221</v>
+        <v>0.04005103045299444</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1227224384456261</v>
+        <v>0.1339927558119741</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01711075231096709</v>
+        <v>0.03988980191177122</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1938012672297434</v>
+        <v>0.2029974850557454</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01860327382413707</v>
+        <v>0.03986504279488635</v>
       </c>
       <c r="N90" t="n">
-        <v>0.260213152742969</v>
+        <v>0.2707668892529411</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01883133207228806</v>
+        <v>0.03990372891501896</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1918970201505069</v>
+        <v>0.1876885697653165</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0193155031358559</v>
+        <v>0.04165307167111422</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1242411880450248</v>
+        <v>0.1344740124234133</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01779518240340577</v>
+        <v>0.04148539398824207</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1948578204480427</v>
+        <v>0.2035039721302404</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01934740477710255</v>
+        <v>0.0414596445066818</v>
       </c>
       <c r="N91" t="n">
-        <v>0.2616718721019116</v>
+        <v>0.2710630249468906</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01958458535517958</v>
+        <v>0.04149987807161972</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1829142704451455</v>
+        <v>0.2016810302458727</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02005840710261959</v>
+        <v>0.043255112889234</v>
       </c>
       <c r="J92" t="n">
-        <v>0.126142928639061</v>
+        <v>0.1346107728475029</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01847961249584446</v>
+        <v>0.04308098606471291</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1951354195630763</v>
+        <v>0.2043906795666538</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02009153573006804</v>
+        <v>0.04305424621847725</v>
       </c>
       <c r="N92" t="n">
-        <v>0.2619859270800899</v>
+        <v>0.274567765393567</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0203378386380711</v>
+        <v>0.04309602722822048</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1956805430502286</v>
+        <v>0.2044432980383455</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02080131106938328</v>
+        <v>0.04485715410735377</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1270262859977605</v>
+        <v>0.135293152494017</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01916404258828314</v>
+        <v>0.04467657814118377</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1968419840075507</v>
+        <v>0.2057426917337378</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02083566668303352</v>
+        <v>0.0446488479302727</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2633659040253956</v>
+        <v>0.275461087346033</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02109109192096262</v>
+        <v>0.04469217638482124</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1971924304812325</v>
+        <v>0.1909598855685298</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02154421503614696</v>
+        <v>0.04645919532547355</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1284898858911499</v>
+        <v>0.1364611085071945</v>
       </c>
       <c r="K94" t="n">
-        <v>0.01984847268072183</v>
+        <v>0.04627217021765461</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1981854332141724</v>
+        <v>0.2063007457489044</v>
       </c>
       <c r="M94" t="n">
-        <v>0.021579797635999</v>
+        <v>0.04624344964206816</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2654223892857202</v>
+        <v>0.2761403829906144</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02184434520385415</v>
+        <v>0.046288325541422</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.186446525253634</v>
+        <v>0.2112409836548252</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02228711900291065</v>
+        <v>0.04806123654359333</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1289323540892554</v>
+        <v>0.1362582552202985</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02053290277316051</v>
+        <v>0.04786776229412546</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1981736866156479</v>
+        <v>0.2046921491705768</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02232392858896449</v>
+        <v>0.04783805135386362</v>
       </c>
       <c r="N95" t="n">
-        <v>0.263665969208955</v>
+        <v>0.2738369770598238</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02259759848674567</v>
+        <v>0.04788447469802275</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1934394198829096</v>
+        <v>0.1982184823064758</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02303002296967434</v>
+        <v>0.04966327776171311</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1295523163621034</v>
+        <v>0.1350928783444633</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02121733286559919</v>
+        <v>0.04946335437059631</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1982146636446838</v>
+        <v>0.2055799788268808</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02306805954192997</v>
+        <v>0.04943265306565907</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2666072301429924</v>
+        <v>0.2737147816055415</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02335085176963719</v>
+        <v>0.04948062385462351</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1991677068845361</v>
+        <v>0.1900746025976523</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02377292693643803</v>
+        <v>0.05126531897983289</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1302483984797202</v>
+        <v>0.1355450622988311</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02190176295803787</v>
+        <v>0.05105894644706716</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1994162837339865</v>
+        <v>0.2058441525275615</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02381219049489545</v>
+        <v>0.05102725477745453</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2669567584357232</v>
+        <v>0.2746250283781999</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02410410505252871</v>
+        <v>0.05107677301122427</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1856279787739901</v>
+        <v>0.208804716048269</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02451583090320172</v>
+        <v>0.05286736019795266</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1303192262121321</v>
+        <v>0.1356200165475067</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02258619305047656</v>
+        <v>0.05265453852353801</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1983864663162624</v>
+        <v>0.2047925312404297</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02455632144786093</v>
+        <v>0.05262185648924998</v>
       </c>
       <c r="N98" t="n">
-        <v>0.266825140435039</v>
+        <v>0.2728782702063731</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02485735833542024</v>
+        <v>0.05267292216782503</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1968168280667482</v>
+        <v>0.2054169850565691</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02525873486996541</v>
+        <v>0.05446940141607243</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1310634253293655</v>
+        <v>0.1349229505545948</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02327062314291524</v>
+        <v>0.05425013060000886</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1980307987978858</v>
+        <v>0.2040329759332961</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02530045240082642</v>
+        <v>0.05421645820104543</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2652917868466314</v>
+        <v>0.273385059918635</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02561061161831176</v>
+        <v>0.05426907132442579</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1927348350548151</v>
+        <v>0.1969195720207958</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02600163883672909</v>
+        <v>0.05607144263419222</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1311796216014464</v>
+        <v>0.1348590737842001</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02395505323535392</v>
+        <v>0.05584572267647971</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1984271440738916</v>
+        <v>0.2037733475739714</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02604458335379191</v>
+        <v>0.05581105991284088</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2660012862862139</v>
+        <v>0.2722559503435598</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02636386490120328</v>
+        <v>0.05586522048102655</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1954035496706677</v>
+        <v>0.1933206393391923</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02674454280349278</v>
+        <v>0.057673483852312</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1325664407984014</v>
+        <v>0.1349335957004273</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02463948332779261</v>
+        <v>0.05744131475295055</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1977692798464916</v>
+        <v>0.2031215071302663</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02678871430675739</v>
+        <v>0.05740566162463634</v>
       </c>
       <c r="N101" t="n">
-        <v>0.2636610661336793</v>
+        <v>0.2730014943097213</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0271171181840948</v>
+        <v>0.0574613696376273</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1888507611116667</v>
+        <v>0.1966283494100017</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02748744677025647</v>
+        <v>0.05927552507043178</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1314224478596858</v>
+        <v>0.1332517257673813</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02532391342023129</v>
+        <v>0.0590369068294214</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1973194589850127</v>
+        <v>0.2021853155699916</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02753284525972287</v>
+        <v>0.0590002633364318</v>
       </c>
       <c r="N102" t="n">
-        <v>0.2642070060509266</v>
+        <v>0.2698322446456938</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02787037146698633</v>
+        <v>0.05905751879422807</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1931042275476485</v>
+        <v>0.1958508646314673</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02823035073702016</v>
+        <v>0.06087756628855154</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1319363400014853</v>
+        <v>0.1331186734491666</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02600834351266998</v>
+        <v>0.06063249890589226</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1945399343587822</v>
+        <v>0.2014726338609579</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02827697621268835</v>
+        <v>0.06059486504822725</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2618749856998542</v>
+        <v>0.2706587541800513</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02862362474987785</v>
+        <v>0.06065366795082882</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1831917071484497</v>
+        <v>0.2049963474018321</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02897325470378384</v>
+        <v>0.06247960750667133</v>
       </c>
       <c r="J104" t="n">
-        <v>0.131409334541614</v>
+        <v>0.1326396482098881</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02669277360510866</v>
+        <v>0.0622280909823631</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1926929588371271</v>
+        <v>0.200691322970976</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02902110716565384</v>
+        <v>0.0621894667600227</v>
       </c>
       <c r="N104" t="n">
-        <v>0.261100884742361</v>
+        <v>0.2674915757413677</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02937687803276937</v>
+        <v>0.06224981710742958</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.2011409580839068</v>
+        <v>0.1850729601193394</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02971615867054754</v>
+        <v>0.06408164872479111</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1316542137460319</v>
+        <v>0.1322198595136504</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02737720369754734</v>
+        <v>0.06382368305883394</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1922407852893747</v>
+        <v>0.1988492438678566</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02976523811861932</v>
+        <v>0.06378406847181815</v>
       </c>
       <c r="N105" t="n">
-        <v>0.2603205828403458</v>
+        <v>0.2673412621582171</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03013013131566089</v>
+        <v>0.06384596626403033</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1849797385238565</v>
+        <v>0.2040888651822323</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03045906263731122</v>
+        <v>0.06568368994291088</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1304837598806987</v>
+        <v>0.1319645168245584</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02806163378998603</v>
+        <v>0.06541927513530479</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1891456665848519</v>
+        <v>0.1979542575194104</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0305093690715848</v>
+        <v>0.06537867018361361</v>
       </c>
       <c r="N106" t="n">
-        <v>0.256769959655707</v>
+        <v>0.2661183662591735</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03088338459855242</v>
+        <v>0.06544211542063109</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1977358066381354</v>
+        <v>0.190052224988754</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03120196660407491</v>
+        <v>0.06728573116103066</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1297107552115743</v>
+        <v>0.1309788296067166</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02874606388242471</v>
+        <v>0.06701486721177564</v>
       </c>
       <c r="L107" t="n">
-        <v>0.186869855592886</v>
+        <v>0.1972142248934482</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03125350002455028</v>
+        <v>0.06697327189540907</v>
       </c>
       <c r="N107" t="n">
-        <v>0.2563848948503438</v>
+        <v>0.2638334408728111</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03163663788144394</v>
+        <v>0.06703826457723186</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1924369205965799</v>
+        <v>0.1819712019371478</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0319448705708386</v>
+        <v>0.06888777237915045</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1292479820046185</v>
+        <v>0.1294680073242299</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02943049397486339</v>
+        <v>0.06861045928824649</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1860756051828041</v>
+        <v>0.1973370069577806</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03199763097751577</v>
+        <v>0.06856787360720451</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2539012680861548</v>
+        <v>0.2623970388277038</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03238989116433546</v>
+        <v>0.06863441373383261</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1841108385690267</v>
+        <v>0.2018539584256567</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03268777453760228</v>
+        <v>0.07048981359727022</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1291082225257912</v>
+        <v>0.129037259441203</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03011492406730208</v>
+        <v>0.07020605136471735</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1830251682239332</v>
+        <v>0.1947304646802184</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03274176193048125</v>
+        <v>0.07016247531899997</v>
       </c>
       <c r="N109" t="n">
-        <v>0.2510549590250385</v>
+        <v>0.2615197129524258</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03314314444722698</v>
+        <v>0.07023056289043336</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1767853187253123</v>
+        <v>0.197708656852524</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03343067850436598</v>
+        <v>0.07209185481538999</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1283042590410522</v>
+        <v>0.1281917954217407</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03079935415974076</v>
+        <v>0.0718016434411882</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1806807975856006</v>
+        <v>0.1933024590285723</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03348589288344674</v>
+        <v>0.07175707703079542</v>
       </c>
       <c r="N110" t="n">
-        <v>0.2487818473288939</v>
+        <v>0.2610120160755509</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0338963977301185</v>
+        <v>0.07182671204703413</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1874881192352733</v>
+        <v>0.1885434596159928</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03417358247112966</v>
+        <v>0.07369389603350977</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1271488738163614</v>
+        <v>0.1280368247299476</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03148378425217944</v>
+        <v>0.07339723551765905</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1798047461371333</v>
+        <v>0.193960850970653</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03423002383641222</v>
+        <v>0.07335167874259088</v>
       </c>
       <c r="N111" t="n">
-        <v>0.2475178126596196</v>
+        <v>0.2589845010256532</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03464965101301003</v>
+        <v>0.07342286120363489</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1812469982687462</v>
+        <v>0.1883665291143062</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03491648643789335</v>
+        <v>0.07529593725162956</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1257548491176787</v>
+        <v>0.1267775568299284</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03216821434461813</v>
+        <v>0.07499282759412988</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1765592667478584</v>
+        <v>0.1927135014742713</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0349741547893777</v>
+        <v>0.07494628045438632</v>
       </c>
       <c r="N112" t="n">
-        <v>0.2434987346791144</v>
+        <v>0.2562477206313069</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03540290429590155</v>
+        <v>0.07501901036023564</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1790897139955676</v>
+        <v>0.1761860277457074</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03565939040465704</v>
+        <v>0.07689797846974933</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1249349672109638</v>
+        <v>0.1263192011857881</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03285264443705681</v>
+        <v>0.07658841967060073</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1770066122871032</v>
+        <v>0.1917682715072378</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03571828574234318</v>
+        <v>0.07654088216618178</v>
       </c>
       <c r="N113" t="n">
-        <v>0.2410604930492772</v>
+        <v>0.2563122277210859</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03615615757879307</v>
+        <v>0.0766151595168364</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1840440245855741</v>
+        <v>0.1910101179084398</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03640229437142073</v>
+        <v>0.0785000196878691</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1249020103621767</v>
+        <v>0.1249669672616312</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0335370745294955</v>
+        <v>0.07818401174707158</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1754090356241947</v>
+        <v>0.1905330220373633</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03646241669530866</v>
+        <v>0.07813548387797724</v>
       </c>
       <c r="N114" t="n">
-        <v>0.2401389674320066</v>
+        <v>0.2553885751235643</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03690941086168459</v>
+        <v>0.07821130867343716</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1731376882086023</v>
+        <v>0.1838469620007463</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03714519833818442</v>
+        <v>0.08010206090598888</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1239687608372771</v>
+        <v>0.1252070507341298</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03422150462193418</v>
+        <v>0.07977960382354243</v>
       </c>
       <c r="L115" t="n">
-        <v>0.17532878962846</v>
+        <v>0.1891760723373487</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03720654764827415</v>
+        <v>0.0797300855897727</v>
       </c>
       <c r="N115" t="n">
-        <v>0.2372700374892012</v>
+        <v>0.253255972708001</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03766266414457611</v>
+        <v>0.07980745783003793</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1803984630344887</v>
+        <v>0.1806148290014164</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03788810230494811</v>
+        <v>0.08170410212410867</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1232480009022249</v>
+        <v>0.1236479078799501</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03490593471437286</v>
+        <v>0.08137519590001328</v>
       </c>
       <c r="L116" t="n">
-        <v>0.173411558772006</v>
+        <v>0.1878633653123319</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03795067860123963</v>
+        <v>0.08132468730156815</v>
       </c>
       <c r="N116" t="n">
-        <v>0.2360895828827599</v>
+        <v>0.2504280019616836</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03841591742746764</v>
+        <v>0.08140360698663868</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1728541072330699</v>
+        <v>0.1872150692049663</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03863100627171179</v>
+        <v>0.08330614334222844</v>
       </c>
       <c r="J117" t="n">
-        <v>0.12135251282298</v>
+        <v>0.1224911472769581</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03559036480681155</v>
+        <v>0.08297078797648413</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1750383395009473</v>
+        <v>0.1847056179689603</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03869480955420511</v>
+        <v>0.08291928901336361</v>
       </c>
       <c r="N117" t="n">
-        <v>0.2358334832745815</v>
+        <v>0.2480005796410361</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03916917071035916</v>
+        <v>0.08299975614323944</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1845323789741825</v>
+        <v>0.1876737234123927</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03937391023847549</v>
+        <v>0.08490818456034821</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1203950788655022</v>
+        <v>0.1224537419819215</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03627479489925023</v>
+        <v>0.08456638005295498</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1750154179282238</v>
+        <v>0.1843284422800237</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0394389405071706</v>
+        <v>0.08451389072515907</v>
       </c>
       <c r="N118" t="n">
-        <v>0.2341376183265647</v>
+        <v>0.2480080881229877</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03992242399325068</v>
+        <v>0.08459590529984019</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1794579557214769</v>
+        <v>0.183017385692866</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04011681420523917</v>
+        <v>0.08651022577846799</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1196884812957514</v>
+        <v>0.120852665051608</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03695922499168891</v>
+        <v>0.08616197212942582</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1748332089422057</v>
+        <v>0.1833574502183121</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04018307146013608</v>
+        <v>0.08610849243695451</v>
       </c>
       <c r="N119" t="n">
-        <v>0.2339378677006081</v>
+        <v>0.2451849097844674</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04067567727614221</v>
+        <v>0.08619205445644096</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1825696646077503</v>
+        <v>0.1862726501155567</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04085971817200286</v>
+        <v>0.08811226699658778</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1189455023796874</v>
+        <v>0.1193048895427851</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0376436550841276</v>
+        <v>0.08775756420589667</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1747821274312628</v>
+        <v>0.1806182537566153</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04092720241310156</v>
+        <v>0.08770309414874995</v>
       </c>
       <c r="N120" t="n">
-        <v>0.2325701110586105</v>
+        <v>0.2424654270024041</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04142893055903372</v>
+        <v>0.08778820361304171</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1768256522331223</v>
+        <v>0.1844661107496352</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04160262213876655</v>
+        <v>0.08971430821470755</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1185789243832701</v>
+        <v>0.1180273885122206</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03832808517656628</v>
+        <v>0.08935315628236754</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1769525882837649</v>
+        <v>0.1787364648677233</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04167133336606704</v>
+        <v>0.08929769586054541</v>
       </c>
       <c r="N121" t="n">
-        <v>0.2317702280624708</v>
+        <v>0.2403840221537268</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04218218384192525</v>
+        <v>0.08938435276964248</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1802149581830898</v>
+        <v>0.1676243616642717</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04234552610553024</v>
+        <v>0.09131634943282733</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1181015295724592</v>
+        <v>0.1169371350166821</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03901251526900496</v>
+        <v>0.09094874835883837</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1771350063880821</v>
+        <v>0.1762376955244257</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04241546431903253</v>
+        <v>0.09089229757234087</v>
       </c>
       <c r="N122" t="n">
-        <v>0.2308599553299007</v>
+        <v>0.2380750776153644</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04293543712481677</v>
+        <v>0.09098050192624323</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1897266220431493</v>
+        <v>0.1667739969286367</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04308843007229392</v>
+        <v>0.09291839065094711</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1181261002132147</v>
+        <v>0.1165511021129374</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03969694536144365</v>
+        <v>0.09254434043530922</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1779197966325841</v>
+        <v>0.1747475576995126</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04315959527199801</v>
+        <v>0.09248689928413632</v>
       </c>
       <c r="N123" t="n">
-        <v>0.2318161573704466</v>
+        <v>0.2336729757642457</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04368869040770829</v>
+        <v>0.09257665108284399</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1753496833987978</v>
+        <v>0.1609416106119005</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04383133403905761</v>
+        <v>0.09452043186906688</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1165654185714964</v>
+        <v>0.114786262857754</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04038137545388233</v>
+        <v>0.09413993251178007</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1797973739056408</v>
+        <v>0.1736916633657738</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0439037262249635</v>
+        <v>0.09408150099593178</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2337075925012139</v>
+        <v>0.2327120989773001</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04444194369059982</v>
+        <v>0.09417280023944474</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1820731818355319</v>
+        <v>0.1631537967832334</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0445742380058213</v>
+        <v>0.09612247308718666</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1168322669132641</v>
+        <v>0.1138595903078997</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04106580554632102</v>
+        <v>0.09573552458825092</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1808581530956224</v>
+        <v>0.1723956244959992</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04464785717792898</v>
+        <v>0.09567610270772724</v>
       </c>
       <c r="N125" t="n">
-        <v>0.2359030193548141</v>
+        <v>0.2317268296314562</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04519519697349134</v>
+        <v>0.09576894939604551</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1928861569388484</v>
+        <v>0.1634371495118058</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04531714197258499</v>
+        <v>0.09772451430530645</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1166394275044778</v>
+        <v>0.112384935509968</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0417502356387597</v>
+        <v>0.09733111666472176</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1811925490908986</v>
+        <v>0.1703748003379021</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04539198813089446</v>
+        <v>0.09727070441952268</v>
       </c>
       <c r="N126" t="n">
-        <v>0.237271196563858</v>
+        <v>0.2284481536125584</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04594845025638286</v>
+        <v>0.09736509855264626</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1757776482942441</v>
+        <v>0.1717603004401844</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04606004593934868</v>
+        <v>0.09932655552342622</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1164790052738678</v>
+        <v>0.1122567397600747</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04243466573119838</v>
+        <v>0.09892670874119262</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1825909767798393</v>
+        <v>0.1681566477277401</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04613611908385994</v>
+        <v>0.09886530613131814</v>
       </c>
       <c r="N127" t="n">
-        <v>0.2378808827609573</v>
+        <v>0.2266747768327945</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04670170353927438</v>
+        <v>0.09896124770924702</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1917366954872157</v>
+        <v>0.1699363297304907</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04680294990611237</v>
+        <v>0.100928596741546</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1174202028005742</v>
+        <v>0.1099340851422831</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04311909582363706</v>
+        <v>0.1005223008176635</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1847438510508144</v>
+        <v>0.1667989898119283</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04688025003682542</v>
+        <v>0.1004599078431136</v>
       </c>
       <c r="N128" t="n">
-        <v>0.2406008365787229</v>
+        <v>0.2242077678158795</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0474549568221659</v>
+        <v>0.1005573968658478</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1927523381032599</v>
+        <v>0.1529820268296261</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04754585387287606</v>
+        <v>0.1025306379596658</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1174563398553538</v>
+        <v>0.1090412685923281</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04380352591607575</v>
+        <v>0.1021178928941343</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1848415867921939</v>
+        <v>0.1639384901370184</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04762438098979091</v>
+        <v>0.1020545095549091</v>
       </c>
       <c r="N129" t="n">
-        <v>0.2418998166497665</v>
+        <v>0.2206963449444598</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04820821010505743</v>
+        <v>0.1021535460224485</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1928136157278734</v>
+        <v>0.1649354611553984</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04828875783963974</v>
+        <v>0.1041326791777856</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1176810730846524</v>
+        <v>0.1084025870459451</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04448795600851443</v>
+        <v>0.1037134849706052</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1866745988923477</v>
+        <v>0.1637118122495622</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0483685119427564</v>
+        <v>0.1036491112667045</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2452465816066988</v>
+        <v>0.2187897266011807</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04896146338794895</v>
+        <v>0.1037496951790493</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1949095679465532</v>
+        <v>0.1548347021256161</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04903166180640343</v>
+        <v>0.1057347203959053</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1176880591349163</v>
+        <v>0.1070423374388693</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04517238610095312</v>
+        <v>0.105309077047076</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1870333022396455</v>
+        <v>0.1615556196961113</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04911264289572187</v>
+        <v>0.1052437129785</v>
       </c>
       <c r="N131" t="n">
-        <v>0.2472098900821312</v>
+        <v>0.2165371311686891</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04971471667084047</v>
+        <v>0.1053458443356501</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1920292343447958</v>
+        <v>0.150717819158087</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04977456577316712</v>
+        <v>0.1073367616140251</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1182709546525913</v>
+        <v>0.1052848167068358</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0458568161933918</v>
+        <v>0.1069046691235469</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1884081117224574</v>
+        <v>0.1583065760232176</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04985677384868736</v>
+        <v>0.1068383146902954</v>
       </c>
       <c r="N132" t="n">
-        <v>0.2495585007086754</v>
+        <v>0.2119877770296309</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05046796995373199</v>
+        <v>0.1069419934922508</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1831616545080981</v>
+        <v>0.1606228816706196</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05051746973993081</v>
+        <v>0.1089388028321449</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1195234162841234</v>
+        <v>0.1032543217855799</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04654124628583048</v>
+        <v>0.1085002612000177</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1903894422291533</v>
+        <v>0.156701344777433</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05060090480165284</v>
+        <v>0.1084329164020909</v>
       </c>
       <c r="N133" t="n">
-        <v>0.2517611721189421</v>
+        <v>0.2088908825666524</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05122122323662352</v>
+        <v>0.1085381426488516</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1992958680219567</v>
+        <v>0.1595879590810218</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0512603737066945</v>
+        <v>0.1105408440502647</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1191391006759585</v>
+        <v>0.1018751496108368</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04722567637826917</v>
+        <v>0.1100958532764885</v>
       </c>
       <c r="L134" t="n">
-        <v>0.192067708648103</v>
+        <v>0.1543765895053091</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05134503575461832</v>
+        <v>0.1100275181138863</v>
       </c>
       <c r="N134" t="n">
-        <v>0.252986662945543</v>
+        <v>0.2084956661623997</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05197447651951504</v>
+        <v>0.1101342918054523</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1944209144718685</v>
+        <v>0.1576511208071018</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05200327767345819</v>
+        <v>0.1121428852683844</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1208116644745426</v>
+        <v>0.1015715971183416</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04791010647070785</v>
+        <v>0.1116914453529594</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1942333258676764</v>
+        <v>0.1536689737533977</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05208916670758381</v>
+        <v>0.1116221198256818</v>
       </c>
       <c r="N135" t="n">
-        <v>0.255703731821089</v>
+        <v>0.2038513461995187</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05272772980240656</v>
+        <v>0.1117304409620531</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1905258334433302</v>
+        <v>0.1528504362666677</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05274618164022188</v>
+        <v>0.1137449264865042</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1215347643263218</v>
+        <v>0.1000679612438295</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04859453656314654</v>
+        <v>0.1132870374294303</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1937767087762436</v>
+        <v>0.1519151610682505</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05283329766054928</v>
+        <v>0.1132167215374772</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2601811373781915</v>
+        <v>0.2038071410606559</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05348098308529808</v>
+        <v>0.1133265901186539</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.2025996645218384</v>
+        <v>0.1412239748775277</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05348908560698556</v>
+        <v>0.115346967704624</v>
       </c>
       <c r="J137" t="n">
-        <v>0.122502056877742</v>
+        <v>0.09918853892303583</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04927896665558522</v>
+        <v>0.1148826295059011</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1950882722621743</v>
+        <v>0.1491518149964194</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05357742861351477</v>
+        <v>0.1148113232492727</v>
       </c>
       <c r="N137" t="n">
-        <v>0.2617876382494616</v>
+        <v>0.2008122691284575</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0542342363681896</v>
+        <v>0.1149227392752546</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1926314472928901</v>
+        <v>0.13380980605749</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05423198957374925</v>
+        <v>0.1169490089227438</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1228071987752492</v>
+        <v>0.09845762709169567</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0499633967480239</v>
+        <v>0.116478221582372</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1974584312138386</v>
+        <v>0.149315599084456</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05432155956648026</v>
+        <v>0.1164059249610681</v>
       </c>
       <c r="N138" t="n">
-        <v>0.2623919930675109</v>
+        <v>0.1999159487855693</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05498748965108113</v>
+        <v>0.1165188884318554</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1906102213419819</v>
+        <v>0.1416459992243626</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05497489354051294</v>
+        <v>0.1185510501408636</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1229438466652895</v>
+        <v>0.09779952268554434</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05064782684046259</v>
+        <v>0.1180738136588428</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1982776005196062</v>
+        <v>0.1469431768789122</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05506569051944574</v>
+        <v>0.1180005266728636</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2647629604649504</v>
+        <v>0.1989673984146376</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05574074293397265</v>
+        <v>0.1181150375884561</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1915250262546105</v>
+        <v>0.1327706237959538</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05571779750727663</v>
+        <v>0.1201530913589833</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1240056571943086</v>
+        <v>0.0977385226403169</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05133225693290127</v>
+        <v>0.1196694057353136</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1999361950678472</v>
+        <v>0.1468712119263398</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05580982147241122</v>
+        <v>0.119595128384659</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2668692990743914</v>
+        <v>0.1955158363983087</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05649399621686417</v>
+        <v>0.1197111867450569</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1963649016162728</v>
+        <v>0.1322217491900716</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05646070147404032</v>
+        <v>0.1217551325771031</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1252862870087526</v>
+        <v>0.09689892389174865</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05201668702533995</v>
+        <v>0.1212649978117845</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2000246297469312</v>
+        <v>0.1473363677732903</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0565539524253767</v>
+        <v>0.1211897300964545</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2704797675284449</v>
+        <v>0.1950104811192287</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0572472494997557</v>
+        <v>0.1213073359016576</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1991188870124655</v>
+        <v>0.1400373239223034</v>
       </c>
       <c r="G142" t="n">
-        <v>0.057203605440804</v>
+        <v>0.1233571737952229</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1262793927550677</v>
+        <v>0.09697471981340253</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05270111711777864</v>
+        <v>0.1228605898882554</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2018333194452284</v>
+        <v>0.1471149971616804</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05729808337834218</v>
+        <v>0.1227843318082499</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2699631244597227</v>
+        <v>0.1951489536085762</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05800050278264721</v>
+        <v>0.1229034850582584</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.2087760220286853</v>
+        <v>0.1440676563142289</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05794650940756769</v>
+        <v>0.1249592150133427</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1268786310796995</v>
+        <v>0.09661198735642468</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05338554721021732</v>
+        <v>0.1244561819647262</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2031526790511086</v>
+        <v>0.1460753640020178</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05804221433130767</v>
+        <v>0.1243789335200454</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2715881285008358</v>
+        <v>0.1968213242367544</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05875375606553873</v>
+        <v>0.1244996342148592</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1943253462504288</v>
+        <v>0.1471536825336131</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05868941337433137</v>
+        <v>0.1265612562314624</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1275776586290943</v>
+        <v>0.09738407074049818</v>
       </c>
       <c r="K144" t="n">
-        <v>0.054069977302656</v>
+        <v>0.1260517740411971</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2027731234529418</v>
+        <v>0.1464880973611484</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05878634528427316</v>
+        <v>0.1259735352318408</v>
       </c>
       <c r="N144" t="n">
-        <v>0.2746235382843952</v>
+        <v>0.1967643495436867</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05950700934843026</v>
+        <v>0.1260957833714599</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.2047558992631931</v>
+        <v>0.141292605253503</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05943231734109507</v>
+        <v>0.1281632974495822</v>
       </c>
       <c r="J145" t="n">
-        <v>0.129270132049698</v>
+        <v>0.09658918463563579</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05475440739509468</v>
+        <v>0.1276473661176679</v>
       </c>
       <c r="L145" t="n">
-        <v>0.2033850675390977</v>
+        <v>0.1476505032150267</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05953047623723864</v>
+        <v>0.1275681369436363</v>
       </c>
       <c r="N145" t="n">
-        <v>0.2737381124430124</v>
+        <v>0.1974744129805454</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06026026263132178</v>
+        <v>0.1276919325280607</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.2030567206524747</v>
+        <v>0.1504816271469455</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06017522130785876</v>
+        <v>0.129765338667702</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1301497079879565</v>
+        <v>0.09662554371185028</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05543883748753337</v>
+        <v>0.1292429581941387</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2047789261979464</v>
+        <v>0.1479598875396075</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06027460719020411</v>
+        <v>0.1291627386554318</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2752006096092987</v>
+        <v>0.1956478979985019</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06101351591421331</v>
+        <v>0.1292880816846614</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.2112409836548252</v>
+        <v>0.1447179508869876</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06091812527462245</v>
+        <v>0.1313673798858218</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1299100430903158</v>
+        <v>0.09779136263915447</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05612326757997205</v>
+        <v>0.1308385502706096</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2063007457489044</v>
+        <v>0.1475135563108457</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0610187381431696</v>
+        <v>0.1307573403672272</v>
       </c>
       <c r="N147" t="n">
-        <v>0.2761403829906144</v>
+        <v>0.1976811880487284</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06176676919710483</v>
+        <v>0.1308842308412622</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.2072394904574588</v>
+        <v>0.1379987791466762</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06166102924138613</v>
+        <v>0.1329694211039415</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1311447940032219</v>
+        <v>0.09808485608756107</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05680769767241074</v>
+        <v>0.1324341423470805</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2064973882681923</v>
+        <v>0.1477088155046959</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06176286909613508</v>
+        <v>0.1323519420790227</v>
       </c>
       <c r="N148" t="n">
-        <v>0.2743577742195825</v>
+        <v>0.1967706665823966</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06252002247999634</v>
+        <v>0.1324803799978629</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.2022253814479844</v>
+        <v>0.1333213145990582</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06240393320814982</v>
+        <v>0.1345714623220613</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1324476173731207</v>
+        <v>0.09780423872708291</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05749212776484942</v>
+        <v>0.1340297344235513</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2067334391446784</v>
+        <v>0.1474429710971129</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06250700004910056</v>
+        <v>0.1339465437908181</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2754683135630153</v>
+        <v>0.1983127170506783</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06327327576288788</v>
+        <v>0.1340765291544637</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.2021969242658876</v>
+        <v>0.1386827599171806</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06314683717491351</v>
+        <v>0.1361735035401811</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1335121698464584</v>
+        <v>0.09844772522773274</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0581765578572881</v>
+        <v>0.1356253265000222</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2061649766195951</v>
+        <v>0.1489133290640514</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06325113100206606</v>
+        <v>0.1355411455026136</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2761784797592022</v>
+        <v>0.1978037229047456</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06402652904577939</v>
+        <v>0.1356726783110644</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.2111547761505271</v>
+        <v>0.1400803177740902</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0638897411416772</v>
+        <v>0.1377755447583009</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1340321080696808</v>
+        <v>0.0978135302595233</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05886098794972678</v>
+        <v>0.137220918576493</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2067916819512551</v>
+        <v>0.1493171953814662</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06399526195503154</v>
+        <v>0.137135747214409</v>
       </c>
       <c r="N151" t="n">
-        <v>0.2736882753999852</v>
+        <v>0.1999400675957701</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06477978232867092</v>
+        <v>0.1372688274676652</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1920995943412618</v>
+        <v>0.1345111908428341</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06463264510844088</v>
+        <v>0.1393775859764207</v>
       </c>
       <c r="J152" t="n">
-        <v>0.134001088689234</v>
+        <v>0.09929986849246744</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05954541804216548</v>
+        <v>0.1388165106529638</v>
       </c>
       <c r="L152" t="n">
-        <v>0.206313236397971</v>
+        <v>0.1484518760253119</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06473939290799702</v>
+        <v>0.1387303489262045</v>
       </c>
       <c r="N152" t="n">
-        <v>0.2752977030772064</v>
+        <v>0.2004181345749236</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06553303561156244</v>
+        <v>0.138864976624266</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1990320360774507</v>
+        <v>0.1399725817964591</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06537554907520457</v>
+        <v>0.1409796271945404</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1345127683515638</v>
+        <v>0.09920495459657788</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06022984813460416</v>
+        <v>0.1404121027294347</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2076293212180556</v>
+        <v>0.1489146769715433</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0654835238609625</v>
+        <v>0.1403249506379999</v>
       </c>
       <c r="N153" t="n">
-        <v>0.275306765382708</v>
+        <v>0.1994343072933781</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06628628889445395</v>
+        <v>0.1404611257808667</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.2069527585984526</v>
+        <v>0.1544616933080122</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06611845304196826</v>
+        <v>0.1425816684126602</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1361608037031164</v>
+        <v>0.09933328847426037</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06091427822704284</v>
+        <v>0.1420076948059055</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2083396176698215</v>
+        <v>0.1492200618793524</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06622765481392798</v>
+        <v>0.1419195523497954</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2742154649083322</v>
+        <v>0.1998932332254089</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06703954217734549</v>
+        <v>0.1420572749374675</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1898624191436263</v>
+        <v>0.1471146643573441</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06686135700873196</v>
+        <v>0.14418370963078</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1364611085071945</v>
+        <v>0.0998834461645281</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06159870831948152</v>
+        <v>0.1436032868823764</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2086438070115813</v>
+        <v>0.1509823682563614</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06697178576689347</v>
+        <v>0.1435141540615908</v>
       </c>
       <c r="N155" t="n">
-        <v>0.2748238042459211</v>
+        <v>0.20198325236124</v>
       </c>
       <c r="O155" t="n">
-        <v>0.067792795460237</v>
+        <v>0.1436534240940683</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.2077616749523307</v>
+        <v>0.1352223648657415</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06760426097549564</v>
+        <v>0.1457857508488998</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1361208029925336</v>
+        <v>0.1011113022889962</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0622831384119202</v>
+        <v>0.1451988789588472</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2085415705016477</v>
+        <v>0.1524584702424238</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06771591671985895</v>
+        <v>0.1451087557733863</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2761317859873167</v>
+        <v>0.2026397630967838</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06854604874312853</v>
+        <v>0.145249573250669</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.2096511832639247</v>
+        <v>0.1567160316080107</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06834716494225933</v>
+        <v>0.1473877920670195</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1371018878957601</v>
+        <v>0.102362962044398</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06296756850435889</v>
+        <v>0.1467944710353181</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2081325893983333</v>
+        <v>0.1539670417538724</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06846004767282443</v>
+        <v>0.1467033574851818</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2739394127243612</v>
+        <v>0.2048535905517704</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06929930202602005</v>
+        <v>0.1468457224072698</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.205531601317767</v>
+        <v>0.142511220035028</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06909006890902301</v>
+        <v>0.1489898332851393</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1370872808903718</v>
+        <v>0.1023845306274667</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06365199859679757</v>
+        <v>0.1483900631117889</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2083165449599509</v>
+        <v>0.1549267567070394</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06920417862578991</v>
+        <v>0.1482979591969772</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2760466870488968</v>
+        <v>0.2082155598459297</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07005255530891157</v>
+        <v>0.1484418715638705</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.2104035863532167</v>
+        <v>0.1615234855976696</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0698329728757867</v>
+        <v>0.1505918745032591</v>
       </c>
       <c r="J159" t="n">
-        <v>0.138275974067973</v>
+        <v>0.1049221132349355</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06433642868923625</v>
+        <v>0.1499856551882598</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2093931184448131</v>
+        <v>0.1587562890182571</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06994830957875539</v>
+        <v>0.1498925609087726</v>
       </c>
       <c r="N159" t="n">
-        <v>0.2755536115527657</v>
+        <v>0.2122164960989913</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0708058085918031</v>
+        <v>0.1500380207204713</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1982677956096324</v>
+        <v>0.1466683837468117</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0705758768425504</v>
+        <v>0.1521939157213789</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1377669595201677</v>
+        <v>0.1053218150635377</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06502085878167493</v>
+        <v>0.1515812472647306</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2091619911112326</v>
+        <v>0.1588743126038579</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07069244053172088</v>
+        <v>0.1514871626205681</v>
       </c>
       <c r="N160" t="n">
-        <v>0.2742601888278098</v>
+        <v>0.2137472244306854</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07155906187469462</v>
+        <v>0.1516341698770721</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.2071248863263732</v>
+        <v>0.1608614699333304</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07131878080931409</v>
+        <v>0.1537959569394987</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1392592293385602</v>
+        <v>0.1068297413100066</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06570528887411362</v>
+        <v>0.1531768393412015</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2100228442175218</v>
+        <v>0.162499501380174</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07143657148468636</v>
+        <v>0.1530817643323636</v>
       </c>
       <c r="N161" t="n">
-        <v>0.2753664214658714</v>
+        <v>0.2171985699607413</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07231231515758614</v>
+        <v>0.1532303190336728</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.2029755157427978</v>
+        <v>0.1480182996081019</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07206168477607777</v>
+        <v>0.1553979981576184</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1392517756147545</v>
+        <v>0.1089919971710754</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0663897189665523</v>
+        <v>0.1547724314176723</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2104753590219938</v>
+        <v>0.1641505292635379</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07218070243765184</v>
+        <v>0.154676366044159</v>
       </c>
       <c r="N162" t="n">
-        <v>0.2742723120587927</v>
+        <v>0.2197613578088894</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07306556844047767</v>
+        <v>0.1548264681902736</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1928203410982651</v>
+        <v>0.1570544282220022</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07280458874284146</v>
+        <v>0.1570000393757382</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1393435904403549</v>
+        <v>0.1103546878434774</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06707414905899099</v>
+        <v>0.1563680234941432</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2097192167829609</v>
+        <v>0.1658460701702818</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07292483339061732</v>
+        <v>0.1562709677559545</v>
       </c>
       <c r="N163" t="n">
-        <v>0.2752778631984157</v>
+        <v>0.2219264130948593</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07381882172336918</v>
+        <v>0.1564226173468743</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1906600196321341</v>
+        <v>0.1648854112259079</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07354749270960514</v>
+        <v>0.158602080593858</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1406336659069654</v>
+        <v>0.1111639185239457</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06775857915142967</v>
+        <v>0.157963615570614</v>
       </c>
       <c r="L164" t="n">
-        <v>0.210354098758736</v>
+        <v>0.1667047980167382</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0736689643435828</v>
+        <v>0.1578655694677499</v>
       </c>
       <c r="N164" t="n">
-        <v>0.2737830774765826</v>
+        <v>0.2230845609383808</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07457207500626072</v>
+        <v>0.1580187665034751</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.2084952085837634</v>
+        <v>0.1654699470148845</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07429039667636884</v>
+        <v>0.1602041218119778</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1409209941061902</v>
+        <v>0.1120542378129198</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06844300924386836</v>
+        <v>0.1595592076470849</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2095796862076315</v>
+        <v>0.1696981059764074</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0744130952965483</v>
+        <v>0.1594601711795454</v>
       </c>
       <c r="N165" t="n">
-        <v>0.2736879574851354</v>
+        <v>0.226892082741102</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07532532828915223</v>
+        <v>0.1596149156600759</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.205326565192512</v>
+        <v>0.162985626235433</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07503330064313253</v>
+        <v>0.1618061630300975</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1407045671296335</v>
+        <v>0.1127200072049441</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06912743933630704</v>
+        <v>0.1611547997235557</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2112956603879603</v>
+        <v>0.1700550938477584</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07515722624951378</v>
+        <v>0.1610547728913408</v>
       </c>
       <c r="N166" t="n">
-        <v>0.2750925058159166</v>
+        <v>0.2288487040523719</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07607858157204375</v>
+        <v>0.1612110648166766</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1931547466977388</v>
+        <v>0.1594652165369747</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07577620460989622</v>
+        <v>0.1634082042482173</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1411833770688995</v>
+        <v>0.1134633277900073</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06981186942874572</v>
+        <v>0.1627503918000266</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2116017025580351</v>
+        <v>0.1723783429464943</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07590135720247926</v>
+        <v>0.1626493746031363</v>
       </c>
       <c r="N167" t="n">
-        <v>0.2747967250607679</v>
+        <v>0.2286597481540475</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07683183485493528</v>
+        <v>0.1628072139732774</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1999804103388026</v>
+        <v>0.1579113967547678</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0765191085766599</v>
+        <v>0.1650102454663371</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1427564160155922</v>
+        <v>0.1142859092734804</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07049629952118441</v>
+        <v>0.1643459838764974</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2118974939761682</v>
+        <v>0.1729704331807632</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07664548815544474</v>
+        <v>0.1642439763149317</v>
       </c>
       <c r="N168" t="n">
-        <v>0.2757006178115315</v>
+        <v>0.2316286784019239</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07758508813782679</v>
+        <v>0.1644033631298781</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.2028042133550622</v>
+        <v>0.1653268457240702</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07726201254342359</v>
+        <v>0.1666122866844569</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1424226760613158</v>
+        <v>0.115589461360735</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07118072961362309</v>
+        <v>0.1659415759529683</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2107827159006726</v>
+        <v>0.1748339444587128</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07738961910841022</v>
+        <v>0.1658385780267272</v>
       </c>
       <c r="N169" t="n">
-        <v>0.2761041866600499</v>
+        <v>0.232958958151796</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07833834142071833</v>
+        <v>0.1659995122864789</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.2036268129858766</v>
+        <v>0.16471424228014</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07800491651018729</v>
+        <v>0.1682143279025766</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1433811492976746</v>
+        <v>0.1158756937571423</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07186515970606178</v>
+        <v>0.1675371680294391</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2109570495898609</v>
+        <v>0.175871456688491</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07813375006137571</v>
+        <v>0.1674331797385226</v>
       </c>
       <c r="N170" t="n">
-        <v>0.2763074341981649</v>
+        <v>0.2351540507594585</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07909159470360984</v>
+        <v>0.1675956614430796</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1964488664706046</v>
+        <v>0.1710762652582353</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07874782047695097</v>
+        <v>0.1698163691206964</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1434308278162726</v>
+        <v>0.1171463161680736</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07254958979850046</v>
+        <v>0.16913276010591</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2109201763020457</v>
+        <v>0.1763855497782457</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07887788101434119</v>
+        <v>0.1690277814503181</v>
       </c>
       <c r="N171" t="n">
-        <v>0.2750103630177188</v>
+        <v>0.2380174195807065</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07984484798650136</v>
+        <v>0.1691918105996804</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.208271031048605</v>
+        <v>0.1774155934936139</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07949072444371466</v>
+        <v>0.1714184103388162</v>
       </c>
       <c r="J172" t="n">
-        <v>0.143570703708714</v>
+        <v>0.1180030382989002</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07323401989093914</v>
+        <v>0.1707283521823808</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2122717772955397</v>
+        <v>0.1776788036361247</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07962201196730667</v>
+        <v>0.1706223831621136</v>
       </c>
       <c r="N172" t="n">
-        <v>0.2758129757105535</v>
+        <v>0.2384525279713351</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08059810126939289</v>
+        <v>0.1707879597562811</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1980939639592368</v>
+        <v>0.169734905821534</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08023362841047835</v>
+        <v>0.173020451556936</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1443997690666029</v>
+        <v>0.1193475698549935</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07391844998337782</v>
+        <v>0.1723239442588516</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2128115338286555</v>
+        <v>0.1795537981702757</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08036614292027217</v>
+        <v>0.172216984873909</v>
       </c>
       <c r="N173" t="n">
-        <v>0.2761152748685113</v>
+        <v>0.2417628392871389</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08135135455228441</v>
+        <v>0.1723841089128819</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.2059183224418587</v>
+        <v>0.1710368810772536</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08097653237724203</v>
+        <v>0.1746224927750558</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1453170159815436</v>
+        <v>0.1194816205417247</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07460288007581652</v>
+        <v>0.1739195363353225</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2129391271597059</v>
+        <v>0.1817131132888469</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08111027387323763</v>
+        <v>0.1738115865857045</v>
       </c>
       <c r="N174" t="n">
-        <v>0.2756172630834344</v>
+        <v>0.243151816883913</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08210460783517594</v>
+        <v>0.1739802580694827</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1937447637358296</v>
+        <v>0.1833241980960309</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08171943634400572</v>
+        <v>0.1762245339931756</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1448214365451401</v>
+        <v>0.1207069000644653</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0752873101682552</v>
+        <v>0.1755151284117933</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2115542385470033</v>
+        <v>0.1814593288999859</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08185440482620313</v>
+        <v>0.1754061882974999</v>
       </c>
       <c r="N175" t="n">
-        <v>0.2757189429471648</v>
+        <v>0.2432229241174525</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08285786111806745</v>
+        <v>0.1755764072260834</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.2005697367277316</v>
+        <v>0.171599558783321</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08246234031076942</v>
+        <v>0.1778265752112953</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1454120228489965</v>
+        <v>0.1209303596724636</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07597174026069388</v>
+        <v>0.1771107204882642</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2125565492488607</v>
+        <v>0.184505344993761</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08259853577916861</v>
+        <v>0.1770007900092954</v>
       </c>
       <c r="N176" t="n">
-        <v>0.2748203170515447</v>
+        <v>0.245088603333567</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08361111440095897</v>
+        <v>0.1771725563826842</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1943862120630033</v>
+        <v>0.1849205083272163</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08320524427753311</v>
+        <v>0.1794286164294151</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1457877669847173</v>
+        <v>0.1219985997315129</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07665617035313256</v>
+        <v>0.1787063125647351</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2112457405235905</v>
+        <v>0.1853208930262934</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08334266673213409</v>
+        <v>0.1785953917210908</v>
       </c>
       <c r="N177" t="n">
-        <v>0.2762213879884163</v>
+        <v>0.2462432581768927</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0843643676838505</v>
+        <v>0.178768705539285</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.2061943025901903</v>
+        <v>0.182307458738948</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08394814824429679</v>
+        <v>0.1810306576475349</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1470476610439063</v>
+        <v>0.1237988059990865</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07734060044557124</v>
+        <v>0.1803019046412059</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2126214936295056</v>
+        <v>0.1855823126629809</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08408679768509958</v>
+        <v>0.1801899934328863</v>
       </c>
       <c r="N178" t="n">
-        <v>0.2756221583496217</v>
+        <v>0.2502644509786806</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08511762096674202</v>
+        <v>0.1803648546958857</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.2019942628634643</v>
+        <v>0.1907143923535206</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08469105221106048</v>
+        <v>0.1826326988656547</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1465906971181677</v>
+        <v>0.1247016087523609</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07802503053800992</v>
+        <v>0.1818974967176767</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2127834898249183</v>
+        <v>0.1880452856321004</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08483092863806506</v>
+        <v>0.1817845951446817</v>
       </c>
       <c r="N179" t="n">
-        <v>0.2746226307270029</v>
+        <v>0.2508926873947918</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08587087424963355</v>
+        <v>0.1819610038524865</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.2037863474369972</v>
+        <v>0.1930952915059388</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08543395617782416</v>
+        <v>0.1842347400837744</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1470158672991057</v>
+        <v>0.1248776382685127</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07870946063044862</v>
+        <v>0.1834930887941476</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2120314103681415</v>
+        <v>0.1892654936619285</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08557505959103054</v>
+        <v>0.1833791968564772</v>
       </c>
       <c r="N180" t="n">
-        <v>0.2761228077124022</v>
+        <v>0.2531684730810881</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08662412753252506</v>
+        <v>0.1835571530090872</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1995708108649604</v>
+        <v>0.177404138531207</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08617686014458785</v>
+        <v>0.1858367813018942</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1477221636783246</v>
+        <v>0.1257975248247184</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0793938907228873</v>
+        <v>0.1850886808706184</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2115649365174879</v>
+        <v>0.1894986184807423</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08631919054399602</v>
+        <v>0.1849737985682726</v>
       </c>
       <c r="N181" t="n">
-        <v>0.275567500511993</v>
+        <v>0.2556323136934312</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08737738081541659</v>
+        <v>0.185153302165688</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1993479077015258</v>
+        <v>0.19359491576433</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08691976411135154</v>
+        <v>0.187438822520014</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1483085783474283</v>
+        <v>0.1259318986981543</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08007832081532598</v>
+        <v>0.1866842729470893</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2132837495312702</v>
+        <v>0.1905003418168186</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0870633214969615</v>
+        <v>0.1865684002800681</v>
       </c>
       <c r="N182" t="n">
-        <v>0.2747799653855661</v>
+        <v>0.2559247148876823</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08813063409830811</v>
+        <v>0.1867494513222887</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1981178925008651</v>
+        <v>0.1866216055403122</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08766266807811522</v>
+        <v>0.1890408637381338</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1477741033980212</v>
+        <v>0.1272513901659969</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08076275090776466</v>
+        <v>0.1882798650235601</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2128836339443398</v>
+        <v>0.1923263453984342</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08780745244992699</v>
+        <v>0.1881630019918636</v>
       </c>
       <c r="N183" t="n">
-        <v>0.2757670186584331</v>
+        <v>0.2578861823197032</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08888388738119964</v>
+        <v>0.1883456004788895</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.18488101981715</v>
+        <v>0.1924381901941584</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08840557204487891</v>
+        <v>0.1906429049562536</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1480177309217073</v>
+        <v>0.1272266295054229</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08144718100020334</v>
+        <v>0.189875457100031</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2113810537326082</v>
+        <v>0.194032310953866</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08855158340289247</v>
+        <v>0.189757603703659</v>
       </c>
       <c r="N184" t="n">
-        <v>0.274836218204861</v>
+        <v>0.2595572216453554</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08963714066409115</v>
+        <v>0.1899417496354902</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1966375442045522</v>
+        <v>0.1830146331540227</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08914847601164259</v>
+        <v>0.1922449461743733</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1485384530100907</v>
+        <v>0.1278679009885829</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08213161109264204</v>
+        <v>0.1914710491765018</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2128477857040794</v>
+        <v>0.1942433190932094</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08929571435585795</v>
+        <v>0.1913522054154545</v>
       </c>
       <c r="N185" t="n">
-        <v>0.2746951218991167</v>
+        <v>0.2601518859982175</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09039039394698267</v>
+        <v>0.191537898792091</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1873877202172434</v>
+        <v>0.1875219598277065</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08989137997840629</v>
+        <v>0.1938469873924931</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1483352617547757</v>
+        <v>0.1288921097864127</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08281604118508072</v>
+        <v>0.1930666412529727</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2116910577640118</v>
+        <v>0.1937326382658128</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09003984530882343</v>
+        <v>0.1929468071272499</v>
       </c>
       <c r="N186" t="n">
-        <v>0.2731512876154666</v>
+        <v>0.2589085646568298</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0911436472298742</v>
+        <v>0.1931340479486918</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1851318024093953</v>
+        <v>0.1850183904187677</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09063428394516998</v>
+        <v>0.1954490286106129</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1486071492473664</v>
+        <v>0.1281093022256532</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0835004712775194</v>
+        <v>0.1946622333294435</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2103180978176637</v>
+        <v>0.1944113554295318</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09078397626178891</v>
+        <v>0.1945414088390454</v>
       </c>
       <c r="N187" t="n">
-        <v>0.2734122732281778</v>
+        <v>0.2613510411757785</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09189690051276572</v>
+        <v>0.1947301971052925</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1968700453351797</v>
+        <v>0.184503755575972</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09137718791193367</v>
+        <v>0.1970510698287327</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1493531075794669</v>
+        <v>0.1289193702217502</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08418490136995808</v>
+        <v>0.1962578254059144</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2116361337702935</v>
+        <v>0.1951793074871292</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09152810721475441</v>
+        <v>0.1961360105508408</v>
       </c>
       <c r="N188" t="n">
-        <v>0.2718856366115172</v>
+        <v>0.2610790966078264</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09265015379565725</v>
+        <v>0.1963263462618933</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1946027035487682</v>
+        <v>0.1979778859480853</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09212009187869735</v>
+        <v>0.1986531110468524</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1484721288426814</v>
+        <v>0.1288222056901494</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08486933146239677</v>
+        <v>0.1978534174823852</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2106523935271595</v>
+        <v>0.1956363313413683</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09227223816771989</v>
+        <v>0.1977306122626363</v>
       </c>
       <c r="N189" t="n">
-        <v>0.2694789356397514</v>
+        <v>0.2625925120057366</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09340340707854876</v>
+        <v>0.197922495418494</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1943300316043326</v>
+        <v>0.1994406121838734</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09286299584546104</v>
+        <v>0.2002551522649722</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1493632051286141</v>
+        <v>0.1290177005462966</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08555376155483545</v>
+        <v>0.1994490095588561</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2082741049935201</v>
+        <v>0.195682263895012</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09301636912068538</v>
+        <v>0.1993252139744317</v>
       </c>
       <c r="N190" t="n">
-        <v>0.2702997281871474</v>
+        <v>0.2619910684222724</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09415666036144028</v>
+        <v>0.1995186445750948</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1870522840560445</v>
+        <v>0.1968917649321022</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09360589981222474</v>
+        <v>0.201857193483092</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1492253285288691</v>
+        <v>0.1292057467056376</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08623819164727413</v>
+        <v>0.2010446016353269</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2083084960746335</v>
+        <v>0.1960169420508235</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09376050007365085</v>
+        <v>0.2009198156862272</v>
       </c>
       <c r="N191" t="n">
-        <v>0.2678555721279717</v>
+        <v>0.2638745469101962</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09490991364433181</v>
+        <v>0.2011147937316956</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1827697154580757</v>
+        <v>0.1843311748415376</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09434880377898842</v>
+        <v>0.2034592347012118</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1490574911350505</v>
+        <v>0.1298862360836184</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08692262173971281</v>
+        <v>0.2026401937117978</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2064627946757582</v>
+        <v>0.1957402027115658</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09450463102661633</v>
+        <v>0.2025144173980226</v>
       </c>
       <c r="N192" t="n">
-        <v>0.2668540253364914</v>
+        <v>0.2646427285222714</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09566316692722333</v>
+        <v>0.2027109428882963</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1964825803645979</v>
+        <v>0.1947586725609453</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09509170774575211</v>
+        <v>0.2050612759193315</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1489429693476579</v>
+        <v>0.1303590605956845</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08760705183215149</v>
+        <v>0.2042357857882686</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2054442287021524</v>
+        <v>0.1961518827800017</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09524876197958182</v>
+        <v>0.2041090191098181</v>
       </c>
       <c r="N193" t="n">
-        <v>0.2670026456869732</v>
+        <v>0.2646953943112609</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09641642021011486</v>
+        <v>0.2043070920448971</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1931911333297829</v>
+        <v>0.1971740887390913</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0958346117125158</v>
+        <v>0.2066633171374513</v>
       </c>
       <c r="J194" t="n">
-        <v>0.149674820661971</v>
+        <v>0.1312241121572818</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08829148192459017</v>
+        <v>0.2058313778647395</v>
       </c>
       <c r="L194" t="n">
-        <v>0.2054600260590746</v>
+        <v>0.1967518191588946</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0959928929325473</v>
+        <v>0.2057036208216135</v>
       </c>
       <c r="N194" t="n">
-        <v>0.2639089910536839</v>
+        <v>0.2645323253299274</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09716967349300637</v>
+        <v>0.2059032412014978</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1858956289078022</v>
+        <v>0.1925772540247413</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09657751567927948</v>
+        <v>0.2082653583555711</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1489435637904402</v>
+        <v>0.130681282683856</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08897591201702885</v>
+        <v>0.2074269699412103</v>
       </c>
       <c r="L195" t="n">
-        <v>0.204217414651783</v>
+        <v>0.1974398487510074</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09673702388551279</v>
+        <v>0.207298222533409</v>
       </c>
       <c r="N195" t="n">
-        <v>0.2628806193108902</v>
+        <v>0.2659533026310342</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09792292677589791</v>
+        <v>0.2074993903580986</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1875963216528276</v>
+        <v>0.1829679990666612</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09732041964604318</v>
+        <v>0.2098673995736909</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1480619082474009</v>
+        <v>0.1309304640908531</v>
       </c>
       <c r="K196" t="n">
-        <v>0.08966034210946755</v>
+        <v>0.2090225620176812</v>
       </c>
       <c r="L196" t="n">
-        <v>0.203023622385536</v>
+        <v>0.1991158084591031</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09748115483847826</v>
+        <v>0.2088928242452044</v>
       </c>
       <c r="N196" t="n">
-        <v>0.2619250883328591</v>
+        <v>0.2643581072673441</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09867618005878942</v>
+        <v>0.2090955395146994</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.2022934661190308</v>
+        <v>0.2033461545136169</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09806332361280687</v>
+        <v>0.2114694407918107</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1472425635471889</v>
+        <v>0.1311715482937187</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09034477220190623</v>
+        <v>0.210618154094152</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2013858771655919</v>
+        <v>0.1980795351859447</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09822528579144374</v>
+        <v>0.2104874259569999</v>
       </c>
       <c r="N197" t="n">
-        <v>0.2624499559938573</v>
+        <v>0.2671465202916201</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09942943334168095</v>
+        <v>0.2106916886713001</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1819873168605836</v>
+        <v>0.1837115510143741</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09880622757957055</v>
+        <v>0.2130714820099305</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1463982392041397</v>
+        <v>0.1310044272078986</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09102920229434491</v>
+        <v>0.2122137461706229</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2000114068972091</v>
+        <v>0.1994308658342953</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09896941674440923</v>
+        <v>0.2120820276687954</v>
       </c>
       <c r="N198" t="n">
-        <v>0.2605627801681516</v>
+        <v>0.2674183227566254</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1001826866245725</v>
+        <v>0.2122878378279009</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1986781284316577</v>
+        <v>0.1920640192176989</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09954913154633424</v>
+        <v>0.2146735232280502</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1457416447325888</v>
+        <v>0.1316289927488386</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09171363238678359</v>
+        <v>0.2138093382470937</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1994074394856459</v>
+        <v>0.1985696373069179</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09971354769737471</v>
+        <v>0.2136766293805908</v>
       </c>
       <c r="N199" t="n">
-        <v>0.259071118730009</v>
+        <v>0.2662732957151225</v>
       </c>
       <c r="O199" t="n">
-        <v>0.100935939907464</v>
+        <v>0.2138839869845016</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1923661553864247</v>
+        <v>0.2054033897723568</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1002920355130979</v>
+        <v>0.21627556444617</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1447854896468719</v>
+        <v>0.1327451368319846</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09239806247922228</v>
+        <v>0.2154049303235646</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1972812028361607</v>
+        <v>0.2005956865065757</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1004576786503402</v>
+        <v>0.2152712310923863</v>
       </c>
       <c r="N200" t="n">
-        <v>0.2575825295536961</v>
+        <v>0.2670112202198747</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1016891931903555</v>
+        <v>0.2154801361411024</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1950516522790563</v>
+        <v>0.1917294933271139</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1010349394798616</v>
+        <v>0.2178776056642897</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1437424834613245</v>
+        <v>0.1328527513727823</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09308249257166096</v>
+        <v>0.2170005224000354</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1958399248540117</v>
+        <v>0.1991088503360315</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1012018096033057</v>
+        <v>0.2168658328041817</v>
       </c>
       <c r="N201" t="n">
-        <v>0.2550045705134797</v>
+        <v>0.2681318773236451</v>
       </c>
       <c r="O201" t="n">
-        <v>0.102442446473247</v>
+        <v>0.2170762852977031</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1857348736637243</v>
+        <v>0.203042160530736</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1017778434466253</v>
+        <v>0.2194796468824095</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1431253356902822</v>
+        <v>0.1324517282866774</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09376692266409965</v>
+        <v>0.2185961144765063</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1961908334444574</v>
+        <v>0.1995089656980485</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1019459405562712</v>
+        <v>0.2184604345159772</v>
       </c>
       <c r="N202" t="n">
-        <v>0.2537447994836266</v>
+        <v>0.2690350480791964</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1031956997561386</v>
+        <v>0.2186724344543039</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1914160740946006</v>
+        <v>0.2003412220319888</v>
       </c>
       <c r="G203" t="n">
-        <v>0.102520747413389</v>
+        <v>0.2210816881005293</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1414467558480807</v>
+        <v>0.1333419594891158</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09445135275653833</v>
+        <v>0.2201917065529771</v>
       </c>
       <c r="L203" t="n">
-        <v>0.193841156512756</v>
+        <v>0.1996958694953898</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1026900715092366</v>
+        <v>0.2200550362277726</v>
       </c>
       <c r="N203" t="n">
-        <v>0.2526107743384037</v>
+        <v>0.2697205135392916</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1039489530390301</v>
+        <v>0.2202685836109047</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1860955081258565</v>
+        <v>0.2006265084796383</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1032636513801527</v>
+        <v>0.2226837293186491</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1409194534490555</v>
+        <v>0.1322233368955432</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09513578284897702</v>
+        <v>0.221787298629448</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1930981219641659</v>
+        <v>0.1999693986308183</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1034342024622021</v>
+        <v>0.2216496379395681</v>
       </c>
       <c r="N204" t="n">
-        <v>0.2518100529520778</v>
+        <v>0.2677880547566938</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1047022063219216</v>
+        <v>0.2218647327675054</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.180773430311664</v>
+        <v>0.1948978505224504</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1040065553469164</v>
+        <v>0.2242857705367689</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1393561380075422</v>
+        <v>0.1335957524214056</v>
       </c>
       <c r="K205" t="n">
-        <v>0.0958202129414157</v>
+        <v>0.2233828907059188</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1917689577039455</v>
+        <v>0.2011293900070971</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1041783334151676</v>
+        <v>0.2232442396513635</v>
       </c>
       <c r="N205" t="n">
-        <v>0.2497501931989156</v>
+        <v>0.2687374527841658</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1054554596048131</v>
+        <v>0.2234608819241062</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1814500952061947</v>
+        <v>0.1971550788091907</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1047494593136801</v>
+        <v>0.2258878117548886</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1380695190378764</v>
+        <v>0.1325590979821485</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09650464303385438</v>
+        <v>0.2249784827823897</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1899608916373531</v>
+        <v>0.2021756805269893</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1049224643681331</v>
+        <v>0.224838841363159</v>
       </c>
       <c r="N206" t="n">
-        <v>0.2489387529531841</v>
+        <v>0.2703684886744708</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1062087128877046</v>
+        <v>0.2250570310807069</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1891257573636203</v>
+        <v>0.2043980239886253</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1054923632804438</v>
+        <v>0.2274898529730084</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1371723060543937</v>
+        <v>0.1329132654932178</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09718907312629307</v>
+        <v>0.2265740748588605</v>
       </c>
       <c r="L207" t="n">
-        <v>0.189081151669647</v>
+        <v>0.2022081070932579</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1056665953210986</v>
+        <v>0.2264334430749545</v>
       </c>
       <c r="N207" t="n">
-        <v>0.2485789277831972</v>
+        <v>0.2711809434803715</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1069619661705962</v>
+        <v>0.2266531802373077</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1918006713381126</v>
+        <v>0.1896265167095199</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1062352672472074</v>
+        <v>0.2290918941911282</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1360772085714296</v>
+        <v>0.1338581468700593</v>
       </c>
       <c r="K208" t="n">
-        <v>0.09787350321873176</v>
+        <v>0.2281696669353313</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1881369657060856</v>
+        <v>0.2023265066086658</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1064107262740641</v>
+        <v>0.2280280447867499</v>
       </c>
       <c r="N208" t="n">
-        <v>0.2485279844280109</v>
+        <v>0.270674598254631</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1077152194534877</v>
+        <v>0.2282493293939085</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1954750916838432</v>
+        <v>0.1948403876206403</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1069781712139711</v>
+        <v>0.230693935409248</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1347969361033198</v>
+        <v>0.1334936340281187</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09855793331117044</v>
+        <v>0.2297652590118022</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1857213804674282</v>
+        <v>0.2025307159759763</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1071548572270295</v>
+        <v>0.2296226464985454</v>
       </c>
       <c r="N209" t="n">
-        <v>0.2473731951455987</v>
+        <v>0.2701492340500123</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1084684727363792</v>
+        <v>0.2298454785505092</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1861489396688233</v>
+        <v>0.2080394673707525</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1077210751807348</v>
+        <v>0.2322959766273678</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1329441981643999</v>
+        <v>0.1343196188828421</v>
       </c>
       <c r="K210" t="n">
-        <v>0.09924236340360912</v>
+        <v>0.2313608510882731</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1842930466149632</v>
+        <v>0.2019205720979522</v>
       </c>
       <c r="M210" t="n">
-        <v>0.107898988179995</v>
+        <v>0.2312172482103408</v>
       </c>
       <c r="N210" t="n">
-        <v>0.2459145315685614</v>
+        <v>0.2700046319192786</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1092217260192707</v>
+        <v>0.23144162770711</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1818198028666176</v>
+        <v>0.1872235866086221</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1084639791474985</v>
+        <v>0.2338980178454876</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1313317042690053</v>
+        <v>0.1336359933496749</v>
       </c>
       <c r="K211" t="n">
-        <v>0.0999267934960478</v>
+        <v>0.2329564431647439</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1838487169237579</v>
+        <v>0.2018959118773567</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1086431191329605</v>
+        <v>0.2328118499221362</v>
       </c>
       <c r="N211" t="n">
-        <v>0.2442519653294996</v>
+        <v>0.2712405729151925</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1099749793021623</v>
+        <v>0.2330377768637107</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1944871574678248</v>
+        <v>0.2043925759830153</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1092068831142622</v>
+        <v>0.2355000590636073</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1301721639314719</v>
+        <v>0.1345426493440631</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1006112235884865</v>
+        <v>0.2345520352412148</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1824883850641532</v>
+        <v>0.2025565722169527</v>
       </c>
       <c r="M212" t="n">
-        <v>0.109387250085926</v>
+        <v>0.2344064516339317</v>
       </c>
       <c r="N212" t="n">
-        <v>0.2425854680610144</v>
+        <v>0.2707568380905172</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1107282325850538</v>
+        <v>0.2346339260203115</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1881510112282336</v>
+        <v>0.1965462661426976</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1099497870810259</v>
+        <v>0.2371021002817271</v>
       </c>
       <c r="J213" t="n">
-        <v>0.129678286666135</v>
+        <v>0.1346394787814524</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1012956536809252</v>
+        <v>0.2361476273176856</v>
       </c>
       <c r="L213" t="n">
-        <v>0.18091204470649</v>
+        <v>0.2025023900195034</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1101313810388915</v>
+        <v>0.2360010533457272</v>
       </c>
       <c r="N213" t="n">
-        <v>0.2422150113957061</v>
+        <v>0.2724532084980155</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1114814858679453</v>
+        <v>0.2362300751769123</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1758113719036331</v>
+        <v>0.1906844877364351</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1106926910477896</v>
+        <v>0.2387041414998469</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1288627819873303</v>
+        <v>0.1337263735772885</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1019800837733639</v>
+        <v>0.2377432193941564</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1799196895211092</v>
+        <v>0.2034332021877718</v>
       </c>
       <c r="M214" t="n">
-        <v>0.110875511991857</v>
+        <v>0.2375956550575226</v>
       </c>
       <c r="N214" t="n">
-        <v>0.2409405669661762</v>
+        <v>0.2702294651904503</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1122347391508368</v>
+        <v>0.237826224333513</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1784682472498123</v>
+        <v>0.1988070714129934</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1114355950145533</v>
+        <v>0.2403061827179666</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1280383594093935</v>
+        <v>0.1346032256470174</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1026645138658025</v>
+        <v>0.2393388114706273</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1786113131783519</v>
+        <v>0.203848845624521</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1116196429448224</v>
+        <v>0.2391902567693181</v>
       </c>
       <c r="N215" t="n">
-        <v>0.240262106405025</v>
+        <v>0.272185389220585</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1129879924337283</v>
+        <v>0.2394223734901137</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1771216450225601</v>
+        <v>0.1979138478211385</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1121784989813169</v>
+        <v>0.2419082239360864</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1266177284466601</v>
+        <v>0.1348699269060849</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1033489439582412</v>
+        <v>0.2409344035470982</v>
       </c>
       <c r="L216" t="n">
-        <v>0.177986909348559</v>
+        <v>0.2034491572325138</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1123637738977879</v>
+        <v>0.2407848584811135</v>
       </c>
       <c r="N216" t="n">
-        <v>0.2405796013448535</v>
+        <v>0.2716207616411823</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1137412457166199</v>
+        <v>0.2410185226467145</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1757715729776653</v>
+        <v>0.1880046476096363</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1129214029480806</v>
+        <v>0.2435102651542062</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1258135986134655</v>
+        <v>0.1337263692699365</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1040333740506799</v>
+        <v>0.242529995623569</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1751464717020715</v>
+        <v>0.2025339739145135</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1131079048507534</v>
+        <v>0.242379460192909</v>
       </c>
       <c r="N217" t="n">
-        <v>0.2391930234182624</v>
+        <v>0.273135363505005</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1144944989995114</v>
+        <v>0.2426146718033153</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.178418038870917</v>
+        <v>0.1880793014272525</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1136643069148443</v>
+        <v>0.245112306372326</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1259386794241456</v>
+        <v>0.1338724446540182</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1047178041431186</v>
+        <v>0.2441255877000398</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1737899939092302</v>
+        <v>0.202303132573283</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1138520358037189</v>
+        <v>0.2439740619047044</v>
       </c>
       <c r="N218" t="n">
-        <v>0.2385023442578527</v>
+        <v>0.2730289758648163</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1152477522824029</v>
+        <v>0.2442108209599161</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1780610504581041</v>
+        <v>0.2061376399227531</v>
       </c>
       <c r="G219" t="n">
-        <v>0.114407210881608</v>
+        <v>0.2467143475904457</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1256056803930359</v>
+        <v>0.1345080449737758</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1054022342355573</v>
+        <v>0.2457211797765107</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1734174696403761</v>
+        <v>0.2039564701115854</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1145961667566844</v>
+        <v>0.2455686636164999</v>
       </c>
       <c r="N219" t="n">
-        <v>0.235107535496225</v>
+        <v>0.2716013797733792</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1160010055652944</v>
+        <v>0.2458069701165168</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1817006154950155</v>
+        <v>0.1991794937449037</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1151501148483717</v>
+        <v>0.2483163888085655</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1252273110344718</v>
+        <v>0.135133062144655</v>
       </c>
       <c r="K220" t="n">
-        <v>0.106086664327996</v>
+        <v>0.2473167718529815</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1725288925658502</v>
+        <v>0.2022938234321838</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1153402977096499</v>
+        <v>0.2471632653282953</v>
       </c>
       <c r="N220" t="n">
-        <v>0.2349085687659802</v>
+        <v>0.2734523562834565</v>
       </c>
       <c r="O220" t="n">
-        <v>0.116754258848186</v>
+        <v>0.2474031192731175</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1923367417374401</v>
+        <v>0.2012046935424703</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1158930188151354</v>
+        <v>0.2499184300266853</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1247162808627891</v>
+        <v>0.1351473880821015</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1067710944204346</v>
+        <v>0.2489123639294524</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1700242563559935</v>
+        <v>0.2038150294378411</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1160844286626153</v>
+        <v>0.2487578670400908</v>
       </c>
       <c r="N221" t="n">
-        <v>0.2327054156997191</v>
+        <v>0.2725816864478114</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1175075121310775</v>
+        <v>0.2489992684297183</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.187969436941167</v>
+        <v>0.2082130623805603</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1166359227818991</v>
+        <v>0.2515204712448051</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1250148220731181</v>
+        <v>0.1344458252610679</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1074555245128733</v>
+        <v>0.2505079560059232</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1682035546811469</v>
+        <v>0.2025097794470727</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1168285596155808</v>
+        <v>0.2503524687518863</v>
       </c>
       <c r="N222" t="n">
-        <v>0.2320980479300425</v>
+        <v>0.2734805001472147</v>
       </c>
       <c r="O222" t="n">
-        <v>0.118260765413969</v>
+        <v>0.2505954175863191</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.176598708861985</v>
+        <v>0.2079502517767741</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1173788267486627</v>
+        <v>0.2531225124629249</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1250150149461745</v>
+        <v>0.1341222685671403</v>
       </c>
       <c r="K223" t="n">
-        <v>0.108139954605312</v>
+        <v>0.2521035480823941</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1673667812116514</v>
+        <v>0.2034595082565006</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1175726905685463</v>
+        <v>0.2519470704636817</v>
       </c>
       <c r="N223" t="n">
-        <v>0.2312864370895512</v>
+        <v>0.2715374046799212</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1190140186968605</v>
+        <v>0.2521915667429198</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.176224565255683</v>
+        <v>0.2022028190465848</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1181217307154264</v>
+        <v>0.2547245536810447</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1247155751287715</v>
+        <v>0.1332937464734502</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1088243846977507</v>
+        <v>0.2536991401588649</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1657139296178478</v>
+        <v>0.2023500598184381</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1183168215215118</v>
+        <v>0.2535416721754771</v>
       </c>
       <c r="N224" t="n">
-        <v>0.2294705548108462</v>
+        <v>0.2714757787019114</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1197672719797521</v>
+        <v>0.2537877158995206</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1848470138780501</v>
+        <v>0.1880235583165602</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1188646346821901</v>
+        <v>0.2563265948991644</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1243166988181116</v>
+        <v>0.1326939536245249</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1095088147901894</v>
+        <v>0.2552947322353358</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1639449935700773</v>
+        <v>0.2010322786172118</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1190609524744773</v>
+        <v>0.2551362738872726</v>
       </c>
       <c r="N225" t="n">
-        <v>0.229450372726528</v>
+        <v>0.2691638775654466</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1205205252626436</v>
+        <v>0.2553838650561213</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1844660624848751</v>
+        <v>0.1954652637132681</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1196075386489538</v>
+        <v>0.2579286361172842</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1251185822113976</v>
+        <v>0.1313565846648919</v>
       </c>
       <c r="K226" t="n">
-        <v>0.110193244882628</v>
+        <v>0.2568903243118066</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1631599667386807</v>
+        <v>0.1989570091371486</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1198050834274428</v>
+        <v>0.2567308755990681</v>
       </c>
       <c r="N226" t="n">
-        <v>0.2296258624691977</v>
+        <v>0.2671699566227883</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1212737785455351</v>
+        <v>0.2569800142127221</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1920817188319469</v>
+        <v>0.1825807293632763</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1203504426157175</v>
+        <v>0.259530677335404</v>
       </c>
       <c r="J227" t="n">
-        <v>0.124421421505832</v>
+        <v>0.1310153342390789</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1108776749750667</v>
+        <v>0.2584859163882774</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1615588427939989</v>
+        <v>0.1967750958625755</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1205492143804082</v>
+        <v>0.2583254773108635</v>
       </c>
       <c r="N227" t="n">
-        <v>0.2274969956714558</v>
+        <v>0.2647622712261978</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1220270318284266</v>
+        <v>0.2585761633693229</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1736939906750546</v>
+        <v>0.1914227493931527</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1210933465824812</v>
+        <v>0.2611327185535238</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1239254128986176</v>
+        <v>0.129303896991613</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1115621050675054</v>
+        <v>0.2600815084647483</v>
       </c>
       <c r="L228" t="n">
-        <v>0.160041615406373</v>
+        <v>0.1948373832778189</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1212933453333737</v>
+        <v>0.259920079022659</v>
       </c>
       <c r="N228" t="n">
-        <v>0.2247637439659033</v>
+        <v>0.2605090767279368</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1227802851113181</v>
+        <v>0.2601723125259237</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1783028857699871</v>
+        <v>0.1900441179294648</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1218362505492449</v>
+        <v>0.2627347597716435</v>
       </c>
       <c r="J229" t="n">
-        <v>0.124130752586957</v>
+        <v>0.1270559675670219</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1122465351599441</v>
+        <v>0.2616771005412192</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1583082782461439</v>
+        <v>0.193994715867206</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1220374762863392</v>
+        <v>0.2615146807344544</v>
       </c>
       <c r="N229" t="n">
-        <v>0.2250260789851409</v>
+        <v>0.2589786284802663</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1235335383942097</v>
+        <v>0.2617684616825244</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1779084118725332</v>
+        <v>0.1894976290987805</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1225791545160086</v>
+        <v>0.2643368009897633</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1242376367680529</v>
+        <v>0.126605240609833</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1129309652523828</v>
+        <v>0.26327269261769</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1578588249836524</v>
+        <v>0.1914979381150633</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1227816072393047</v>
+        <v>0.2631092824462499</v>
       </c>
       <c r="N230" t="n">
-        <v>0.2228839723617696</v>
+        <v>0.2540391818354483</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1242867916771012</v>
+        <v>0.2633646108391251</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.187510576738482</v>
+        <v>0.1758360770276674</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1233220584827723</v>
+        <v>0.2659388422078831</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1249462616391079</v>
+        <v>0.1247854107645739</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1136153953448215</v>
+        <v>0.2648682846941609</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1561932492892397</v>
+        <v>0.1876978945057178</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1235257381922702</v>
+        <v>0.2647038841580454</v>
       </c>
       <c r="N231" t="n">
-        <v>0.2226373957283901</v>
+        <v>0.2515589921457436</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1250400449599927</v>
+        <v>0.2649607599957259</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1771093881236222</v>
+        <v>0.1761122558426935</v>
       </c>
       <c r="G232" t="n">
-        <v>0.124064962449536</v>
+        <v>0.2675408834260029</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1248568233973247</v>
+        <v>0.1226301726757718</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1142998254372602</v>
+        <v>0.2664638767706317</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1548115448332467</v>
+        <v>0.1845454295234964</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1242698691452356</v>
+        <v>0.2662984858698408</v>
       </c>
       <c r="N232" t="n">
-        <v>0.2203863207176031</v>
+        <v>0.247206314763414</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1257932982428842</v>
+        <v>0.2665569091523267</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1747048537837431</v>
+        <v>0.1783789596704265</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1248078664162996</v>
+        <v>0.2691429246441226</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1248695182399059</v>
+        <v>0.1204732209879543</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1149842555296988</v>
+        <v>0.2680594688471026</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1517137052860141</v>
+        <v>0.1831913876527257</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1250140000982011</v>
+        <v>0.2678930875816363</v>
       </c>
       <c r="N233" t="n">
-        <v>0.2192307189620095</v>
+        <v>0.2443494050407209</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1265465515257758</v>
+        <v>0.2681530583089274</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1712969814746334</v>
+        <v>0.1856889826374342</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1255507703830633</v>
+        <v>0.2707449658622424</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1249845423640543</v>
+        <v>0.118848250345649</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1156686856221375</v>
+        <v>0.2696550609235734</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1509997243178832</v>
+        <v>0.1789866133777326</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1257581310511666</v>
+        <v>0.2694876892934317</v>
       </c>
       <c r="N234" t="n">
-        <v>0.2180705620942101</v>
+        <v>0.2414565183299253</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1272998048086673</v>
+        <v>0.2697492074655282</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.180885778952082</v>
+        <v>0.1770951188702842</v>
       </c>
       <c r="G235" t="n">
-        <v>0.126293674349827</v>
+        <v>0.2723470070803622</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1244020919669724</v>
+        <v>0.1167889553933832</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1163531157145762</v>
+        <v>0.2712506530000443</v>
       </c>
       <c r="L235" t="n">
-        <v>0.1487695955991948</v>
+        <v>0.176981951182844</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1265022620041321</v>
+        <v>0.2710822910052272</v>
       </c>
       <c r="N235" t="n">
-        <v>0.218805821746806</v>
+        <v>0.2384959099832894</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1280530580915588</v>
+        <v>0.2713453566221289</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.174471253971878</v>
+        <v>0.1706501624955445</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1270365783165907</v>
+        <v>0.273949048298482</v>
       </c>
       <c r="J236" t="n">
-        <v>0.124522363245863</v>
+        <v>0.1160290307756845</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1170375458070149</v>
+        <v>0.2728462450765152</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1472233128002898</v>
+        <v>0.1746282455523865</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1272463929570976</v>
+        <v>0.2726768927170226</v>
       </c>
       <c r="N236" t="n">
-        <v>0.2160364695523973</v>
+        <v>0.233335835353074</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1288063113744503</v>
+        <v>0.2729415057787297</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1750534142898103</v>
+        <v>0.1674062215845634</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1277794822833544</v>
+        <v>0.2755510895166018</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1247455523979287</v>
+        <v>0.1144993907818608</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1177219758994536</v>
+        <v>0.274441837152986</v>
       </c>
       <c r="L237" t="n">
-        <v>0.1452608695915092</v>
+        <v>0.1726713227639918</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1279905239100631</v>
+        <v>0.274271494428818</v>
       </c>
       <c r="N237" t="n">
-        <v>0.2154624771435855</v>
+        <v>0.2317394941374232</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1295595646573418</v>
+        <v>0.2745376549353304</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1816322676616677</v>
+        <v>0.1662585521136896</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1285223862501181</v>
+        <v>0.2771531307347215</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1248718556203721</v>
+        <v>0.1127170447275283</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1184064059918923</v>
+        <v>0.2760374292294568</v>
       </c>
       <c r="L238" t="n">
-        <v>0.144082259643194</v>
+        <v>0.1711826748928292</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1287346548630285</v>
+        <v>0.2758660961406135</v>
       </c>
       <c r="N238" t="n">
-        <v>0.2152838161529711</v>
+        <v>0.2292413204002889</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1303128179402334</v>
+        <v>0.2761338040919312</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1792078218432392</v>
+        <v>0.1551029241172985</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1292652902168818</v>
+        <v>0.2787551719528413</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1251014691103959</v>
+        <v>0.1123295904077115</v>
       </c>
       <c r="K239" t="n">
-        <v>0.119090836084331</v>
+        <v>0.2776330213059277</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1428874766256852</v>
+        <v>0.1697863120279174</v>
       </c>
       <c r="M239" t="n">
-        <v>0.129478785815994</v>
+        <v>0.277460697852409</v>
       </c>
       <c r="N239" t="n">
-        <v>0.2145004582131549</v>
+        <v>0.2249328039118318</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1310660712231249</v>
+        <v>0.277729953248532</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1817800845903138</v>
+        <v>0.1719392125241464</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1300081941836455</v>
+        <v>0.2803572131709611</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1248345890652029</v>
+        <v>0.1108369479985478</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1197752661767696</v>
+        <v>0.2792286133823985</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1399765142093236</v>
+        <v>0.1661821137167874</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1302229167689595</v>
+        <v>0.2790552995642044</v>
       </c>
       <c r="N240" t="n">
-        <v>0.2122123749567377</v>
+        <v>0.2240137829725914</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1318193245060164</v>
+        <v>0.2793261024051327</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1853490636586804</v>
+        <v>0.1627672922629898</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1307510981504091</v>
+        <v>0.2819592543890809</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1249714116819955</v>
+        <v>0.108239037676175</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1204596962692083</v>
+        <v>0.2808242054588694</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1393493660644502</v>
+        <v>0.1642699595069706</v>
       </c>
       <c r="M241" t="n">
-        <v>0.130967047721925</v>
+        <v>0.2806499012759999</v>
       </c>
       <c r="N241" t="n">
-        <v>0.2107195380163205</v>
+        <v>0.2209840958831067</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1325725777889079</v>
+        <v>0.2809222515617334</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.181914766804128</v>
+        <v>0.1515870382625852</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1314940021171729</v>
+        <v>0.2835612956072007</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1249121331579766</v>
+        <v>0.1070357796167307</v>
       </c>
       <c r="K242" t="n">
-        <v>0.121144126361647</v>
+        <v>0.2824197975353402</v>
       </c>
       <c r="L242" t="n">
-        <v>0.136206025861406</v>
+        <v>0.162049728945998</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1317111786748905</v>
+        <v>0.2822445029877954</v>
       </c>
       <c r="N242" t="n">
-        <v>0.209521919024504</v>
+        <v>0.2188435809439174</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1333258310717994</v>
+        <v>0.2825184007183342</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1644772017824454</v>
+        <v>0.1553983254516888</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1322369060839365</v>
+        <v>0.2851633368253204</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1249569496903487</v>
+        <v>0.1061270939963523</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1218285564540857</v>
+        <v>0.2840153896118111</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1360464872705318</v>
+        <v>0.1611213015814009</v>
       </c>
       <c r="M243" t="n">
-        <v>0.132455309627856</v>
+        <v>0.2838391046995908</v>
       </c>
       <c r="N243" t="n">
-        <v>0.2080194896138887</v>
+        <v>0.2141920764555625</v>
       </c>
       <c r="O243" t="n">
-        <v>0.134079084354691</v>
+        <v>0.284114549874935</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1830363763494216</v>
+        <v>0.1432010287590569</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1329798100507002</v>
+        <v>0.2867653780434402</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1248060574763146</v>
+        <v>0.1052129009911775</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1225129865465244</v>
+        <v>0.2856109816882819</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1326707439621689</v>
+        <v>0.1576845569607102</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1331994405808214</v>
+        <v>0.2854337064113862</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2061122214170761</v>
+        <v>0.2130294207185819</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1348323376375825</v>
+        <v>0.2857106990315358</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1835922982608456</v>
+        <v>0.147995023113446</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1337227140174639</v>
+        <v>0.28836741926156</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1243596527130768</v>
+        <v>0.1029931207773439</v>
       </c>
       <c r="K245" t="n">
-        <v>0.123197416638963</v>
+        <v>0.2872065737647528</v>
       </c>
       <c r="L245" t="n">
-        <v>0.131778789606658</v>
+        <v>0.1565393746314571</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1339435715337869</v>
+        <v>0.2870283081231817</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2062000860666663</v>
+        <v>0.2079554520335144</v>
       </c>
       <c r="O245" t="n">
-        <v>0.135585590920474</v>
+        <v>0.2873068481881365</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1821449752725063</v>
+        <v>0.1587801834436124</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1344656179842276</v>
+        <v>0.2899694604796798</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1245179315978382</v>
+        <v>0.1019676735309892</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1238818467314017</v>
+        <v>0.2888021658412236</v>
       </c>
       <c r="L246" t="n">
-        <v>0.12937061787434</v>
+        <v>0.1546856341411728</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1346877024867524</v>
+        <v>0.2886229098349771</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2060830551952605</v>
+        <v>0.2057700087008996</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1363388442033655</v>
+        <v>0.2889029973447372</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1646944151401926</v>
+        <v>0.1435563846783124</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1352085219509913</v>
+        <v>0.2915715016977996</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1254810903278011</v>
+        <v>0.1001364794282508</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1245662768238404</v>
+        <v>0.2903977579176945</v>
       </c>
       <c r="L247" t="n">
-        <v>0.128446222435556</v>
+        <v>0.1517232150373884</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1354318334397179</v>
+        <v>0.2902175115467726</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2035611004354595</v>
+        <v>0.2034729290212768</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1370920974862571</v>
+        <v>0.290499146501338</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1742406256196935</v>
+        <v>0.1523235017463026</v>
       </c>
       <c r="G248" t="n">
-        <v>0.135951425917755</v>
+        <v>0.2931735429159193</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1258493251001685</v>
+        <v>0.0986994586452665</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1252507069162791</v>
+        <v>0.2919933499941653</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1267055969606469</v>
+        <v>0.1501519968676352</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1361759643926834</v>
+        <v>0.291812113258568</v>
       </c>
       <c r="N248" t="n">
-        <v>0.202734193419864</v>
+        <v>0.2014640512951853</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1378453507691486</v>
+        <v>0.2920952956579388</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1807836144667979</v>
+        <v>0.1390814095763392</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1366943298845187</v>
+        <v>0.2947755841340391</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1259228321121429</v>
+        <v>0.09755653135817377</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1259351370087178</v>
+        <v>0.2935889420706362</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1244487351199537</v>
+        <v>0.1471718591794441</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1369200953456489</v>
+        <v>0.2934067149703635</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2005023057810748</v>
+        <v>0.1981432138231645</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1385986040520401</v>
+        <v>0.2936914448145396</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1823233894372947</v>
+        <v>0.1378299830971786</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1374372338512824</v>
+        <v>0.2963776253521589</v>
       </c>
       <c r="J250" t="n">
-        <v>0.124901807560927</v>
+        <v>0.09630761774311022</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1266195671011565</v>
+        <v>0.295184534147107</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1218756305838173</v>
+        <v>0.1445826815203464</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1376642262986143</v>
+        <v>0.295001316682159</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1986654091516925</v>
+        <v>0.1936102549057537</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1393518573349316</v>
+        <v>0.2952875939711403</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.174859958286973</v>
+        <v>0.1345690972375772</v>
       </c>
       <c r="G251" t="n">
-        <v>0.138180137818046</v>
+        <v>0.2979796665702786</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1249864476437234</v>
+        <v>0.09485263797621352</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1273039971935951</v>
+        <v>0.2967801262235779</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1215862770225786</v>
+        <v>0.1436843434378731</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1384083572515798</v>
+        <v>0.2965959183939544</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1990234751643185</v>
+        <v>0.1915650128434923</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1401051106178231</v>
+        <v>0.2968837431277411</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1613933287716214</v>
+        <v>0.1342986269262914</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1389230417848097</v>
+        <v>0.2995817077883984</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1261769485577349</v>
+        <v>0.09369151223362127</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1279884272860338</v>
+        <v>0.2983757183000487</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1183806681065786</v>
+        <v>0.1403767244795555</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1391524882045453</v>
+        <v>0.2981905201057499</v>
       </c>
       <c r="N252" t="n">
-        <v>0.197176475451553</v>
+        <v>0.1881073259369196</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1408583639007147</v>
+        <v>0.2984798922843418</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1699235086470291</v>
+        <v>0.1330184470920774</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1396659457515734</v>
+        <v>0.3011837490065182</v>
       </c>
       <c r="J253" t="n">
-        <v>0.125973506500164</v>
+        <v>0.09212416069147095</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1286728573784725</v>
+        <v>0.2999713103765195</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1162587975061583</v>
+        <v>0.1385597041929246</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1398966191575108</v>
+        <v>0.2997851218175453</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1952243816459972</v>
+        <v>0.1842370324865749</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1416116171836062</v>
+        <v>0.3000760414409426</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.171450505668985</v>
+        <v>0.1407284326636918</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1404088497183371</v>
+        <v>0.302785790224638</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1263763176682135</v>
+        <v>0.09085050352590024</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1293572874709112</v>
+        <v>0.3015669024529904</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1155206588916586</v>
+        <v>0.1359331621255116</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1406407501104763</v>
+        <v>0.3013797235293408</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1946671653802517</v>
+        <v>0.1825539707929977</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1423648704664977</v>
+        <v>0.3016721905975434</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1759743275932782</v>
+        <v>0.1354284585698909</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1411517536851008</v>
+        <v>0.3043878314427578</v>
       </c>
       <c r="J255" t="n">
-        <v>0.125985578259086</v>
+        <v>0.08897046091304675</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1300417175633499</v>
+        <v>0.3031624945294613</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1122662459334205</v>
+        <v>0.1333969778248477</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1413848810634418</v>
+        <v>0.3029743252411363</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1930047982869176</v>
+        <v>0.1793579791567274</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1431181237493892</v>
+        <v>0.3032683397541441</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1704949821756973</v>
+        <v>0.126118399739431</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1418946576518645</v>
+        <v>0.3059898726608776</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1262014844699841</v>
+        <v>0.08688395302904811</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1307261476557885</v>
+        <v>0.3047580866059321</v>
       </c>
       <c r="L256" t="n">
-        <v>0.110095552301785</v>
+        <v>0.1309510308384639</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1421290120164072</v>
+        <v>0.3045689269529317</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1911372519985952</v>
+        <v>0.1761488958783031</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1438713770322808</v>
+        <v>0.3048644889107449</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1740124771720314</v>
+        <v>0.1207981311010685</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1426375616186282</v>
+        <v>0.3075919138789973</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1267242324981105</v>
+        <v>0.08589090005004182</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1314105777482272</v>
+        <v>0.3063536786824029</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1099085716670929</v>
+        <v>0.1287952007138914</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1428731429693727</v>
+        <v>0.3061635286647271</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1913644981478858</v>
+        <v>0.1724265592582642</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1446246303151723</v>
+        <v>0.3064606380673456</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1665268203380695</v>
+        <v>0.1154675275835598</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1433804655853919</v>
+        <v>0.3091939550971171</v>
       </c>
       <c r="J258" t="n">
-        <v>0.126554018540668</v>
+        <v>0.0836912221521656</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1320950078406659</v>
+        <v>0.3079492707588738</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1073052976996853</v>
+        <v>0.1265293669986615</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1436172739223382</v>
+        <v>0.3077581303765226</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1900865083673901</v>
+        <v>0.1717908075971502</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1453778835980638</v>
+        <v>0.3080567872239464</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1750380194296005</v>
+        <v>0.1211264641156612</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1441233695521555</v>
+        <v>0.3107959963152369</v>
       </c>
       <c r="J259" t="n">
-        <v>0.126991038794859</v>
+        <v>0.08328483951155691</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1327794379331046</v>
+        <v>0.3095448628353447</v>
       </c>
       <c r="L259" t="n">
-        <v>0.105185724069903</v>
+        <v>0.1260534092403051</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1443614048753037</v>
+        <v>0.309352732088318</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1899032542897084</v>
+        <v>0.1680414791955002</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1461311368809553</v>
+        <v>0.3096529363805471</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1725460822024132</v>
+        <v>0.1227748156261291</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1448662735189192</v>
+        <v>0.3123980375333567</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1268354894578864</v>
+        <v>0.08087167230435346</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1334638680255433</v>
+        <v>0.3111404549118155</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1025498444480871</v>
+        <v>0.1218672069863533</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1451055358282692</v>
+        <v>0.3109473338001135</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1862147075474423</v>
+        <v>0.1636784123538537</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1468843901638469</v>
+        <v>0.3112490855371479</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1600510164122968</v>
+        <v>0.1114124570437199</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1456091774856829</v>
+        <v>0.3140000787514764</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1271875667269528</v>
+        <v>0.08005164070669282</v>
       </c>
       <c r="K261" t="n">
-        <v>0.134148298117982</v>
+        <v>0.3127360469882863</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1012976525045786</v>
+        <v>0.1199706397843376</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1458496667812346</v>
+        <v>0.312541935511909</v>
       </c>
       <c r="N261" t="n">
-        <v>0.187120839773192</v>
+        <v>0.1610014453727503</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1476376434467384</v>
+        <v>0.3128452346937486</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.16355282981504</v>
+        <v>0.10503926329719</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1463520814524466</v>
+        <v>0.3156021199695962</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1263474667992607</v>
+        <v>0.0788246648947126</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1348327282104207</v>
+        <v>0.3143316390647572</v>
       </c>
       <c r="L262" t="n">
-        <v>0.09942914190971819</v>
+        <v>0.1184635871817889</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1465937977342001</v>
+        <v>0.3141365372237044</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1850216225995586</v>
+        <v>0.1568104165527289</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1483908967296299</v>
+        <v>0.3144413838503494</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1760515301664319</v>
+        <v>0.1176551093152958</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1470949854192103</v>
+        <v>0.317204161187716</v>
       </c>
       <c r="J263" t="n">
-        <v>0.127615385872013</v>
+        <v>0.07729066504455034</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1355171583028593</v>
+        <v>0.3159272311412281</v>
       </c>
       <c r="L263" t="n">
-        <v>0.09774430633384712</v>
+        <v>0.1165459287262382</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1473379286871656</v>
+        <v>0.3157311389354999</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1847170276591429</v>
+        <v>0.154505164194329</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1491441500125214</v>
+        <v>0.3160375330069501</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1575471252222612</v>
+        <v>0.1042598700267935</v>
       </c>
       <c r="G264" t="n">
-        <v>0.147837889385974</v>
+        <v>0.3188062024058357</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1273915201424121</v>
+        <v>0.0752495613323437</v>
       </c>
       <c r="K264" t="n">
-        <v>0.136201588395298</v>
+        <v>0.3175228232176989</v>
       </c>
       <c r="L264" t="n">
-        <v>0.09414313944730607</v>
+        <v>0.1135175439652168</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1480820596401311</v>
+        <v>0.3173257406472954</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1822070265845457</v>
+        <v>0.15098552659809</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1498974032954129</v>
+        <v>0.3176336821635509</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1422.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1422.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7411809548974793</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.09779675169204868</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.09779675169204868</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.1564748027072779</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.2375676918274126</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1056204918274126</v>
+        <v>0.06823055425359728</v>
       </c>
       <c r="B65" t="n">
-        <v>0.003943993888585277</v>
+        <v>0.002547809467036886</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9289,16 +9263,16 @@
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.04538616406475898</v>
+        <v>0</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.000535611713130404</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.06489299000279436</v>
+        <v>0</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.000602000731918219</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.05867805101522922</v>
+        <v>0.02686049512306116</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001314664629528426</v>
+        <v>0.0005304071663337059</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03958416000000001</v>
+        <v>0.02686049512306116</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008868715668161435</v>
+        <v>0.0005304071663337059</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.08671477263357119</v>
+        <v>0.04951217897973709</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001594601711795454</v>
+        <v>0.0006374222040560182</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.110788170206285</v>
+        <v>0.06075088425793518</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001596149156600758</v>
+        <v>0.0005817549969395009</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.1056204918274126</v>
+        <v>0.03958416000000001</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003943993888585277</v>
+        <v>0.0008868715668161435</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.06823055425359728</v>
+        <v>0.03958416000000001</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.002660614700448431</v>
+        <v>0.0008868715668161435</v>
       </c>
       <c r="L67" s="172" t="n">
         <v>0.1031503728744522</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002463532130044843</v>
+        <v>0.002213271541861173</v>
       </c>
       <c r="N67" s="171" t="n">
         <v>0.1380701914953072</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00277147364630045</v>
+        <v>0.002203617412649624</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.112107946372341</v>
+        <v>0.0564377501676282</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004806123654359333</v>
+        <v>0.001591221499001118</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.07856818337941401</v>
+        <v>0.0564377501676282</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004786776229412546</v>
+        <v>0.001591221499001118</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1214819649150684</v>
+        <v>0.1085076464407386</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004783805135386361</v>
+        <v>0.002930173169128859</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.158710621041006</v>
+        <v>0.1447198105226498</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004788447469802275</v>
+        <v>0.002930027629492504</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.1112270732676258</v>
+        <v>0.06522321364210881</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006408164872479111</v>
+        <v>0.002121628665334824</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.08586347828139929</v>
+        <v>0.06522321364210881</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006382368305883394</v>
+        <v>0.002121628665334824</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1316227907363999</v>
+        <v>0.1174220223886901</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006378406847181816</v>
+        <v>0.003906897558838478</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.1719733899437956</v>
+        <v>0.156177894497306</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006384596626403034</v>
+        <v>0.003906703505990005</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.001314664629528426</v>
+        <v>0.0008868715668161435</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05867805101522922</v>
+        <v>0.03958416000000001</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.1121957916168611</v>
+        <v>0.06823055425359728</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008010206090598888</v>
+        <v>0.002547809467036886</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.09087169257073333</v>
+        <v>0.06823055425359728</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007977960382354243</v>
+        <v>0.002547809467036886</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1394277162645668</v>
+        <v>0.1259628450504872</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007973008558977269</v>
+        <v>0.004883621948548098</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.1854401850441459</v>
+        <v>0.1671909671886823</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007980745783003791</v>
+        <v>0.004883379382487507</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.127093023281192</v>
+        <v>0.06938846649909297</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009612247308718666</v>
+        <v>0.003182442998002236</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.09667256852200692</v>
+        <v>0.06938846649909297</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009573552458825092</v>
+        <v>0.003182442998002236</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1492345941186192</v>
+        <v>0.1318413119943946</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009567610270772723</v>
+        <v>0.005860346338257718</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.1949707991447317</v>
+        <v>0.1785747303951106</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009576894939604549</v>
+        <v>0.005860055258985008</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1339976901217639</v>
+        <v>0.0703361167486273</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01121428852683844</v>
+        <v>0.003712850164335942</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.101445848409811</v>
+        <v>0.0703361167486273</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01116914453529594</v>
+        <v>0.003712850164335942</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.155781276917607</v>
+        <v>0.1394686207886768</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01116221198256818</v>
+        <v>0.006837070727967336</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2044250250482272</v>
+        <v>0.1874448859149235</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01117304409620531</v>
+        <v>0.006836731135482509</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1549887139997219</v>
+        <v>0.07126565108097233</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01281632974495822</v>
+        <v>0.004243257330669647</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1050712745087364</v>
+        <v>0.07126565108097233</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01276473661176679</v>
+        <v>0.004243257330669647</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1606056172805805</v>
+        <v>0.1471559690015985</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01275681369436363</v>
+        <v>0.007813795117676957</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2127626555573073</v>
+        <v>0.1973171355464526</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01276919325280607</v>
+        <v>0.00781340701198001</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1551450167762113</v>
+        <v>0.07217724154262264</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.014418370963078</v>
+        <v>0.004773664497003354</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1084285890933739</v>
+        <v>0.07217724154262264</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01436032868823764</v>
+        <v>0.004773664497003354</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1654454678265898</v>
+        <v>0.1539145542014245</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01435141540615908</v>
+        <v>0.008790519507386577</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2198434834746466</v>
+        <v>0.2056071810880304</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01436534240940682</v>
+        <v>0.008790082888477513</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1505455203123773</v>
+        <v>0.0730710601800727</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01602041218119778</v>
+        <v>0.005304071663337059</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1108975344383144</v>
+        <v>0.0730710601800727</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01595592076470849</v>
+        <v>0.005304071663337059</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.170438681174685</v>
+        <v>0.1587555739564193</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01594601711795454</v>
+        <v>0.009767243897096196</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2250273016029192</v>
+        <v>0.2135307243379888</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01596149156600758</v>
+        <v>0.009766758764975014</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.173269146469365</v>
+        <v>0.07394727903981713</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01762245339931755</v>
+        <v>0.005834478829670765</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1143578528181488</v>
+        <v>0.07394727903981713</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01755151284117934</v>
+        <v>0.005834478829670765</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1729231099439162</v>
+        <v>0.1648902258348476</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01754061882974999</v>
+        <v>0.01074396828680581</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.2290739027447998</v>
+        <v>0.2212034670946599</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01755764072260834</v>
+        <v>0.01074343464147252</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1643948171083198</v>
+        <v>0.07480607016835036</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01922449461743733</v>
+        <v>0.006364885996004471</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1162892865074678</v>
+        <v>0.07480607016835036</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01914710491765018</v>
+        <v>0.006364885996004471</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1760366067533337</v>
+        <v>0.1685297074049742</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01913522054154545</v>
+        <v>0.01172069267651544</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2355430797029632</v>
+        <v>0.2263411111563758</v>
       </c>
       <c r="O77" t="n">
-        <v>0.0191537898792091</v>
+        <v>0.01172011051797002</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1630014540903869</v>
+        <v>0.07564760561216705</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02082653583555711</v>
+        <v>0.006895293162338178</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1183715777808624</v>
+        <v>0.07564760561216705</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02074269699412103</v>
+        <v>0.006895293162338178</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1789170242219875</v>
+        <v>0.1743852162350635</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0207298222533409</v>
+        <v>0.01269741706622506</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2391946252800835</v>
+        <v>0.2329593583214686</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02074993903580986</v>
+        <v>0.01269678639446752</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1711679792767115</v>
+        <v>0.07647205741776167</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02242857705367689</v>
+        <v>0.007425700328671883</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1195844689129234</v>
+        <v>0.07647205741776167</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02233828907059188</v>
+        <v>0.007425700328671883</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1813022149689276</v>
+        <v>0.1771679498933803</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02232442396513635</v>
+        <v>0.01367414145593467</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2420883322788357</v>
+        <v>0.2378739103882707</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02234608819241062</v>
+        <v>0.01367346227096502</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1849733145284387</v>
+        <v>0.07727959763162873</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02403061827179667</v>
+        <v>0.007956107495005589</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1210075092430102</v>
+        <v>0.07727959763162873</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02393388114706273</v>
+        <v>0.007956107495005589</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1842261730909091</v>
+        <v>0.1821891059481892</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02391902567693181</v>
+        <v>0.01465086584564429</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2452839080394628</v>
+        <v>0.2430004691551136</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02394223734901138</v>
+        <v>0.01465013814746252</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1775106334403905</v>
+        <v>0.07807039830026283</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02563265948991644</v>
+        <v>0.008486514661339295</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1223900752655313</v>
+        <v>0.07807039830026283</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02552947322353358</v>
+        <v>0.008486514661339295</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1851100968275707</v>
+        <v>0.186159881967755</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02551362738872726</v>
+        <v>0.01562759023535391</v>
       </c>
       <c r="N81" t="n">
-        <v>0.249492717624632</v>
+        <v>0.24935473642033</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02553838650561214</v>
+        <v>0.01562681402396002</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.184953204220476</v>
+        <v>0.07884463147015849</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02723470070803622</v>
+        <v>0.009016921827673002</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1243269910029598</v>
+        <v>0.07884463147015849</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02712506530000443</v>
+        <v>0.009016921827673002</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1894233972386323</v>
+        <v>0.1895914755203422</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02710822910052271</v>
+        <v>0.01660431462506353</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2528103644318942</v>
+        <v>0.2539524139822517</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02713453566221289</v>
+        <v>0.01660348990045752</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1743204580545333</v>
+        <v>0.07960246918781028</v>
       </c>
       <c r="G83" t="n">
-        <v>0.028836741926156</v>
+        <v>0.009547328994006708</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1262083718650703</v>
+        <v>0.07960246918781028</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02872065737647527</v>
+        <v>0.009547328994006708</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1908511586928455</v>
+        <v>0.1927950841742155</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02870283081231817</v>
+        <v>0.01758103901477315</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2538168252143127</v>
+        <v>0.2577092036392107</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02873068481881365</v>
+        <v>0.01758016577695503</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1815969073683568</v>
+        <v>0.08034408349971267</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03043878314427577</v>
+        <v>0.01007773616034041</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1271243332616368</v>
+        <v>0.08034408349971267</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03031624945294613</v>
+        <v>0.01007773616034041</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1920784655589625</v>
+        <v>0.1952819054976396</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03029743252411363</v>
+        <v>0.01855776340448277</v>
       </c>
       <c r="N84" t="n">
-        <v>0.256692076724951</v>
+        <v>0.2604408071895395</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03032683397541441</v>
+        <v>0.01855684165345253</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1907670645877412</v>
+        <v>0.08106964645236026</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03204082436239555</v>
+        <v>0.01060814332667412</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1288649906024338</v>
+        <v>0.08106964645236026</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03191184152941697</v>
+        <v>0.01060814332667412</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1945904022057349</v>
+        <v>0.1956631370588791</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03189203423590908</v>
+        <v>0.01953448779419239</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2614160957168723</v>
+        <v>0.2627629264315698</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03192298313201516</v>
+        <v>0.01953351752995003</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1928154421384809</v>
+        <v>0.08177933009224755</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03364286558051533</v>
+        <v>0.01113855049300782</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1294204592972354</v>
+        <v>0.08177933009224755</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03350743360588782</v>
+        <v>0.01113855049300782</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1961720530019148</v>
+        <v>0.1984499764261987</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03348663594770453</v>
+        <v>0.02051121218390201</v>
       </c>
       <c r="N86" t="n">
-        <v>0.26266885894314</v>
+        <v>0.2666912631636339</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03351913228861593</v>
+        <v>0.02051019340644753</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1957265524463704</v>
+        <v>0.08247330646586912</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03524490679863511</v>
+        <v>0.01166895765934153</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1314808547558159</v>
+        <v>0.08247330646586912</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03510302568235867</v>
+        <v>0.01166895765934153</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1979085023162538</v>
+        <v>0.199853621167863</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03508123765949998</v>
+        <v>0.02148793657361163</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2662303431568173</v>
+        <v>0.267441519184064</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03511528144521668</v>
+        <v>0.02148686928294503</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1884849079372043</v>
+        <v>0.08315174761971947</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03684694801675489</v>
+        <v>0.01219936482567524</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1327362923879498</v>
+        <v>0.08315174761971947</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03669861775882952</v>
+        <v>0.01219936482567524</v>
       </c>
       <c r="L88" t="n">
-        <v>0.200084834517504</v>
+        <v>0.2022852688521367</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03667583937129544</v>
+        <v>0.02246466096332125</v>
       </c>
       <c r="N88" t="n">
-        <v>0.2661805251109676</v>
+        <v>0.2710293962911919</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03671143060181745</v>
+        <v>0.02246354515944253</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.2030750210367769</v>
+        <v>0.08381482560029316</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03844898923487466</v>
+        <v>0.01272977199200894</v>
       </c>
       <c r="J89" t="n">
-        <v>0.133176887603411</v>
+        <v>0.08381482560029316</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03829420983530037</v>
+        <v>0.01272977199200894</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2023861339744173</v>
+        <v>0.2021561170472845</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03827044108309089</v>
+        <v>0.02344138535303087</v>
       </c>
       <c r="N89" t="n">
-        <v>0.2679993815586543</v>
+        <v>0.27277059628335</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0383075797584182</v>
+        <v>0.02344022103594003</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.2054814041708828</v>
+        <v>0.08446271245408474</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04005103045299444</v>
+        <v>0.01326017915834265</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1339927558119741</v>
+        <v>0.08446271245408474</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03988980191177122</v>
+        <v>0.01326017915834265</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2029974850557454</v>
+        <v>0.204777363321571</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03986504279488635</v>
+        <v>0.02441810974274049</v>
       </c>
       <c r="N90" t="n">
-        <v>0.2707668892529411</v>
+        <v>0.2730808209588702</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03990372891501896</v>
+        <v>0.02441689691243753</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1876885697653165</v>
+        <v>0.0850955802275887</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04165307167111422</v>
+        <v>0.01379058632467636</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1344740124234133</v>
+        <v>0.0850955802275887</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04148539398824207</v>
+        <v>0.01379058632467636</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2035039721302404</v>
+        <v>0.2054602052432608</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0414596445066818</v>
+        <v>0.02539483413245011</v>
       </c>
       <c r="N91" t="n">
-        <v>0.2710630249468906</v>
+        <v>0.2751757721160848</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04149987807161972</v>
+        <v>0.02539357278893504</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.2016810302458727</v>
+        <v>0.08571360096729969</v>
       </c>
       <c r="G92" t="n">
-        <v>0.043255112889234</v>
+        <v>0.01432099349101006</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1346107728475029</v>
+        <v>0.08571360096729969</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04308098606471291</v>
+        <v>0.01432099349101006</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2043906795666538</v>
+        <v>0.2041158403806186</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04305424621847725</v>
+        <v>0.02637155852215973</v>
       </c>
       <c r="N92" t="n">
-        <v>0.274567765393567</v>
+        <v>0.2745711515533257</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04309602722822048</v>
+        <v>0.02637024866543254</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.2044432980383455</v>
+        <v>0.0863169467197121</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04485715410735377</v>
+        <v>0.01485140065734377</v>
       </c>
       <c r="J93" t="n">
-        <v>0.135293152494017</v>
+        <v>0.0863169467197121</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04467657814118377</v>
+        <v>0.01485140065734377</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2057426917337378</v>
+        <v>0.2063007457489044</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0446488479302727</v>
+        <v>0.02734828291186935</v>
       </c>
       <c r="N93" t="n">
-        <v>0.275461087346033</v>
+        <v>0.2761403829906144</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04469217638482124</v>
+        <v>0.02734692454193004</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1909598855685298</v>
+        <v>0.08690578953132055</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04645919532547355</v>
+        <v>0.01538180782367747</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1364611085071945</v>
+        <v>0.08690578953132055</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04627217021765461</v>
+        <v>0.01538180782367747</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2063007457489044</v>
+        <v>0.2052974384428327</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04624344964206816</v>
+        <v>0.02832500730157897</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2761403829906144</v>
+        <v>0.2738325589181771</v>
       </c>
       <c r="O94" t="n">
-        <v>0.046288325541422</v>
+        <v>0.02832360041842754</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.2112409836548252</v>
+        <v>0.08748030144861962</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04806123654359333</v>
+        <v>0.01591221499001118</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1362582552202985</v>
+        <v>0.08748030144861962</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04786776229412546</v>
+        <v>0.01591221499001118</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2046921491705768</v>
+        <v>0.2057473322527961</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04783805135386362</v>
+        <v>0.02930173169128859</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2738369770598238</v>
+        <v>0.273919045534514</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04788447469802275</v>
+        <v>0.02930027629492504</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1982184823064758</v>
+        <v>0.08804065451810381</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04966327776171311</v>
+        <v>0.01644262215634489</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1350928783444633</v>
+        <v>0.08804065451810381</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04946335437059631</v>
+        <v>0.01644262215634489</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2055799788268808</v>
+        <v>0.2057399060856587</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04943265306565907</v>
+        <v>0.03027845608099821</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2737147816055415</v>
+        <v>0.2754778102650763</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04948062385462351</v>
+        <v>0.03027695217142254</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1900746025976523</v>
+        <v>0.0885870207862676</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05126531897983289</v>
+        <v>0.01697302932267859</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1355450622988311</v>
+        <v>0.0885870207862676</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05105894644706716</v>
+        <v>0.01697302932267859</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2058441525275615</v>
+        <v>0.2039789689134618</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05102725477745453</v>
+        <v>0.03125518047070783</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2746250283781999</v>
+        <v>0.2744182914913936</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05107677301122427</v>
+        <v>0.03125362804792004</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.208804716048269</v>
+        <v>0.0891195722996056</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05286736019795266</v>
+        <v>0.0175034364890123</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1356200165475067</v>
+        <v>0.0891195722996056</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05265453852353801</v>
+        <v>0.0175034364890123</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2047925312404297</v>
+        <v>0.2054683297082465</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05262185648924998</v>
+        <v>0.03223190486041744</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2728782702063731</v>
+        <v>0.2745499275949953</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05267292216782503</v>
+        <v>0.03223030392441754</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.2054169850565691</v>
+        <v>0.08963848110461231</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05446940141607243</v>
+        <v>0.018033843655346</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1349229505545948</v>
+        <v>0.08963848110461231</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05425013060000886</v>
+        <v>0.018033843655346</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2040329759332961</v>
+        <v>0.204911797442054</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05421645820104543</v>
+        <v>0.03320862925012707</v>
       </c>
       <c r="N99" t="n">
-        <v>0.273385059918635</v>
+        <v>0.272182156957411</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05426907132442579</v>
+        <v>0.03320697980091505</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1969195720207958</v>
+        <v>0.09014391924778234</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05607144263419222</v>
+        <v>0.01856425082167971</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1348590737842001</v>
+        <v>0.09014391924778234</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05584572267647971</v>
+        <v>0.01856425082167971</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2037733475739714</v>
+        <v>0.2034131810869254</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05581105991284088</v>
+        <v>0.03418535363983669</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2722559503435598</v>
+        <v>0.2737244179601699</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05586522048102655</v>
+        <v>0.03418365567741255</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1933206393391923</v>
+        <v>0.09063605877561015</v>
       </c>
       <c r="G101" t="n">
-        <v>0.057673483852312</v>
+        <v>0.01909465798801342</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1349335957004273</v>
+        <v>0.09063605877561015</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05744131475295055</v>
+        <v>0.01909465798801342</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2031215071302663</v>
+        <v>0.2048762896149021</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05740566162463634</v>
+        <v>0.03516207802954631</v>
       </c>
       <c r="N101" t="n">
-        <v>0.2730014943097213</v>
+        <v>0.2718861489848017</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0574613696376273</v>
+        <v>0.03516033155391005</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1966283494100017</v>
+        <v>0.0911150717345903</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05927552507043178</v>
+        <v>0.01962506515434712</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1332517257673813</v>
+        <v>0.0911150717345903</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0590369068294214</v>
+        <v>0.01962506515434712</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2021853155699916</v>
+        <v>0.204404931998025</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0590002633364318</v>
+        <v>0.03613880241925592</v>
       </c>
       <c r="N102" t="n">
-        <v>0.2698322446456938</v>
+        <v>0.2721767884128359</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05905751879422807</v>
+        <v>0.03613700743040755</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1958508646314673</v>
+        <v>0.09158113017121738</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06087756628855154</v>
+        <v>0.02015547232068083</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1331186734491666</v>
+        <v>0.09158113017121738</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06063249890589226</v>
+        <v>0.02015547232068083</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2014726338609579</v>
+        <v>0.2040029172083352</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06059486504822725</v>
+        <v>0.03711552680896554</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2706587541800513</v>
+        <v>0.2687057746258019</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06065366795082882</v>
+        <v>0.03711368330690505</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.2049963474018321</v>
+        <v>0.09203440613198585</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06247960750667133</v>
+        <v>0.02068587948701453</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1326396482098881</v>
+        <v>0.09203440613198585</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0622280909823631</v>
+        <v>0.02068587948701453</v>
       </c>
       <c r="L104" t="n">
-        <v>0.200691322970976</v>
+        <v>0.2019740542178742</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0621894667600227</v>
+        <v>0.03809225119867516</v>
       </c>
       <c r="N104" t="n">
-        <v>0.2674915757413677</v>
+        <v>0.2679825460052292</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06224981710742958</v>
+        <v>0.03809035918340255</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1850729601193394</v>
+        <v>0.09247507166339033</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06408164872479111</v>
+        <v>0.02121628665334824</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1322198595136504</v>
+        <v>0.09247507166339033</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06382368305883394</v>
+        <v>0.02121628665334824</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1988492438678566</v>
+        <v>0.202522151998683</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06378406847181815</v>
+        <v>0.03906897558838478</v>
       </c>
       <c r="N105" t="n">
-        <v>0.2673412621582171</v>
+        <v>0.2677165409326472</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06384596626403033</v>
+        <v>0.03906703505990006</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.2040888651822323</v>
+        <v>0.09290329881192527</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06568368994291088</v>
+        <v>0.02174669381968194</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1319645168245584</v>
+        <v>0.09290329881192527</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06541927513530479</v>
+        <v>0.02174669381968194</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1979542575194104</v>
+        <v>0.2022510195228027</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06537867018361361</v>
+        <v>0.0400456999780944</v>
       </c>
       <c r="N106" t="n">
-        <v>0.2661183662591735</v>
+        <v>0.2658171977895856</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06544211542063109</v>
+        <v>0.04004371093639756</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.190052224988754</v>
+        <v>0.0933192596240853</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06728573116103066</v>
+        <v>0.02227710098601565</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1309788296067166</v>
+        <v>0.0933192596240853</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06701486721177564</v>
+        <v>0.02227710098601565</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1972142248934482</v>
+        <v>0.2018644657622746</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06697327189540907</v>
+        <v>0.04102242436780403</v>
       </c>
       <c r="N107" t="n">
-        <v>0.2638334408728111</v>
+        <v>0.2658939549575736</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06703826457723186</v>
+        <v>0.04102038681289506</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1819712019371478</v>
+        <v>0.09372312614636488</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06888777237915045</v>
+        <v>0.02280750815234936</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1294680073242299</v>
+        <v>0.09372312614636488</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06861045928824649</v>
+        <v>0.02280750815234936</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1973370069577806</v>
+        <v>0.2004662996891399</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06856787360720451</v>
+        <v>0.04199914875751364</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2623970388277038</v>
+        <v>0.2645562508181408</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06863441373383261</v>
+        <v>0.04199706268939256</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.2018539584256567</v>
+        <v>0.09411507042525863</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07048981359727022</v>
+        <v>0.02333791531868306</v>
       </c>
       <c r="J109" t="n">
-        <v>0.129037259441203</v>
+        <v>0.09411507042525863</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07020605136471735</v>
+        <v>0.02333791531868306</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1947304646802184</v>
+        <v>0.1992603302754395</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07016247531899997</v>
+        <v>0.04297587314722326</v>
       </c>
       <c r="N109" t="n">
-        <v>0.2615197129524258</v>
+        <v>0.2632135237528168</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07023056289043336</v>
+        <v>0.04297373856589006</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.197708656852524</v>
+        <v>0.09449526450726098</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07209185481538999</v>
+        <v>0.02386832248501677</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1281917954217407</v>
+        <v>0.09449526450726098</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0718016434411882</v>
+        <v>0.02386832248501677</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1933024590285723</v>
+        <v>0.1996503664932149</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07175707703079542</v>
+        <v>0.04395259753693288</v>
       </c>
       <c r="N110" t="n">
-        <v>0.2610120160755509</v>
+        <v>0.262175212143131</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07182671204703413</v>
+        <v>0.04395041444238756</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1885434596159928</v>
+        <v>0.09486388043886662</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07369389603350977</v>
+        <v>0.02439872965135047</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1280368247299476</v>
+        <v>0.09486388043886662</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07339723551765905</v>
+        <v>0.02439872965135047</v>
       </c>
       <c r="L111" t="n">
-        <v>0.193960850970653</v>
+        <v>0.200140217314507</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07335167874259088</v>
+        <v>0.0449293219266425</v>
       </c>
       <c r="N111" t="n">
-        <v>0.2589845010256532</v>
+        <v>0.2625507543706127</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07342286120363489</v>
+        <v>0.04492709031888507</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1883665291143062</v>
+        <v>0.09522109026656997</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07529593725162956</v>
+        <v>0.02492913681768418</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1267775568299284</v>
+        <v>0.09522109026656997</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07499282759412988</v>
+        <v>0.02492913681768418</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1927135014742713</v>
+        <v>0.1988336917113572</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07494628045438632</v>
+        <v>0.04590604631635212</v>
       </c>
       <c r="N112" t="n">
-        <v>0.2562477206313069</v>
+        <v>0.2599495888167918</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07501901036023564</v>
+        <v>0.04590376619538256</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1761860277457074</v>
+        <v>0.09556706603686557</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07689797846974933</v>
+        <v>0.02545954398401789</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1263192011857881</v>
+        <v>0.09556706603686557</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07658841967060073</v>
+        <v>0.02545954398401789</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1917682715072378</v>
+        <v>0.1973345986558065</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07654088216618178</v>
+        <v>0.04688277070606174</v>
       </c>
       <c r="N113" t="n">
-        <v>0.2563122277210859</v>
+        <v>0.2606811538631971</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0766151595168364</v>
+        <v>0.04688044207188007</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1910101179084398</v>
+        <v>0.09590197979624807</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0785000196878691</v>
+        <v>0.02598995115035159</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1249669672616312</v>
+        <v>0.09590197979624807</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07818401174707158</v>
+        <v>0.02598995115035159</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1905330220373633</v>
+        <v>0.1981467471198962</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07813548387797724</v>
+        <v>0.04785949509577136</v>
       </c>
       <c r="N114" t="n">
-        <v>0.2553885751235643</v>
+        <v>0.2594548878913587</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07821130867343716</v>
+        <v>0.04785711794837757</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1838469620007463</v>
+        <v>0.09622600359121189</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08010206090598888</v>
+        <v>0.0265203583166853</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1252070507341298</v>
+        <v>0.09622600359121189</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07977960382354243</v>
+        <v>0.0265203583166853</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1891760723373487</v>
+        <v>0.1971739460756673</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0797300855897727</v>
+        <v>0.04883621948548098</v>
       </c>
       <c r="N115" t="n">
-        <v>0.253255972708001</v>
+        <v>0.257080229282806</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07980745783003793</v>
+        <v>0.04883379382487506</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1806148290014164</v>
+        <v>0.09653930946825159</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08170410212410867</v>
+        <v>0.027050765483019</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1236479078799501</v>
+        <v>0.09653930946825159</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08137519590001328</v>
+        <v>0.027050765483019</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1878633653123319</v>
+        <v>0.196220004495161</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08132468730156815</v>
+        <v>0.0498129438751906</v>
       </c>
       <c r="N116" t="n">
-        <v>0.2504280019616836</v>
+        <v>0.2572666164190683</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08140360698663868</v>
+        <v>0.04981046970137257</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1872150692049663</v>
+        <v>0.09684206947386176</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08330614334222844</v>
+        <v>0.02758117264935271</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1224911472769581</v>
+        <v>0.09684206947386176</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08297078797648413</v>
+        <v>0.02758117264935271</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1847056179689603</v>
+        <v>0.1968887313504187</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08291928901336361</v>
+        <v>0.05078966826490022</v>
       </c>
       <c r="N117" t="n">
-        <v>0.2480005796410361</v>
+        <v>0.2579234876816751</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08299975614323944</v>
+        <v>0.05078714557787007</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1876737234123927</v>
+        <v>0.09713445565453691</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08490818456034821</v>
+        <v>0.02811157981568642</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1224537419819215</v>
+        <v>0.09713445565453691</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08456638005295498</v>
+        <v>0.02811157981568642</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1843284422800237</v>
+        <v>0.1961839356134812</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08451389072515907</v>
+        <v>0.05176639265460983</v>
       </c>
       <c r="N118" t="n">
-        <v>0.2480080881229877</v>
+        <v>0.256860281452156</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08459590529984019</v>
+        <v>0.05176382145436757</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.183017385692866</v>
+        <v>0.09741664005677159</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08651022577846799</v>
+        <v>0.02864198698202012</v>
       </c>
       <c r="J119" t="n">
-        <v>0.120852665051608</v>
+        <v>0.09741664005677159</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08616197212942582</v>
+        <v>0.02864198698202012</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1833574502183121</v>
+        <v>0.1959094262563901</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08610849243695451</v>
+        <v>0.05274311704431946</v>
       </c>
       <c r="N119" t="n">
-        <v>0.2451849097844674</v>
+        <v>0.2561864361120403</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08619205445644096</v>
+        <v>0.05274049733086508</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1862726501155567</v>
+        <v>0.09768879472706035</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08811226699658778</v>
+        <v>0.02917239414835383</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1193048895427851</v>
+        <v>0.09768879472706035</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08775756420589667</v>
+        <v>0.02917239414835383</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1806182537566153</v>
+        <v>0.1958690122511862</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08770309414874995</v>
+        <v>0.05371984143402907</v>
       </c>
       <c r="N120" t="n">
-        <v>0.2424654270024041</v>
+        <v>0.2558113900428576</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08778820361304171</v>
+        <v>0.05371717320736257</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1844661107496352</v>
+        <v>0.09795109171189761</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08971430821470755</v>
+        <v>0.02970280131468753</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1180273885122206</v>
+        <v>0.09795109171189761</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08935315628236754</v>
+        <v>0.02970280131468753</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1787364648677233</v>
+        <v>0.1955665025699109</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08929769586054541</v>
+        <v>0.05469656582373869</v>
       </c>
       <c r="N121" t="n">
-        <v>0.2403840221537268</v>
+        <v>0.2556445816261372</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08938435276964248</v>
+        <v>0.05469384908386007</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1676243616642717</v>
+        <v>0.09820370305777817</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09131634943282733</v>
+        <v>0.03023320848102124</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1169371350166821</v>
+        <v>0.09820370305777817</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09094874835883837</v>
+        <v>0.03023320848102124</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1762376955244257</v>
+        <v>0.1937052565090861</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09089229757234087</v>
+        <v>0.05567329021344831</v>
       </c>
       <c r="N122" t="n">
-        <v>0.2380750776153644</v>
+        <v>0.2543943557966741</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09098050192624323</v>
+        <v>0.05567052496035757</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1667739969286367</v>
+        <v>0.09844680081119633</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09291839065094711</v>
+        <v>0.03076361564735495</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1165511021129374</v>
+        <v>0.09844680081119633</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09254434043530922</v>
+        <v>0.03076361564735495</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1747475576995126</v>
+        <v>0.1953577466269304</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09248689928413632</v>
+        <v>0.05665001460315793</v>
       </c>
       <c r="N123" t="n">
-        <v>0.2336729757642457</v>
+        <v>0.2549997635454017</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09257665108284399</v>
+        <v>0.05664720083685507</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1609416106119005</v>
+        <v>0.0986805570186467</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09452043186906688</v>
+        <v>0.03129402281368865</v>
       </c>
       <c r="J124" t="n">
-        <v>0.114786262857754</v>
+        <v>0.0986805570186467</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09413993251178007</v>
+        <v>0.03129402281368865</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1736916633657738</v>
+        <v>0.1940067369570967</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09408150099593178</v>
+        <v>0.05762673899286756</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2327120989773001</v>
+        <v>0.2536205171790852</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09417280023944474</v>
+        <v>0.05762387671335258</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1631537967832334</v>
+        <v>0.09890514372662382</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09612247308718666</v>
+        <v>0.03182442998002236</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1138595903078997</v>
+        <v>0.09890514372662382</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09573552458825092</v>
+        <v>0.03182442998002236</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1723956244959992</v>
+        <v>0.1943533706211923</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09567610270772724</v>
+        <v>0.05860346338257717</v>
       </c>
       <c r="N125" t="n">
-        <v>0.2317268296314562</v>
+        <v>0.253155422130102</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09576894939604551</v>
+        <v>0.05860055258985009</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1634371495118058</v>
+        <v>0.09912073298162224</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09772451430530645</v>
+        <v>0.03235483714635606</v>
       </c>
       <c r="J126" t="n">
-        <v>0.112384935509968</v>
+        <v>0.09912073298162224</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09733111666472176</v>
+        <v>0.03235483714635606</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1703748003379021</v>
+        <v>0.1940987907408248</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09727070441952268</v>
+        <v>0.0595801877722868</v>
       </c>
       <c r="N126" t="n">
-        <v>0.2284481536125584</v>
+        <v>0.2532032838308292</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09736509855264626</v>
+        <v>0.05957722846634759</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1717603004401844</v>
+        <v>0.0993274968301365</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09932655552342622</v>
+        <v>0.03288524431268977</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1122567397600747</v>
+        <v>0.0993274968301365</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09892670874119262</v>
+        <v>0.03288524431268977</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1681566477277401</v>
+        <v>0.1924441404376015</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09886530613131814</v>
+        <v>0.06055691216199641</v>
       </c>
       <c r="N127" t="n">
-        <v>0.2266747768327945</v>
+        <v>0.2542629077136442</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09896124770924702</v>
+        <v>0.06055390434284508</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1699363297304907</v>
+        <v>0.09952560731866117</v>
       </c>
       <c r="G128" t="n">
-        <v>0.100928596741546</v>
+        <v>0.03341565147902347</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1099340851422831</v>
+        <v>0.09952560731866117</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1005223008176635</v>
+        <v>0.03341565147902347</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1667989898119283</v>
+        <v>0.1926905628331298</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1004599078431136</v>
+        <v>0.06153363655170604</v>
       </c>
       <c r="N128" t="n">
-        <v>0.2242077678158795</v>
+        <v>0.2521330992109238</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1005573968658478</v>
+        <v>0.06153058021934259</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1529820268296261</v>
+        <v>0.09971523649369071</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1025306379596658</v>
+        <v>0.03394605864535718</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1090412685923281</v>
+        <v>0.09971523649369071</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1021178928941343</v>
+        <v>0.03394605864535718</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1639384901370184</v>
+        <v>0.1921392010490171</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1020545095549091</v>
+        <v>0.06251036094141565</v>
       </c>
       <c r="N129" t="n">
-        <v>0.2206963449444598</v>
+        <v>0.2540126637550452</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1021535460224485</v>
+        <v>0.06250725609584008</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1649354611553984</v>
+        <v>0.09989655640171982</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1041326791777856</v>
+        <v>0.03447646581169089</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1084025870459451</v>
+        <v>0.09989655640171982</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1037134849706052</v>
+        <v>0.03447646581169089</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1637118122495622</v>
+        <v>0.192791198206871</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1036491112667045</v>
+        <v>0.06348708533112526</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2187897266011807</v>
+        <v>0.2533004067783855</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1037496951790493</v>
+        <v>0.06348393197233759</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1548347021256161</v>
+        <v>0.1000697390892428</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1057347203959053</v>
+        <v>0.03500687297802459</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1070423374388693</v>
+        <v>0.1000697390892428</v>
       </c>
       <c r="K131" t="n">
-        <v>0.105309077047076</v>
+        <v>0.03500687297802459</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1615556196961113</v>
+        <v>0.1928476974282986</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1052437129785</v>
+        <v>0.06446380972083489</v>
       </c>
       <c r="N131" t="n">
-        <v>0.2165371311686891</v>
+        <v>0.253195133713322</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1053458443356501</v>
+        <v>0.06446060784883509</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.150717819158087</v>
+        <v>0.1002349566027544</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1073367616140251</v>
+        <v>0.0355372801443583</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1052848167068358</v>
+        <v>0.1002349566027544</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1069046691235469</v>
+        <v>0.0355372801443583</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1583065760232176</v>
+        <v>0.1923098418349076</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1068383146902954</v>
+        <v>0.06544053411054451</v>
       </c>
       <c r="N132" t="n">
-        <v>0.2119877770296309</v>
+        <v>0.2527956499922316</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1069419934922508</v>
+        <v>0.06543728372533258</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1606228816706196</v>
+        <v>0.100392380988749</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1089388028321449</v>
+        <v>0.03606768731069201</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1032543217855799</v>
+        <v>0.100392380988749</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1085002612000177</v>
+        <v>0.03606768731069201</v>
       </c>
       <c r="L133" t="n">
-        <v>0.156701344777433</v>
+        <v>0.1918787745483053</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1084329164020909</v>
+        <v>0.06641725850025414</v>
       </c>
       <c r="N133" t="n">
-        <v>0.2088908825666524</v>
+        <v>0.2540007610474918</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1085381426488516</v>
+        <v>0.06641395960183009</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1595879590810218</v>
+        <v>0.1005421842937212</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1105408440502647</v>
+        <v>0.03659809447702572</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1018751496108368</v>
+        <v>0.1005421842937212</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1100958532764885</v>
+        <v>0.03659809447702572</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1543765895053091</v>
+        <v>0.191655638690099</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1100275181138863</v>
+        <v>0.06739398288996375</v>
       </c>
       <c r="N134" t="n">
-        <v>0.2084956661623997</v>
+        <v>0.2518092723114795</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1101342918054523</v>
+        <v>0.06739063547832759</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1576511208071018</v>
+        <v>0.1006845385641656</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1121428852683844</v>
+        <v>0.03712850164335942</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1015715971183416</v>
+        <v>0.1006845385641656</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1116914453529594</v>
+        <v>0.03712850164335942</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1536689737533977</v>
+        <v>0.1909415773818963</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1116221198256818</v>
+        <v>0.06837070727967337</v>
       </c>
       <c r="N135" t="n">
-        <v>0.2038513461995187</v>
+        <v>0.253119989216572</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1117304409620531</v>
+        <v>0.0683673113548251</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1528504362666677</v>
+        <v>0.1008196158465768</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1137449264865042</v>
+        <v>0.03765890880969312</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1000679612438295</v>
+        <v>0.1008196158465768</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1132870374294303</v>
+        <v>0.03765890880969312</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1519151610682505</v>
+        <v>0.1923377337453044</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1132167215374772</v>
+        <v>0.06934743166938299</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2038071410606559</v>
+        <v>0.2523317171951462</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1133265901186539</v>
+        <v>0.0693439872313226</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1412239748775277</v>
+        <v>0.1009475881874491</v>
       </c>
       <c r="G137" t="n">
-        <v>0.115346967704624</v>
+        <v>0.03818931597602683</v>
       </c>
       <c r="J137" t="n">
-        <v>0.09918853892303583</v>
+        <v>0.1009475881874491</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1148826295059011</v>
+        <v>0.03818931597602683</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1491518149964194</v>
+        <v>0.190645250901931</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1148113232492727</v>
+        <v>0.07032415605909262</v>
       </c>
       <c r="N137" t="n">
-        <v>0.2008122691284575</v>
+        <v>0.2514432616795794</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1149227392752546</v>
+        <v>0.07032066310782011</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.13380980605749</v>
+        <v>0.1010686276332772</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1169490089227438</v>
+        <v>0.03871972314236054</v>
       </c>
       <c r="J138" t="n">
-        <v>0.09845762709169567</v>
+        <v>0.1010686276332772</v>
       </c>
       <c r="K138" t="n">
-        <v>0.116478221582372</v>
+        <v>0.03871972314236054</v>
       </c>
       <c r="L138" t="n">
-        <v>0.149315599084456</v>
+        <v>0.1905652719733834</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1164059249610681</v>
+        <v>0.07130088044880223</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1999159487855693</v>
+        <v>0.2526534281022488</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1165188884318554</v>
+        <v>0.0712973389843176</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1416459992243626</v>
+        <v>0.1011829062305556</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1185510501408636</v>
+        <v>0.03925013030869424</v>
       </c>
       <c r="J139" t="n">
-        <v>0.09779952268554434</v>
+        <v>0.1011829062305556</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1180738136588428</v>
+        <v>0.03925013030869424</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1469431768789122</v>
+        <v>0.1907989400812688</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1180005266728636</v>
+        <v>0.07227760483851184</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1989673984146376</v>
+        <v>0.2515610218955314</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1181150375884561</v>
+        <v>0.0722740148608151</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1327706237959538</v>
+        <v>0.1012905960257789</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1201530913589833</v>
+        <v>0.03978053747502795</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0977385226403169</v>
+        <v>0.1012905960257789</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1196694057353136</v>
+        <v>0.03978053747502795</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1468712119263398</v>
+        <v>0.1896473983471949</v>
       </c>
       <c r="M140" t="n">
-        <v>0.119595128384659</v>
+        <v>0.07325432922822146</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1955158363983087</v>
+        <v>0.2513648484918045</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1197111867450569</v>
+        <v>0.07325069073731261</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1322217491900716</v>
+        <v>0.1013918690654416</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1217551325771031</v>
+        <v>0.04031094464136165</v>
       </c>
       <c r="J141" t="n">
-        <v>0.09689892389174865</v>
+        <v>0.1013918690654416</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1212649978117845</v>
+        <v>0.04031094464136165</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1473363677732903</v>
+        <v>0.189511789892769</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1211897300964545</v>
+        <v>0.07423105361793109</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1950104811192287</v>
+        <v>0.2520637133234452</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1213073359016576</v>
+        <v>0.0742273666138101</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1400373239223034</v>
+        <v>0.1014868973960382</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1233571737952229</v>
+        <v>0.04084135180769536</v>
       </c>
       <c r="J142" t="n">
-        <v>0.09697471981340253</v>
+        <v>0.1014868973960382</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1228605898882554</v>
+        <v>0.04084135180769536</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1471149971616804</v>
+        <v>0.1900932578395984</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1227843318082499</v>
+        <v>0.07520777800764071</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1951489536085762</v>
+        <v>0.2514564218228303</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1229034850582584</v>
+        <v>0.0752040424903076</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1440676563142289</v>
+        <v>0.1015758530640632</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1249592150133427</v>
+        <v>0.04137175897402906</v>
       </c>
       <c r="J143" t="n">
-        <v>0.09661198735642468</v>
+        <v>0.1015758530640632</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1244561819647262</v>
+        <v>0.04137175897402906</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1460753640020178</v>
+        <v>0.1912929453092908</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1243789335200454</v>
+        <v>0.07618450239735032</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1968213242367544</v>
+        <v>0.2526417794223376</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1244996342148592</v>
+        <v>0.07618071836680511</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1471536825336131</v>
+        <v>0.1016589081160113</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1265612562314624</v>
+        <v>0.04190216614036277</v>
       </c>
       <c r="J144" t="n">
-        <v>0.09738407074049818</v>
+        <v>0.1016589081160113</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1260517740411971</v>
+        <v>0.04190216614036277</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1464880973611484</v>
+        <v>0.1898119954234533</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1259735352318408</v>
+        <v>0.07716122678705994</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1967643495436867</v>
+        <v>0.2526185915543436</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1260957833714599</v>
+        <v>0.0771573942433026</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.141292605253503</v>
+        <v>0.1017362345983769</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1281632974495822</v>
+        <v>0.04243257330669647</v>
       </c>
       <c r="J145" t="n">
-        <v>0.09658918463563579</v>
+        <v>0.1017362345983769</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1276473661176679</v>
+        <v>0.04243257330669647</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1476505032150267</v>
+        <v>0.1899515513036936</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1275681369436363</v>
+        <v>0.07813795117676957</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1974744129805454</v>
+        <v>0.2510856636512259</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1276919325280607</v>
+        <v>0.07813407011980011</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1504816271469455</v>
+        <v>0.1018080045576546</v>
       </c>
       <c r="G146" t="n">
-        <v>0.129765338667702</v>
+        <v>0.04296298047303018</v>
       </c>
       <c r="J146" t="n">
-        <v>0.09662554371185028</v>
+        <v>0.1018080045576546</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1292429581941387</v>
+        <v>0.04296298047303018</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1479598875396075</v>
+        <v>0.1911127560716188</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1291627386554318</v>
+        <v>0.07911467556647918</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1956478979985019</v>
+        <v>0.2511418011453612</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1292880816846614</v>
+        <v>0.07911074599629761</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1447179508869876</v>
+        <v>0.101874390040339</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1313673798858218</v>
+        <v>0.04349338763936389</v>
       </c>
       <c r="J147" t="n">
-        <v>0.09779136263915447</v>
+        <v>0.101874390040339</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1308385502706096</v>
+        <v>0.04349338763936389</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1475135563108457</v>
+        <v>0.1899967528488366</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1307573403672272</v>
+        <v>0.0800913999561888</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1976811880487284</v>
+        <v>0.2506858094691272</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1308842308412622</v>
+        <v>0.08008742187279512</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1379987791466762</v>
+        <v>0.1019355630929245</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1329694211039415</v>
+        <v>0.0440237948056976</v>
       </c>
       <c r="J148" t="n">
-        <v>0.09808485608756107</v>
+        <v>0.1019355630929245</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1324341423470805</v>
+        <v>0.0440237948056976</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1477088155046959</v>
+        <v>0.189998119567059</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1323519420790227</v>
+        <v>0.08106812434589843</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1967706665823966</v>
+        <v>0.2503154915935863</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1324803799978629</v>
+        <v>0.08106409774929262</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1333213145990582</v>
+        <v>0.1019916957619057</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1345714623220613</v>
+        <v>0.0445542019720313</v>
       </c>
       <c r="J149" t="n">
-        <v>0.09780423872708291</v>
+        <v>0.1019916957619057</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1340297344235513</v>
+        <v>0.0445542019720313</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1474429710971129</v>
+        <v>0.1897047489875363</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1339465437908181</v>
+        <v>0.08204484873560805</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1983127170506783</v>
+        <v>0.2501289311868112</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1340765291544637</v>
+        <v>0.08204077362579011</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1386827599171806</v>
+        <v>0.1020429600937772</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1361735035401811</v>
+        <v>0.045084609138365</v>
       </c>
       <c r="J150" t="n">
-        <v>0.09844772522773274</v>
+        <v>0.1020429600937772</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1356253265000222</v>
+        <v>0.045084609138365</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1489133290640514</v>
+        <v>0.1911160793419727</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1355411455026136</v>
+        <v>0.08302157312531766</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1978037229047456</v>
+        <v>0.2516269318106824</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1356726783110644</v>
+        <v>0.08301744950228762</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1400803177740902</v>
+        <v>0.1020895281350334</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1377755447583009</v>
+        <v>0.04561501630469871</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0978135302595233</v>
+        <v>0.1020895281350334</v>
       </c>
       <c r="K151" t="n">
-        <v>0.137220918576493</v>
+        <v>0.04561501630469871</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1493171953814662</v>
+        <v>0.1898318403913939</v>
       </c>
       <c r="M151" t="n">
-        <v>0.137135747214409</v>
+        <v>0.08399829751502728</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1999400675957701</v>
+        <v>0.2502103489749363</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1372688274676652</v>
+        <v>0.08399412537878512</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1345111908428341</v>
+        <v>0.102131571932169</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1393775859764207</v>
+        <v>0.04614542347103242</v>
       </c>
       <c r="J152" t="n">
-        <v>0.09929986849246744</v>
+        <v>0.102131571932169</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1388165106529638</v>
+        <v>0.04614542347103242</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1484518760253119</v>
+        <v>0.1894517618968254</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1387303489262045</v>
+        <v>0.08497502190473689</v>
       </c>
       <c r="N152" t="n">
-        <v>0.2004181345749236</v>
+        <v>0.2499800381893101</v>
       </c>
       <c r="O152" t="n">
-        <v>0.138864976624266</v>
+        <v>0.08497080125528261</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1399725817964591</v>
+        <v>0.1021692635316785</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1409796271945404</v>
+        <v>0.04667583063736612</v>
       </c>
       <c r="J153" t="n">
-        <v>0.09920495459657788</v>
+        <v>0.1021692635316785</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1404121027294347</v>
+        <v>0.04667583063736612</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1489146769715433</v>
+        <v>0.1909755736192929</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1403249506379999</v>
+        <v>0.08595174629444652</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1994343072933781</v>
+        <v>0.2501368549635404</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1404611257808667</v>
+        <v>0.08594747713178012</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1544616933080122</v>
+        <v>0.1022027749800563</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1425816684126602</v>
+        <v>0.04720623780369983</v>
       </c>
       <c r="J154" t="n">
-        <v>0.09933328847426037</v>
+        <v>0.1022027749800563</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1420076948059055</v>
+        <v>0.04720623780369983</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1492200618793524</v>
+        <v>0.1901030053198219</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1419195523497954</v>
+        <v>0.08692847068415614</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1998932332254089</v>
+        <v>0.2485816548073639</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1420572749374675</v>
+        <v>0.08692415300827762</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1471146643573441</v>
+        <v>0.1022322783237971</v>
       </c>
       <c r="G155" t="n">
-        <v>0.14418370963078</v>
+        <v>0.04773664497003353</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0998834461645281</v>
+        <v>0.1022322783237971</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1436032868823764</v>
+        <v>0.04773664497003353</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1509823682563614</v>
+        <v>0.1903337867594381</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1435141540615908</v>
+        <v>0.08790519507386575</v>
       </c>
       <c r="N155" t="n">
-        <v>0.20198325236124</v>
+        <v>0.2506152932305175</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1436534240940683</v>
+        <v>0.08790082888477511</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1352223648657415</v>
+        <v>0.1022579456093954</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1457857508488998</v>
+        <v>0.04826705213636724</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1011113022889962</v>
+        <v>0.1022579456093954</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1451988789588472</v>
+        <v>0.04826705213636724</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1524584702424238</v>
+        <v>0.189767647699167</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1451087557733863</v>
+        <v>0.08888191946357538</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2026397630967838</v>
+        <v>0.2503386257427378</v>
       </c>
       <c r="O156" t="n">
-        <v>0.145249573250669</v>
+        <v>0.08887750476127262</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1567160316080107</v>
+        <v>0.1022799488833457</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1473877920670195</v>
+        <v>0.04879745930270094</v>
       </c>
       <c r="J157" t="n">
-        <v>0.102362962044398</v>
+        <v>0.1022799488833457</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1467944710353181</v>
+        <v>0.04879745930270094</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1539670417538724</v>
+        <v>0.1907043179000344</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1467033574851818</v>
+        <v>0.089858643853285</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2048535905517704</v>
+        <v>0.249352507853762</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1468457224072698</v>
+        <v>0.08985418063777013</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.142511220035028</v>
+        <v>0.1022984601921426</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1489898332851393</v>
+        <v>0.04932786646903466</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1023845306274667</v>
+        <v>0.1022984601921426</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1483900631117889</v>
+        <v>0.04932786646903466</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1549267567070394</v>
+        <v>0.1906435271230658</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1482979591969772</v>
+        <v>0.09083536824299462</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2082155598459297</v>
+        <v>0.2473577950733263</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1484418715638705</v>
+        <v>0.09083085651426763</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1615234855976696</v>
+        <v>0.1023136515822806</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1505918745032591</v>
+        <v>0.04985827363536836</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1049221132349355</v>
+        <v>0.1023136515822806</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1499856551882598</v>
+        <v>0.04985827363536836</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1587562890182571</v>
+        <v>0.1898850051292867</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1498925609087726</v>
+        <v>0.09181209263270423</v>
       </c>
       <c r="N159" t="n">
-        <v>0.2122164960989913</v>
+        <v>0.2470553429111679</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1500380207204713</v>
+        <v>0.09180753239076513</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1466683837468117</v>
+        <v>0.1023256951002542</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1521939157213789</v>
+        <v>0.05038868080170206</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1053218150635377</v>
+        <v>0.1023256951002542</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1515812472647306</v>
+        <v>0.05038868080170206</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1588743126038579</v>
+        <v>0.1902284816797229</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1514871626205681</v>
+        <v>0.09278881702241386</v>
       </c>
       <c r="N160" t="n">
-        <v>0.2137472244306854</v>
+        <v>0.2466460068770234</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1516341698770721</v>
+        <v>0.09278420826726264</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1608614699333304</v>
+        <v>0.102334762792558</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1537959569394987</v>
+        <v>0.05091908796803577</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1068297413100066</v>
+        <v>0.102334762792558</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1531768393412015</v>
+        <v>0.05091908796803577</v>
       </c>
       <c r="L161" t="n">
-        <v>0.162499501380174</v>
+        <v>0.1898736865353998</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1530817643323636</v>
+        <v>0.09376554141212348</v>
       </c>
       <c r="N161" t="n">
-        <v>0.2171985699607413</v>
+        <v>0.2481306424806298</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1532303190336728</v>
+        <v>0.09376088414376013</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1480182996081019</v>
+        <v>0.1023410267056865</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1553979981576184</v>
+        <v>0.05144949513436948</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1089919971710754</v>
+        <v>0.1023410267056865</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1547724314176723</v>
+        <v>0.05144949513436948</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1641505292635379</v>
+        <v>0.1915203494573433</v>
       </c>
       <c r="M162" t="n">
-        <v>0.154676366044159</v>
+        <v>0.09474226580183309</v>
       </c>
       <c r="N162" t="n">
-        <v>0.2197613578088894</v>
+        <v>0.2473101052317236</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1548264681902736</v>
+        <v>0.09473756002025763</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1570544282220022</v>
+        <v>0.1023446588861343</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1570000393757382</v>
+        <v>0.05197990230070319</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1103546878434774</v>
+        <v>0.1023446588861343</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1563680234941432</v>
+        <v>0.05197990230070319</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1658460701702818</v>
+        <v>0.1904682002065787</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1562709677559545</v>
+        <v>0.09571899019154272</v>
       </c>
       <c r="N163" t="n">
-        <v>0.2219264130948593</v>
+        <v>0.2483852506400418</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1564226173468743</v>
+        <v>0.09571423589675514</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1648854112259079</v>
+        <v>0.1023458313803959</v>
       </c>
       <c r="G164" t="n">
-        <v>0.158602080593858</v>
+        <v>0.05251030946703689</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1111639185239457</v>
+        <v>0.1023458313803959</v>
       </c>
       <c r="K164" t="n">
-        <v>0.157963615570614</v>
+        <v>0.05251030946703689</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1667047980167382</v>
+        <v>0.1914169685441318</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1578655694677499</v>
+        <v>0.09669571458125233</v>
       </c>
       <c r="N164" t="n">
-        <v>0.2230845609383808</v>
+        <v>0.2474569342153209</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1580187665034751</v>
+        <v>0.09669091177325263</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1654699470148845</v>
+        <v>0.1023458313803959</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1602041218119778</v>
+        <v>0.05251030946703689</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1120542378129198</v>
+        <v>0.1023458313803959</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1595592076470849</v>
+        <v>0.05251030946703689</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1696981059764074</v>
+        <v>0.1896663842310282</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1594601711795454</v>
+        <v>0.09767243897096196</v>
       </c>
       <c r="N165" t="n">
-        <v>0.226892082741102</v>
+        <v>0.2460260114672979</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1596149156600759</v>
+        <v>0.09766758764975013</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.162985626235433</v>
+        <v>0.100432834167989</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1618061630300975</v>
+        <v>0.05251004093857287</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1127200072049441</v>
+        <v>0.100432834167989</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1611547997235557</v>
+        <v>0.05251004093857287</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1700550938477584</v>
+        <v>0.1899161770282934</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1610547728913408</v>
+        <v>0.09864916336067157</v>
       </c>
       <c r="N166" t="n">
-        <v>0.2288487040523719</v>
+        <v>0.2458933379057096</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1612110648166766</v>
+        <v>0.09864426352624762</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1594652165369747</v>
+        <v>0.09854247871833849</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1634082042482173</v>
+        <v>0.05250977241010885</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1134633277900073</v>
+        <v>0.09854247871833849</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1627503918000266</v>
+        <v>0.05250977241010885</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1723783429464943</v>
+        <v>0.1909660766969531</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1626493746031363</v>
+        <v>0.0996258877503812</v>
       </c>
       <c r="N167" t="n">
-        <v>0.2286597481540475</v>
+        <v>0.2455597690402926</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1628072139732774</v>
+        <v>0.09962093940274515</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1579113967547678</v>
+        <v>0.09667643990092811</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1650102454663371</v>
+        <v>0.05250950388164484</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1142859092734804</v>
+        <v>0.09667643990092811</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1643459838764974</v>
+        <v>0.05250950388164484</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1729704331807632</v>
+        <v>0.1899158129980329</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1642439763149317</v>
+        <v>0.1006026121400908</v>
       </c>
       <c r="N168" t="n">
-        <v>0.2316286784019239</v>
+        <v>0.2455261603807838</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1644033631298781</v>
+        <v>0.1005976152792426</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1653268457240702</v>
+        <v>0.09483639258507823</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1666122866844569</v>
+        <v>0.05250923535318082</v>
       </c>
       <c r="J169" t="n">
-        <v>0.115589461360735</v>
+        <v>0.09483639258507823</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1659415759529683</v>
+        <v>0.05250923535318082</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1748339444587128</v>
+        <v>0.1898651156925584</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1658385780267272</v>
+        <v>0.1015793365298004</v>
       </c>
       <c r="N169" t="n">
-        <v>0.232958958151796</v>
+        <v>0.24599336743692</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1659995122864789</v>
+        <v>0.1015742911557401</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.16471424228014</v>
+        <v>0.09302401164027038</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1682143279025766</v>
+        <v>0.05250896682471681</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1158756937571423</v>
+        <v>0.09302401164027038</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1675371680294391</v>
+        <v>0.05250896682471681</v>
       </c>
       <c r="L170" t="n">
-        <v>0.175871456688491</v>
+        <v>0.1909137145415552</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1674331797385226</v>
+        <v>0.1025560609195101</v>
       </c>
       <c r="N170" t="n">
-        <v>0.2351540507594585</v>
+        <v>0.244762245718438</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1675956614430796</v>
+        <v>0.1025509670322376</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1710762652582353</v>
+        <v>0.09124097193582723</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1698163691206964</v>
+        <v>0.05250869829625279</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1171463161680736</v>
+        <v>0.09124097193582723</v>
       </c>
       <c r="K171" t="n">
-        <v>0.16913276010591</v>
+        <v>0.05250869829625279</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1763855497782457</v>
+        <v>0.190861339306049</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1690277814503181</v>
+        <v>0.1035327853092197</v>
       </c>
       <c r="N171" t="n">
-        <v>0.2380174195807065</v>
+        <v>0.2436336507350744</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1691918105996804</v>
+        <v>0.1035276429087351</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1774155934936139</v>
+        <v>0.08948894834122784</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1714184103388162</v>
+        <v>0.05250842976778877</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1180030382989002</v>
+        <v>0.08948894834122784</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1707283521823808</v>
+        <v>0.05250842976778877</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1776788036361247</v>
+        <v>0.1919077197470652</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1706223831621136</v>
+        <v>0.1045095096989293</v>
       </c>
       <c r="N172" t="n">
-        <v>0.2384525279713351</v>
+        <v>0.2444084379965662</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1707879597562811</v>
+        <v>0.1045043187852326</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.169734905821534</v>
+        <v>0.08776961572579753</v>
       </c>
       <c r="G173" t="n">
-        <v>0.173020451556936</v>
+        <v>0.05250816123932475</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1193475698549935</v>
+        <v>0.08776961572579753</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1723239442588516</v>
+        <v>0.05250816123932475</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1795537981702757</v>
+        <v>0.1906525856256295</v>
       </c>
       <c r="M173" t="n">
-        <v>0.172216984873909</v>
+        <v>0.1054862340886389</v>
       </c>
       <c r="N173" t="n">
-        <v>0.2417628392871389</v>
+        <v>0.24448746301265</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1723841089128819</v>
+        <v>0.1054809946617302</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1710368810772536</v>
+        <v>0.08608464895901258</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1746224927750558</v>
+        <v>0.05250789271086074</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1194816205417247</v>
+        <v>0.08608464895901258</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1739195363353225</v>
+        <v>0.05250789271086074</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1817131132888469</v>
+        <v>0.1906956667027677</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1738115865857045</v>
+        <v>0.1064629584783485</v>
       </c>
       <c r="N174" t="n">
-        <v>0.243151816883913</v>
+        <v>0.2442715812930628</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1739802580694827</v>
+        <v>0.1064576705382276</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1833241980960309</v>
+        <v>0.08443572291020121</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1762245339931756</v>
+        <v>0.05250762418239672</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1207069000644653</v>
+        <v>0.08443572291020121</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1755151284117933</v>
+        <v>0.05250762418239672</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1814593288999859</v>
+        <v>0.1920366927395051</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1754061882974999</v>
+        <v>0.1074396828680581</v>
       </c>
       <c r="N175" t="n">
-        <v>0.2432229241174525</v>
+        <v>0.2429616483475411</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1755764072260834</v>
+        <v>0.1074343464147251</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.171599558783321</v>
+        <v>0.08282451244883665</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1778265752112953</v>
+        <v>0.0525073556539327</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1209303596724636</v>
+        <v>0.08282451244883665</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1771107204882642</v>
+        <v>0.0525073556539327</v>
       </c>
       <c r="L176" t="n">
-        <v>0.184505344993761</v>
+        <v>0.1902753934968675</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1770007900092954</v>
+        <v>0.1084164072577678</v>
       </c>
       <c r="N176" t="n">
-        <v>0.245088603333567</v>
+        <v>0.2432585196858217</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1771725563826842</v>
+        <v>0.1084110222912226</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1849205083272163</v>
+        <v>0.08125269244425035</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1794286164294151</v>
+        <v>0.05250708712546868</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1219985997315129</v>
+        <v>0.08125269244425035</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1787063125647351</v>
+        <v>0.05250708712546868</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1853208930262934</v>
+        <v>0.1908114987358805</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1785953917210908</v>
+        <v>0.1093931316474774</v>
       </c>
       <c r="N177" t="n">
-        <v>0.2462432581768927</v>
+        <v>0.2432630508176417</v>
       </c>
       <c r="O177" t="n">
-        <v>0.178768705539285</v>
+        <v>0.1093876981677201</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.182307458738948</v>
+        <v>0.07972193776591216</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1810306576475349</v>
+        <v>0.05250681859700466</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1237988059990865</v>
+        <v>0.07972193776591216</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1803019046412059</v>
+        <v>0.05250681859700466</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1855823126629809</v>
+        <v>0.1916447382175697</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1801899934328863</v>
+        <v>0.110369856037187</v>
       </c>
       <c r="N178" t="n">
-        <v>0.2502644509786806</v>
+        <v>0.2435760972527377</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1803648546958857</v>
+        <v>0.1103643740442176</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1907143923535206</v>
+        <v>0.07823392328315704</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1826326988656547</v>
+        <v>0.05250655006854064</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1247016087523609</v>
+        <v>0.07823392328315704</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1818974967176767</v>
+        <v>0.05250655006854064</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1880452856321004</v>
+        <v>0.1911748417029607</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1817845951446817</v>
+        <v>0.1113465804268966</v>
       </c>
       <c r="N179" t="n">
-        <v>0.2508926873947918</v>
+        <v>0.2408985145008463</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1819610038524865</v>
+        <v>0.1113410499207151</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1930952915059388</v>
+        <v>0.07679032386545118</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1842347400837744</v>
+        <v>0.05250628154007663</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1248776382685127</v>
+        <v>0.07679032386545118</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1834930887941476</v>
+        <v>0.05250628154007663</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1892654936619285</v>
+        <v>0.191301538953079</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1833791968564772</v>
+        <v>0.1123233048166062</v>
       </c>
       <c r="N180" t="n">
-        <v>0.2531684730810881</v>
+        <v>0.2411311580717044</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1835571530090872</v>
+        <v>0.1123177257972127</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.177404138531207</v>
+        <v>0.0753928143821333</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1858367813018942</v>
+        <v>0.05250601301161261</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1257975248247184</v>
+        <v>0.0753928143821333</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1850886808706184</v>
+        <v>0.05250601301161261</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1894986184807423</v>
+        <v>0.1906245597289504</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1849737985682726</v>
+        <v>0.1133000292063159</v>
       </c>
       <c r="N181" t="n">
-        <v>0.2556323136934312</v>
+        <v>0.2406748834750488</v>
       </c>
       <c r="O181" t="n">
-        <v>0.185153302165688</v>
+        <v>0.1132944016737101</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.19359491576433</v>
+        <v>0.07404306970266572</v>
       </c>
       <c r="G182" t="n">
-        <v>0.187438822520014</v>
+        <v>0.0525057444831486</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1259318986981543</v>
+        <v>0.07404306970266572</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1866842729470893</v>
+        <v>0.0525057444831486</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1905003418168186</v>
+        <v>0.1907436337916003</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1865684002800681</v>
+        <v>0.1142767535960255</v>
       </c>
       <c r="N182" t="n">
-        <v>0.2559247148876823</v>
+        <v>0.2400305462206164</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1867494513222887</v>
+        <v>0.1142710775502076</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1866216055403122</v>
+        <v>0.07274276469641899</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1890408637381338</v>
+        <v>0.05250547595468458</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1272513901659969</v>
+        <v>0.07274276469641899</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1882798650235601</v>
+        <v>0.05250547595468458</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1923263453984342</v>
+        <v>0.1912584909020545</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1881630019918636</v>
+        <v>0.1152534779857351</v>
       </c>
       <c r="N183" t="n">
-        <v>0.2578861823197032</v>
+        <v>0.2416990018181439</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1883456004788895</v>
+        <v>0.1152477534267052</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1924381901941584</v>
+        <v>0.07149357423276795</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1906429049562536</v>
+        <v>0.05250520742622056</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1272266295054229</v>
+        <v>0.07149357423276795</v>
       </c>
       <c r="K184" t="n">
-        <v>0.189875457100031</v>
+        <v>0.05250520742622056</v>
       </c>
       <c r="L184" t="n">
-        <v>0.194032310953866</v>
+        <v>0.1923688608213385</v>
       </c>
       <c r="M184" t="n">
-        <v>0.189757603703659</v>
+        <v>0.1162302023754447</v>
       </c>
       <c r="N184" t="n">
-        <v>0.2595572216453554</v>
+        <v>0.2407811057773679</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1899417496354902</v>
+        <v>0.1162244293032027</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1830146331540227</v>
+        <v>0.07029717318116843</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1922449461743733</v>
+        <v>0.05250493889775655</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1278679009885829</v>
+        <v>0.07029717318116843</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1914710491765018</v>
+        <v>0.05250493889775655</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1942433190932094</v>
+        <v>0.192374473310478</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1913522054154545</v>
+        <v>0.1172069267651543</v>
       </c>
       <c r="N185" t="n">
-        <v>0.2601518859982175</v>
+        <v>0.2405777136080254</v>
       </c>
       <c r="O185" t="n">
-        <v>0.191537898792091</v>
+        <v>0.1172011051797002</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1875219598277065</v>
+        <v>0.06915523641096988</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1938469873924931</v>
+        <v>0.05250467036929253</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1288921097864127</v>
+        <v>0.06915523641096988</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1930666412529727</v>
+        <v>0.05250467036929253</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1937326382658128</v>
+        <v>0.1915672119303141</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1929468071272499</v>
+        <v>0.118183651154864</v>
       </c>
       <c r="N186" t="n">
-        <v>0.2589085646568298</v>
+        <v>0.2402890795109681</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1931340479486918</v>
+        <v>0.1181777810561977</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1850183904187677</v>
+        <v>0.06806943879162353</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1954490286106129</v>
+        <v>0.05250440184082852</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1281093022256532</v>
+        <v>0.06806943879162353</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1946622333294435</v>
+        <v>0.05250440184082852</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1944113554295318</v>
+        <v>0.1919708643875926</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1945414088390454</v>
+        <v>0.1191603755445736</v>
       </c>
       <c r="N187" t="n">
-        <v>0.2613510411757785</v>
+        <v>0.2403097635911446</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1947301971052925</v>
+        <v>0.1191544569326952</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.184503755575972</v>
+        <v>0.06704145519248358</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1970510698287327</v>
+        <v>0.0525041333123645</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1289193702217502</v>
+        <v>0.06704145519248358</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1962578254059144</v>
+        <v>0.0525041333123645</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1951793074871292</v>
+        <v>0.190571280135363</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1961360105508408</v>
+        <v>0.1201370999342832</v>
       </c>
       <c r="N188" t="n">
-        <v>0.2610790966078264</v>
+        <v>0.2412378907760323</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1963263462618933</v>
+        <v>0.1201311328091927</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1979778859480853</v>
+        <v>0.06607296048299635</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1986531110468524</v>
+        <v>0.05250386478390048</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1288222056901494</v>
+        <v>0.06607296048299635</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1978534174823852</v>
+        <v>0.05250386478390048</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1956363313413683</v>
+        <v>0.191274762939335</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1977306122626363</v>
+        <v>0.1211138243239928</v>
       </c>
       <c r="N189" t="n">
-        <v>0.2625925120057366</v>
+        <v>0.2399729895515046</v>
       </c>
       <c r="O189" t="n">
-        <v>0.197922495418494</v>
+        <v>0.1211078086856902</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1994406121838734</v>
+        <v>0.06515879048246515</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2002551522649722</v>
+        <v>0.05250359625543646</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1290177005462966</v>
+        <v>0.06515879048246515</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1994490095588561</v>
+        <v>0.05250359625543646</v>
       </c>
       <c r="L190" t="n">
-        <v>0.195682263895012</v>
+        <v>0.1897876165652185</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1993252139744317</v>
+        <v>0.1220905487137024</v>
       </c>
       <c r="N190" t="n">
-        <v>0.2619910684222724</v>
+        <v>0.2400145884034344</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1995186445750948</v>
+        <v>0.1220844845621877</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1968917649321022</v>
+        <v>0.06425958575999488</v>
       </c>
       <c r="G191" t="n">
-        <v>0.201857193483092</v>
+        <v>0.05250332772697244</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1292057467056376</v>
+        <v>0.06425958575999488</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2010446016353269</v>
+        <v>0.05250332772697244</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1960169420508235</v>
+        <v>0.1898161447787232</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2009198156862272</v>
+        <v>0.1230672731034121</v>
       </c>
       <c r="N191" t="n">
-        <v>0.2638745469101962</v>
+        <v>0.2403622158176953</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2011147937316956</v>
+        <v>0.1230611604386852</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1843311748415376</v>
+        <v>0.06337018213489137</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2034592347012118</v>
+        <v>0.05250305919850842</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1298862360836184</v>
+        <v>0.06337018213489137</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2026401937117978</v>
+        <v>0.05250305919850842</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1957402027115658</v>
+        <v>0.1897666513455589</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2025144173980226</v>
+        <v>0.1240439974931217</v>
       </c>
       <c r="N192" t="n">
-        <v>0.2646427285222714</v>
+        <v>0.2385154002801606</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2027109428882963</v>
+        <v>0.1240378363151827</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1947586725609453</v>
+        <v>0.06249225447659471</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2050612759193315</v>
+        <v>0.05250279067004441</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1303590605956845</v>
+        <v>0.06249225447659471</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2042357857882686</v>
+        <v>0.05250279067004441</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1961518827800017</v>
+        <v>0.1889454400314354</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2041090191098181</v>
+        <v>0.1250207218828313</v>
       </c>
       <c r="N193" t="n">
-        <v>0.2646953943112609</v>
+        <v>0.2383736702767033</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2043070920448971</v>
+        <v>0.1250145121916802</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1971740887390913</v>
+        <v>0.0616274776544683</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2066633171374513</v>
+        <v>0.05250252214158039</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1312241121572818</v>
+        <v>0.0616274776544683</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2058313778647395</v>
+        <v>0.05250252214158039</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1967518191588946</v>
+        <v>0.1871588146020626</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2057036208216135</v>
+        <v>0.1259974462725409</v>
       </c>
       <c r="N194" t="n">
-        <v>0.2645323253299274</v>
+        <v>0.239936554293197</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2059032412014978</v>
+        <v>0.1259911880681777</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1925772540247413</v>
+        <v>0.06077752653795129</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2082653583555711</v>
+        <v>0.05250225361311638</v>
       </c>
       <c r="J195" t="n">
-        <v>0.130681282683856</v>
+        <v>0.06077752653795129</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2074269699412103</v>
+        <v>0.05250225361311638</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1974398487510074</v>
+        <v>0.1869130788231501</v>
       </c>
       <c r="M195" t="n">
-        <v>0.207298222533409</v>
+        <v>0.1269741706622505</v>
       </c>
       <c r="N195" t="n">
-        <v>0.2659533026310342</v>
+        <v>0.2389035808155147</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2074993903580986</v>
+        <v>0.1269678639446752</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1829679990666612</v>
+        <v>0.05994407599640816</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2098673995736909</v>
+        <v>0.05250198508465236</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1309304640908531</v>
+        <v>0.05994407599640816</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2090225620176812</v>
+        <v>0.05250198508465236</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1991158084591031</v>
+        <v>0.1863145364604078</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2088928242452044</v>
+        <v>0.1279508950519602</v>
       </c>
       <c r="N196" t="n">
-        <v>0.2643581072673441</v>
+        <v>0.2392742783295294</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2090955395146994</v>
+        <v>0.1279445398211727</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.2033461545136169</v>
+        <v>0.05912880089927677</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2114694407918107</v>
+        <v>0.05250171655618834</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1311715482937187</v>
+        <v>0.05912880089927677</v>
       </c>
       <c r="K197" t="n">
-        <v>0.210618154094152</v>
+        <v>0.05250171655618834</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1980795351859447</v>
+        <v>0.1863694912795454</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2104874259569999</v>
+        <v>0.1289276194416698</v>
       </c>
       <c r="N197" t="n">
-        <v>0.2671465202916201</v>
+        <v>0.2392481753211151</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2106916886713001</v>
+        <v>0.1289212156976702</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1837115510143741</v>
+        <v>0.05833337611594011</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2130714820099305</v>
+        <v>0.05250144802772433</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1310044272078986</v>
+        <v>0.05833337611594011</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2122137461706229</v>
+        <v>0.05250144802772433</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1994308658342953</v>
+        <v>0.1843842470462728</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2120820276687954</v>
+        <v>0.1299043438313794</v>
       </c>
       <c r="N198" t="n">
-        <v>0.2674183227566254</v>
+        <v>0.2375248002761444</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2122878378279009</v>
+        <v>0.1298978915741677</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1920640192176989</v>
+        <v>0.05755947651578316</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2146735232280502</v>
+        <v>0.05250117949926031</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1316289927488386</v>
+        <v>0.05755947651578316</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2138093382470937</v>
+        <v>0.05250117949926031</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1985696373069179</v>
+        <v>0.1839651075262999</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2136766293805908</v>
+        <v>0.130881068221089</v>
       </c>
       <c r="N199" t="n">
-        <v>0.2662732957151225</v>
+        <v>0.2381036816804909</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2138839869845016</v>
+        <v>0.1308745674506652</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.2054033897723568</v>
+        <v>0.05680877696824105</v>
       </c>
       <c r="G200" t="n">
-        <v>0.21627556444617</v>
+        <v>0.05250091097079629</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1327451368319846</v>
+        <v>0.05680877696824105</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2154049303235646</v>
+        <v>0.05250091097079629</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2005956865065757</v>
+        <v>0.1830183764853361</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2152712310923863</v>
+        <v>0.1318577926107987</v>
       </c>
       <c r="N200" t="n">
-        <v>0.2670112202198747</v>
+        <v>0.2372843480200277</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2154801361411024</v>
+        <v>0.1318512433271627</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1917294933271139</v>
+        <v>0.05608295234268265</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2178776056642897</v>
+        <v>0.05250064244233227</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1328527513727823</v>
+        <v>0.05608295234268265</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2170005224000354</v>
+        <v>0.05250064244233227</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1991088503360315</v>
+        <v>0.1826503576890915</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2168658328041817</v>
+        <v>0.1328345170005083</v>
       </c>
       <c r="N201" t="n">
-        <v>0.2681318773236451</v>
+        <v>0.2382663277806282</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2170762852977031</v>
+        <v>0.1328279192036602</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.203042160530736</v>
+        <v>0.05538367750854101</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2194796468824095</v>
+        <v>0.05250037391386825</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1324517282866774</v>
+        <v>0.05538367750854101</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2185961144765063</v>
+        <v>0.05250037391386825</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1995089656980485</v>
+        <v>0.1804673549032759</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2184604345159772</v>
+        <v>0.1338112413902179</v>
       </c>
       <c r="N202" t="n">
-        <v>0.2690350480791964</v>
+        <v>0.2385491494481655</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2186724344543039</v>
+        <v>0.1338045950801577</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.2003412220319888</v>
+        <v>0.05471262733518725</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2210816881005293</v>
+        <v>0.05250010538540423</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1333419594891158</v>
+        <v>0.05471262733518725</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2201917065529771</v>
+        <v>0.05250010538540423</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1996958694953898</v>
+        <v>0.1800756718935989</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2200550362277726</v>
+        <v>0.1347879657799275</v>
       </c>
       <c r="N203" t="n">
-        <v>0.2697205135392916</v>
+        <v>0.2385323415085129</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2202685836109047</v>
+        <v>0.1347812709566552</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.2006265084796383</v>
+        <v>0.05407147669205212</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2226837293186491</v>
+        <v>0.05249983685694022</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1322233368955432</v>
+        <v>0.05407147669205212</v>
       </c>
       <c r="K204" t="n">
-        <v>0.221787298629448</v>
+        <v>0.05249983685694022</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1999693986308183</v>
+        <v>0.1783816124257704</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2216496379395681</v>
+        <v>0.1357646901696371</v>
       </c>
       <c r="N204" t="n">
-        <v>0.2677880547566938</v>
+        <v>0.236815432447544</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2218647327675054</v>
+        <v>0.1357579468331527</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1948978505224504</v>
+        <v>0.05346190044850915</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2242857705367689</v>
+        <v>0.0524995683284762</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1335957524214056</v>
+        <v>0.05346190044850915</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2233828907059188</v>
+        <v>0.0524995683284762</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2011293900070971</v>
+        <v>0.1775914802655001</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2232442396513635</v>
+        <v>0.1367414145593467</v>
       </c>
       <c r="N205" t="n">
-        <v>0.2687374527841658</v>
+        <v>0.2381979507511315</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2234608819241062</v>
+        <v>0.1367346227096502</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1971550788091907</v>
+        <v>0.05288557347398645</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2258878117548886</v>
+        <v>0.05249929980001219</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1325590979821485</v>
+        <v>0.05288557347398645</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2249784827823897</v>
+        <v>0.05249929980001219</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2021756805269893</v>
+        <v>0.176611579178498</v>
       </c>
       <c r="M206" t="n">
-        <v>0.224838841363159</v>
+        <v>0.1377181389490564</v>
       </c>
       <c r="N206" t="n">
-        <v>0.2703684886744708</v>
+        <v>0.2387794249051489</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2250570310807069</v>
+        <v>0.1377112985861477</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.2043980239886253</v>
+        <v>0.0523441706378604</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2274898529730084</v>
+        <v>0.05249903127154817</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1329132654932178</v>
+        <v>0.0523441706378604</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2265740748588605</v>
+        <v>0.05249903127154817</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2022081070932579</v>
+        <v>0.1764482129304736</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2264334430749545</v>
+        <v>0.138694863338766</v>
       </c>
       <c r="N207" t="n">
-        <v>0.2711809434803715</v>
+        <v>0.2385593833954697</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2266531802373077</v>
+        <v>0.1386879744626452</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1896265167095199</v>
+        <v>0.05183936680955609</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2290918941911282</v>
+        <v>0.05249876274308415</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1338581468700593</v>
+        <v>0.05183936680955609</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2281696669353313</v>
+        <v>0.05249876274308415</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2023265066086658</v>
+        <v>0.175907685287137</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2280280447867499</v>
+        <v>0.1396715877284756</v>
       </c>
       <c r="N208" t="n">
-        <v>0.270674598254631</v>
+        <v>0.2378373547079667</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2282493293939085</v>
+        <v>0.1396646503391427</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1948403876206403</v>
+        <v>0.05137283685845309</v>
       </c>
       <c r="G209" t="n">
-        <v>0.230693935409248</v>
+        <v>0.05249849421462013</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1334936340281187</v>
+        <v>0.05137283685845309</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2297652590118022</v>
+        <v>0.05249849421462013</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2025307159759763</v>
+        <v>0.1750963000141977</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2296226464985454</v>
+        <v>0.1406483121181852</v>
       </c>
       <c r="N209" t="n">
-        <v>0.2701492340500123</v>
+        <v>0.2373128673285136</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2298454785505092</v>
+        <v>0.1406413262156402</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.2080394673707525</v>
+        <v>0.05094625565397315</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2322959766273678</v>
+        <v>0.05249822568615612</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1343196188828421</v>
+        <v>0.05094625565397315</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2313608510882731</v>
+        <v>0.05249822568615612</v>
       </c>
       <c r="L210" t="n">
-        <v>0.2019205720979522</v>
+        <v>0.1742203608773657</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2312172482103408</v>
+        <v>0.1416250365078948</v>
       </c>
       <c r="N210" t="n">
-        <v>0.2700046319192786</v>
+        <v>0.2371854497429835</v>
       </c>
       <c r="O210" t="n">
-        <v>0.23144162770711</v>
+        <v>0.1416180020921377</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1872235866086221</v>
+        <v>0.0505612980654993</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2338980178454876</v>
+        <v>0.0524979571576921</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1336359933496749</v>
+        <v>0.0505612980654993</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2329564431647439</v>
+        <v>0.0524979571576921</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2018959118773567</v>
+        <v>0.1725861716423506</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2328118499221362</v>
+        <v>0.1426017608976045</v>
       </c>
       <c r="N211" t="n">
-        <v>0.2712405729151925</v>
+        <v>0.2362546304372495</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2330377768637107</v>
+        <v>0.1425946779686352</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.2043925759830153</v>
+        <v>0.05021963896244977</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2355000590636073</v>
+        <v>0.05249768862922808</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1345426493440631</v>
+        <v>0.05021963896244977</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2345520352412148</v>
+        <v>0.05249768862922808</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2025565722169527</v>
+        <v>0.1719000360748624</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2344064516339317</v>
+        <v>0.1435784852873141</v>
       </c>
       <c r="N212" t="n">
-        <v>0.2707568380905172</v>
+        <v>0.2374199378971851</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2346339260203115</v>
+        <v>0.1435713538451327</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1965462661426976</v>
+        <v>0.04992295321421114</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2371021002817271</v>
+        <v>0.05249742010076406</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1346394787814524</v>
+        <v>0.04992295321421114</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2361476273176856</v>
+        <v>0.05249742010076406</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2025023900195034</v>
+        <v>0.1701682579406107</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2360010533457272</v>
+        <v>0.1445552096770237</v>
       </c>
       <c r="N213" t="n">
-        <v>0.2724532084980155</v>
+        <v>0.2373809006086632</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2362300751769123</v>
+        <v>0.1445480297216302</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1906844877364351</v>
+        <v>0.04967291569019797</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2387041414998469</v>
+        <v>0.05249715157230005</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1337263735772885</v>
+        <v>0.04967291569019797</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2377432193941564</v>
+        <v>0.05249715157230005</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2034332021877718</v>
+        <v>0.1712971410053054</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2375956550575226</v>
+        <v>0.1455319340667333</v>
       </c>
       <c r="N214" t="n">
-        <v>0.2702294651904503</v>
+        <v>0.2370370470575576</v>
       </c>
       <c r="O214" t="n">
-        <v>0.237826224333513</v>
+        <v>0.1455247055981277</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1988070714129934</v>
+        <v>0.04967291569019797</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2403061827179666</v>
+        <v>0.05249715157230005</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1346032256470174</v>
+        <v>0.04967291569019797</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2393388114706273</v>
+        <v>0.05249715157230005</v>
       </c>
       <c r="L215" t="n">
-        <v>0.203848845624521</v>
+        <v>0.1700929890346563</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2391902567693181</v>
+        <v>0.1465086584564429</v>
       </c>
       <c r="N215" t="n">
-        <v>0.272185389220585</v>
+        <v>0.2361879057297412</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2394223734901137</v>
+        <v>0.1465013814746252</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1979138478211385</v>
+        <v>0.04811981654342876</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2419082239360864</v>
+        <v>0.05248804710784521</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1348699269060849</v>
+        <v>0.04811981654342876</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2409344035470982</v>
+        <v>0.05248804710784521</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2034491572325138</v>
+        <v>0.1687621057943731</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2407848584811135</v>
+        <v>0.1474853828461526</v>
       </c>
       <c r="N216" t="n">
-        <v>0.2716207616411823</v>
+        <v>0.2368330051110874</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2410185226467145</v>
+        <v>0.1474780573511227</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1880046476096363</v>
+        <v>0.04658495055290726</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2435102651542062</v>
+        <v>0.05247894264339038</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1337263692699365</v>
+        <v>0.04658495055290726</v>
       </c>
       <c r="K217" t="n">
-        <v>0.242529995623569</v>
+        <v>0.05247894264339038</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2025339739145135</v>
+        <v>0.1697107950501656</v>
       </c>
       <c r="M217" t="n">
-        <v>0.242379460192909</v>
+        <v>0.1484621072358622</v>
       </c>
       <c r="N217" t="n">
-        <v>0.273135363505005</v>
+        <v>0.2356718736874693</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2426146718033153</v>
+        <v>0.1484547332276202</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1880793014272525</v>
+        <v>0.04506947628560581</v>
       </c>
       <c r="G218" t="n">
-        <v>0.245112306372326</v>
+        <v>0.05246983817893554</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1338724446540182</v>
+        <v>0.04506947628560581</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2441255877000398</v>
+        <v>0.05246983817893554</v>
       </c>
       <c r="L218" t="n">
-        <v>0.202303132573283</v>
+        <v>0.1686453605677437</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2439740619047044</v>
+        <v>0.1494388316255718</v>
       </c>
       <c r="N218" t="n">
-        <v>0.2730289758648163</v>
+        <v>0.2355040399447603</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2442108209599161</v>
+        <v>0.1494314091041177</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.2061376399227531</v>
+        <v>0.04357455230849674</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2467143475904457</v>
+        <v>0.0524607337144807</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1345080449737758</v>
+        <v>0.04357455230849674</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2457211797765107</v>
+        <v>0.0524607337144807</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2039564701115854</v>
+        <v>0.1690721061128169</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2455686636164999</v>
+        <v>0.1504155560152814</v>
       </c>
       <c r="N219" t="n">
-        <v>0.2716013797733792</v>
+        <v>0.2371290323688336</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2458069701165168</v>
+        <v>0.1504080849806152</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1991794937449037</v>
+        <v>0.04210133718855238</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2483163888085655</v>
+        <v>0.05245162925002587</v>
       </c>
       <c r="J220" t="n">
-        <v>0.135133062144655</v>
+        <v>0.04210133718855238</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2473167718529815</v>
+        <v>0.05245162925002587</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2022938234321838</v>
+        <v>0.1669973354510954</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2471632653282953</v>
+        <v>0.151392280404991</v>
       </c>
       <c r="N220" t="n">
-        <v>0.2734523562834565</v>
+        <v>0.2342463794455627</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2474031192731175</v>
+        <v>0.1513847608571127</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.2012046935424703</v>
+        <v>0.04065098949274501</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2499184300266853</v>
+        <v>0.05244252478557103</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1351473880821015</v>
+        <v>0.04065098949274501</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2489123639294524</v>
+        <v>0.05244252478557103</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2038150294378411</v>
+        <v>0.1677075371282971</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2487578670400908</v>
+        <v>0.1523690047947006</v>
       </c>
       <c r="N221" t="n">
-        <v>0.2725816864478114</v>
+        <v>0.2361559890857454</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2489992684297183</v>
+        <v>0.1523614367336102</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.2082130623805603</v>
+        <v>0.03922466778804698</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2515204712448051</v>
+        <v>0.05243342032111619</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1344458252610679</v>
+        <v>0.03922466778804698</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2505079560059232</v>
+        <v>0.05243342032111619</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2025097794470727</v>
+        <v>0.1687274681531956</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2503524687518863</v>
+        <v>0.1533457291844103</v>
       </c>
       <c r="N222" t="n">
-        <v>0.2734805001472147</v>
+        <v>0.2349591240435608</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2505954175863191</v>
+        <v>0.1533381126101077</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.2079502517767741</v>
+        <v>0.03782353064143062</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2531225124629249</v>
+        <v>0.05242431585666135</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1341222685671403</v>
+        <v>0.03782353064143062</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2521035480823941</v>
+        <v>0.05242431585666135</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2034595082565006</v>
+        <v>0.1667491380726986</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2519470704636817</v>
+        <v>0.1543224535741199</v>
       </c>
       <c r="N223" t="n">
-        <v>0.2715374046799212</v>
+        <v>0.2347559989241058</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2521915667429198</v>
+        <v>0.1543147884866052</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.2022028190465848</v>
+        <v>0.03644873661986736</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2547245536810447</v>
+        <v>0.05241521139220651</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1332937464734502</v>
+        <v>0.03644873661986736</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2536991401588649</v>
+        <v>0.05241521139220651</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2023500598184381</v>
+        <v>0.1674725538790057</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2535416721754771</v>
+        <v>0.1552991779638295</v>
       </c>
       <c r="N224" t="n">
-        <v>0.2714757787019114</v>
+        <v>0.2336466887060347</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2537877158995206</v>
+        <v>0.1552914643631027</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1880235583165602</v>
+        <v>0.03510144429033132</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2563265948991644</v>
+        <v>0.05240610692775168</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1326939536245249</v>
+        <v>0.03510144429033132</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2552947322353358</v>
+        <v>0.05240610692775168</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2010322786172118</v>
+        <v>0.1678977225643159</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2551362738872726</v>
+        <v>0.1562759023535391</v>
       </c>
       <c r="N225" t="n">
-        <v>0.2691638775654466</v>
+        <v>0.2355312683680015</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2553838650561213</v>
+        <v>0.1562681402396002</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1954652637132681</v>
+        <v>0.03378281221979387</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2579286361172842</v>
+        <v>0.05239700246329684</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1313565846648919</v>
+        <v>0.03378281221979387</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2568903243118066</v>
+        <v>0.05239700246329684</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1989570091371486</v>
+        <v>0.1682246511208286</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2567308755990681</v>
+        <v>0.1572526267432487</v>
       </c>
       <c r="N226" t="n">
-        <v>0.2671699566227883</v>
+        <v>0.2342098128886607</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2569800142127221</v>
+        <v>0.1572448161160977</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1825807293632763</v>
+        <v>0.03249399897522739</v>
       </c>
       <c r="G227" t="n">
-        <v>0.259530677335404</v>
+        <v>0.052387897998842</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1310153342390789</v>
+        <v>0.03249399897522739</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2584859163882774</v>
+        <v>0.052387897998842</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1967750958625755</v>
+        <v>0.167953346540743</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2583254773108635</v>
+        <v>0.1582293511329584</v>
       </c>
       <c r="N227" t="n">
-        <v>0.2647622712261978</v>
+        <v>0.2346823972466665</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2585761633693229</v>
+        <v>0.1582214919925952</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1914227493931527</v>
+        <v>0.03123616312360417</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2611327185535238</v>
+        <v>0.05237879353438717</v>
       </c>
       <c r="J228" t="n">
-        <v>0.129303896991613</v>
+        <v>0.03123616312360417</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2600815084647483</v>
+        <v>0.05237879353438717</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1948373832778189</v>
+        <v>0.1674838158162585</v>
       </c>
       <c r="M228" t="n">
-        <v>0.259920079022659</v>
+        <v>0.159206075522668</v>
       </c>
       <c r="N228" t="n">
-        <v>0.2605090767279368</v>
+        <v>0.2325490964206733</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2601723125259237</v>
+        <v>0.1591981678690927</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1900441179294648</v>
+        <v>0.03001046323189654</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2627347597716435</v>
+        <v>0.05236968906993233</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1270559675670219</v>
+        <v>0.03001046323189654</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2616771005412192</v>
+        <v>0.05236968906993233</v>
       </c>
       <c r="L229" t="n">
-        <v>0.193994715867206</v>
+        <v>0.1681160659395744</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2615146807344544</v>
+        <v>0.1601827999123776</v>
       </c>
       <c r="N229" t="n">
-        <v>0.2589786284802663</v>
+        <v>0.2342099853893356</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2617684616825244</v>
+        <v>0.1601748437455902</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1894976290987805</v>
+        <v>0.02881805786707681</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2643368009897633</v>
+        <v>0.05236058460547749</v>
       </c>
       <c r="J230" t="n">
-        <v>0.126605240609833</v>
+        <v>0.02881805786707681</v>
       </c>
       <c r="K230" t="n">
-        <v>0.26327269261769</v>
+        <v>0.05236058460547749</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1914979381150633</v>
+        <v>0.1664501039028899</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2631092824462499</v>
+        <v>0.1611595243020872</v>
       </c>
       <c r="N230" t="n">
-        <v>0.2540391818354483</v>
+        <v>0.2332651391313074</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2633646108391251</v>
+        <v>0.1611515196220877</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1758360770276674</v>
+        <v>0.02766010559611731</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2659388422078831</v>
+        <v>0.05235148014102266</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1247854107645739</v>
+        <v>0.02766010559611731</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2648682846941609</v>
+        <v>0.05235148014102266</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1876978945057178</v>
+        <v>0.1669859366984043</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2647038841580454</v>
+        <v>0.1621362486917969</v>
       </c>
       <c r="N231" t="n">
-        <v>0.2515589921457436</v>
+        <v>0.233114632625243</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2649607599957259</v>
+        <v>0.1621281954985852</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1761122558426935</v>
+        <v>0.02653776498599036</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2675408834260029</v>
+        <v>0.05234237567656782</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1226301726757718</v>
+        <v>0.02653776498599036</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2664638767706317</v>
+        <v>0.05234237567656782</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1845454295234964</v>
+        <v>0.1671235713183168</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2662984858698408</v>
+        <v>0.1631129730815065</v>
       </c>
       <c r="N232" t="n">
-        <v>0.247206314763414</v>
+        <v>0.2325585408497967</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2665569091523267</v>
+        <v>0.1631048713750827</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1783789596704265</v>
+        <v>0.02545219460366829</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2691429246441226</v>
+        <v>0.05233327121211298</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1204732209879543</v>
+        <v>0.02545219460366829</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2680594688471026</v>
+        <v>0.05233327121211298</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1831913876527257</v>
+        <v>0.1660630147548271</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2678930875816363</v>
+        <v>0.1640896974712161</v>
       </c>
       <c r="N233" t="n">
-        <v>0.2443494050407209</v>
+        <v>0.2313969387836229</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2681530583089274</v>
+        <v>0.1640815472515802</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1856889826374342</v>
+        <v>0.02440455301612343</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2707449658622424</v>
+        <v>0.05232416674765814</v>
       </c>
       <c r="J234" t="n">
-        <v>0.118848250345649</v>
+        <v>0.02440455301612343</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2696550609235734</v>
+        <v>0.05232416674765814</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1789866133777326</v>
+        <v>0.165904274000134</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2694876892934317</v>
+        <v>0.1650664218609257</v>
       </c>
       <c r="N234" t="n">
-        <v>0.2414565183299253</v>
+        <v>0.2331299014053758</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2697492074655282</v>
+        <v>0.1650582231280777</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1770951188702842</v>
+        <v>0.02339599879032805</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2723470070803622</v>
+        <v>0.05231506228320331</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1167889553933832</v>
+        <v>0.02339599879032805</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2712506530000443</v>
+        <v>0.05231506228320331</v>
       </c>
       <c r="L235" t="n">
-        <v>0.176981951182844</v>
+        <v>0.167747356046437</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2710822910052272</v>
+        <v>0.1660431462506353</v>
       </c>
       <c r="N235" t="n">
-        <v>0.2384959099832894</v>
+        <v>0.2307575036937098</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2713453566221289</v>
+        <v>0.1660348990045752</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1706501624955445</v>
+        <v>0.02242769049325452</v>
       </c>
       <c r="G236" t="n">
-        <v>0.273949048298482</v>
+        <v>0.05230595781874847</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1160290307756845</v>
+        <v>0.02242769049325452</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2728462450765152</v>
+        <v>0.05230595781874847</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1746282455523865</v>
+        <v>0.1672922678859353</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2726768927170226</v>
+        <v>0.1670198706403449</v>
       </c>
       <c r="N236" t="n">
-        <v>0.233335835353074</v>
+        <v>0.2304798206272792</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2729415057787297</v>
+        <v>0.1670115748810727</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1674062215845634</v>
+        <v>0.02150078669187516</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2755510895166018</v>
+        <v>0.05229685335429363</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1144993907818608</v>
+        <v>0.02150078669187516</v>
       </c>
       <c r="K237" t="n">
-        <v>0.274441837152986</v>
+        <v>0.05229685335429363</v>
       </c>
       <c r="L237" t="n">
-        <v>0.1726713227639918</v>
+        <v>0.1663390165108283</v>
       </c>
       <c r="M237" t="n">
-        <v>0.274271494428818</v>
+        <v>0.1679965950300546</v>
       </c>
       <c r="N237" t="n">
-        <v>0.2317394941374232</v>
+        <v>0.2318969271847382</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2745376549353304</v>
+        <v>0.1679882507575702</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1662585521136896</v>
+        <v>0.02061644595316228</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2771531307347215</v>
+        <v>0.0522877488898388</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1127170447275283</v>
+        <v>0.02061644595316228</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2760374292294568</v>
+        <v>0.0522877488898388</v>
       </c>
       <c r="L238" t="n">
-        <v>0.1711826748928292</v>
+        <v>0.1658876089133152</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2758660961406135</v>
+        <v>0.1689733194197642</v>
       </c>
       <c r="N238" t="n">
-        <v>0.2292413204002889</v>
+        <v>0.2325088983447411</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2761338040919312</v>
+        <v>0.1689649266340677</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1551029241172985</v>
+        <v>0.01977582684408821</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2787551719528413</v>
+        <v>0.05227864442538396</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1123295904077115</v>
+        <v>0.01977582684408821</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2776330213059277</v>
+        <v>0.05227864442538396</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1697863120279174</v>
+        <v>0.1660380520855954</v>
       </c>
       <c r="M239" t="n">
-        <v>0.277460697852409</v>
+        <v>0.1699500438094738</v>
       </c>
       <c r="N239" t="n">
-        <v>0.2249328039118318</v>
+        <v>0.2301158090859422</v>
       </c>
       <c r="O239" t="n">
-        <v>0.277729953248532</v>
+        <v>0.1699416025105652</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1719392125241464</v>
+        <v>0.01897535711648776</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2803572131709611</v>
+        <v>0.05226953996092912</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1108369479985478</v>
+        <v>0.01897535711648776</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2792286133823985</v>
+        <v>0.05226953996092912</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1661821137167874</v>
+        <v>0.1656903530198681</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2790552995642044</v>
+        <v>0.1709267681991834</v>
       </c>
       <c r="N240" t="n">
-        <v>0.2240137829725914</v>
+        <v>0.2303177343869958</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2793261024051327</v>
+        <v>0.1709182783870627</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1627672922629898</v>
+        <v>0.01818781044651244</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2819592543890809</v>
+        <v>0.05226043549647428</v>
       </c>
       <c r="J241" t="n">
-        <v>0.108239037676175</v>
+        <v>0.01818781044651244</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2808242054588694</v>
+        <v>0.05226043549647428</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1642699595069706</v>
+        <v>0.1661445187083325</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2806499012759999</v>
+        <v>0.171903492588893</v>
       </c>
       <c r="N241" t="n">
-        <v>0.2209840958831067</v>
+        <v>0.2296147492265562</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2809222515617334</v>
+        <v>0.1718949542635602</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1515870382625852</v>
+        <v>0.01740961458599705</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2835612956072007</v>
+        <v>0.05225133103201945</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1070357796167307</v>
+        <v>0.01740961458599705</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2824197975353402</v>
+        <v>0.05225133103201945</v>
       </c>
       <c r="L242" t="n">
-        <v>0.162049728945998</v>
+        <v>0.1671005561431881</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2822445029877954</v>
+        <v>0.1728802169786027</v>
       </c>
       <c r="N242" t="n">
-        <v>0.2188435809439174</v>
+        <v>0.2295069285832777</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2825184007183342</v>
+        <v>0.1728716301400577</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1553983254516888</v>
+        <v>0.01664192810191392</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2851633368253204</v>
+        <v>0.05224222656756461</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1061270939963523</v>
+        <v>0.01664192810191392</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2840153896118111</v>
+        <v>0.05224222656756461</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1611213015814009</v>
+        <v>0.166258472316634</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2838391046995908</v>
+        <v>0.1738569413683123</v>
       </c>
       <c r="N243" t="n">
-        <v>0.2141920764555625</v>
+        <v>0.2301943474358146</v>
       </c>
       <c r="O243" t="n">
-        <v>0.284114549874935</v>
+        <v>0.1738483060165552</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1432010287590569</v>
+        <v>0.0158859095612354</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2867653780434402</v>
+        <v>0.05223312210310977</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1052129009911775</v>
+        <v>0.0158859095612354</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2856109816882819</v>
+        <v>0.05223312210310977</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1576845569607102</v>
+        <v>0.1667182742208696</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2854337064113862</v>
+        <v>0.1748336657580219</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2130294207185819</v>
+        <v>0.2302770807628213</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2857106990315358</v>
+        <v>0.1748249818930527</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.147995023113446</v>
+        <v>0.01514271753093371</v>
       </c>
       <c r="G245" t="n">
-        <v>0.28836741926156</v>
+        <v>0.05222401763865494</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1029931207773439</v>
+        <v>0.01514271753093371</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2872065737647528</v>
+        <v>0.05222401763865494</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1565393746314571</v>
+        <v>0.1662799688480942</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2870283081231817</v>
+        <v>0.1758103901477315</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2079554520335144</v>
+        <v>0.2280552035429519</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2873068481881365</v>
+        <v>0.1758016577695502</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1587801834436124</v>
+        <v>0.01441351057798129</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2899694604796798</v>
+        <v>0.0522149131742001</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1019676735309892</v>
+        <v>0.01441351057798129</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2888021658412236</v>
+        <v>0.0522149131742001</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1546856341411728</v>
+        <v>0.1670435631905068</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2886229098349771</v>
+        <v>0.1767871145374411</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2057700087008996</v>
+        <v>0.2287287907548607</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2889029973447372</v>
+        <v>0.1767783336460477</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1435563846783124</v>
+        <v>0.01369944726935035</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2915715016977996</v>
+        <v>0.05220580870974526</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1001364794282508</v>
+        <v>0.01369944726935035</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2903977579176945</v>
+        <v>0.05220580870974526</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1517232150373884</v>
+        <v>0.1667090642403072</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2902175115467726</v>
+        <v>0.1777638389271508</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2034729290212768</v>
+        <v>0.2291979173772022</v>
       </c>
       <c r="O247" t="n">
-        <v>0.290499146501338</v>
+        <v>0.1777550095225452</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1523235017463026</v>
+        <v>0.01300168617201333</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2931735429159193</v>
+        <v>0.05219670424529042</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0986994586452665</v>
+        <v>0.01300168617201333</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2919933499941653</v>
+        <v>0.05219670424529042</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1501519968676352</v>
+        <v>0.1663764789896943</v>
       </c>
       <c r="M248" t="n">
-        <v>0.291812113258568</v>
+        <v>0.1787405633168604</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2014640512951853</v>
+        <v>0.2279626583886305</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2920952956579388</v>
+        <v>0.1787316853990427</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1390814095763392</v>
+        <v>0.01232138585294248</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2947755841340391</v>
+        <v>0.05218759978083559</v>
       </c>
       <c r="J249" t="n">
-        <v>0.09755653135817377</v>
+        <v>0.01232138585294248</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2935889420706362</v>
+        <v>0.05218759978083559</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1471718591794441</v>
+        <v>0.1671458144308676</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2934067149703635</v>
+        <v>0.17971728770657</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1981432138231645</v>
+        <v>0.2290230887677999</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2936914448145396</v>
+        <v>0.1797083612755403</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1378299830971786</v>
+        <v>0.01165970487911011</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2963776253521589</v>
+        <v>0.05217849531638075</v>
       </c>
       <c r="J250" t="n">
-        <v>0.09630761774311022</v>
+        <v>0.01165970487911011</v>
       </c>
       <c r="K250" t="n">
-        <v>0.295184534147107</v>
+        <v>0.05217849531638075</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1445826815203464</v>
+        <v>0.1655170775560261</v>
       </c>
       <c r="M250" t="n">
-        <v>0.295001316682159</v>
+        <v>0.1806940120962796</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1936102549057537</v>
+        <v>0.2276792834933649</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2952875939711403</v>
+        <v>0.1806850371520378</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1345690972375772</v>
+        <v>0.01101780181748863</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2979796665702786</v>
+        <v>0.05216939085192591</v>
       </c>
       <c r="J251" t="n">
-        <v>0.09485263797621352</v>
+        <v>0.01101780181748863</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2967801262235779</v>
+        <v>0.05216939085192591</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1436843434378731</v>
+        <v>0.1655902753573694</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2965959183939544</v>
+        <v>0.1816707364859892</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1915650128434923</v>
+        <v>0.2273313175439795</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2968837431277411</v>
+        <v>0.1816617130285353</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1342986269262914</v>
+        <v>0.01039683523505025</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2995817077883984</v>
+        <v>0.05216028638747108</v>
       </c>
       <c r="J252" t="n">
-        <v>0.09369151223362127</v>
+        <v>0.01039683523505025</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2983757183000487</v>
+        <v>0.05216028638747108</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1403767244795555</v>
+        <v>0.1651654148270966</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2981905201057499</v>
+        <v>0.1826474608756989</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1881073259369196</v>
+        <v>0.2262792658982983</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2984798922843418</v>
+        <v>0.1826383889050328</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1330184470920774</v>
+        <v>0.009797963698767315</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3011837490065182</v>
+        <v>0.05215118192301624</v>
       </c>
       <c r="J253" t="n">
-        <v>0.09212416069147095</v>
+        <v>0.009797963698767315</v>
       </c>
       <c r="K253" t="n">
-        <v>0.2999713103765195</v>
+        <v>0.05215118192301624</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1385597041929246</v>
+        <v>0.1659425029574071</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2997851218175453</v>
+        <v>0.1836241852654085</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1842370324865749</v>
+        <v>0.2250232035349752</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3000760414409426</v>
+        <v>0.1836150647815303</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1407284326636918</v>
+        <v>0.009222345775612206</v>
       </c>
       <c r="G254" t="n">
-        <v>0.302785790224638</v>
+        <v>0.05214207745856141</v>
       </c>
       <c r="J254" t="n">
-        <v>0.09085050352590024</v>
+        <v>0.009222345775612206</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3015669024529904</v>
+        <v>0.05214207745856141</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1359331621255116</v>
+        <v>0.1662215467405</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3013797235293408</v>
+        <v>0.1846009096551181</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1825539707929977</v>
+        <v>0.226863205432665</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3016721905975434</v>
+        <v>0.1845917406580277</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1354284585698909</v>
+        <v>0.008671140032557201</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3043878314427578</v>
+        <v>0.05213297299410657</v>
       </c>
       <c r="J255" t="n">
-        <v>0.08897046091304675</v>
+        <v>0.008671140032557201</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3031624945294613</v>
+        <v>0.05213297299410657</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1333969778248477</v>
+        <v>0.1654025531685749</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3029743252411363</v>
+        <v>0.1855776340448277</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1793579791567274</v>
+        <v>0.2251993465700216</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3032683397541441</v>
+        <v>0.1855684165345253</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.126118399739431</v>
+        <v>0.008145505036574296</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3059898726608776</v>
+        <v>0.05212386852965173</v>
       </c>
       <c r="J256" t="n">
-        <v>0.08688395302904811</v>
+        <v>0.008145505036574296</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3047580866059321</v>
+        <v>0.05212386852965173</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1309510308384639</v>
+        <v>0.1658855292338309</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3045689269529317</v>
+        <v>0.1865543584345374</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1761488958783031</v>
+        <v>0.2262317019256994</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3048644889107449</v>
+        <v>0.1865450924110228</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1207981311010685</v>
+        <v>0.007646599354636491</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3075919138789973</v>
+        <v>0.05211476406519689</v>
       </c>
       <c r="J257" t="n">
-        <v>0.08589090005004182</v>
+        <v>0.007646599354636491</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3063536786824029</v>
+        <v>0.05211476406519689</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1287952007138914</v>
+        <v>0.1660704819284672</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3061635286647271</v>
+        <v>0.187531082824247</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1724265592582642</v>
+        <v>0.2256603464783528</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3064606380673456</v>
+        <v>0.1875217682875203</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1154675275835598</v>
+        <v>0.007175581553715782</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3091939550971171</v>
+        <v>0.05210565960074205</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0836912221521656</v>
+        <v>0.007175581553715782</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3079492707588738</v>
+        <v>0.05210565960074205</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1265293669986615</v>
+        <v>0.1658574182446833</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3077581303765226</v>
+        <v>0.1885078072139566</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1717908075971502</v>
+        <v>0.2242853552066358</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3080567872239464</v>
+        <v>0.1884984441640178</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1211264641156612</v>
+        <v>0.006733610200784418</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3107959963152369</v>
+        <v>0.05209655513628721</v>
       </c>
       <c r="J259" t="n">
-        <v>0.08328483951155691</v>
+        <v>0.006733610200784418</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3095448628353447</v>
+        <v>0.05209655513628721</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1260534092403051</v>
+        <v>0.1660463451746783</v>
       </c>
       <c r="M259" t="n">
-        <v>0.309352732088318</v>
+        <v>0.1894845316036662</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1680414791955002</v>
+        <v>0.2250068030892033</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3096529363805471</v>
+        <v>0.1894751200405153</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1227748156261291</v>
+        <v>0.006321843862814813</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3123980375333567</v>
+        <v>0.05208745067183238</v>
       </c>
       <c r="J260" t="n">
-        <v>0.08087167230435346</v>
+        <v>0.006321843862814813</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3111404549118155</v>
+        <v>0.05208745067183238</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1218672069863533</v>
+        <v>0.1658372697106515</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3109473338001135</v>
+        <v>0.1904612559933758</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1636784123538537</v>
+        <v>0.2232247651047088</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3112490855371479</v>
+        <v>0.1904517959170128</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1114124570437199</v>
+        <v>0.005941441106779244</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3140000787514764</v>
+        <v>0.05207834620737754</v>
       </c>
       <c r="J261" t="n">
-        <v>0.08005164070669282</v>
+        <v>0.005941441106779244</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3127360469882863</v>
+        <v>0.05207834620737754</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1199706397843376</v>
+        <v>0.1658301988448024</v>
       </c>
       <c r="M261" t="n">
-        <v>0.312541935511909</v>
+        <v>0.1914379803830854</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1610014453727503</v>
+        <v>0.2237393162318072</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3128452346937486</v>
+        <v>0.1914284717935103</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.10503926329719</v>
+        <v>0.005593560499650069</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3156021199695962</v>
+        <v>0.0520692417429227</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0788246648947126</v>
+        <v>0.005593560499650069</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3143316390647572</v>
+        <v>0.0520692417429227</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1184635871817889</v>
+        <v>0.1650251395693301</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3141365372237044</v>
+        <v>0.192414704772795</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1568104165527289</v>
+        <v>0.2241505314491526</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3144413838503494</v>
+        <v>0.1924051476700078</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1176551093152958</v>
+        <v>0.005279360608399508</v>
       </c>
       <c r="G263" t="n">
-        <v>0.317204161187716</v>
+        <v>0.05206013727846787</v>
       </c>
       <c r="J263" t="n">
-        <v>0.07729066504455034</v>
+        <v>0.005279360608399508</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3159272311412281</v>
+        <v>0.05206013727846787</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1165459287262382</v>
+        <v>0.1652220988764338</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3157311389354999</v>
+        <v>0.1933914291625047</v>
       </c>
       <c r="N263" t="n">
-        <v>0.154505164194329</v>
+        <v>0.2237584857353992</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3160375330069501</v>
+        <v>0.1933818235465053</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1042598700267935</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3188062024058357</v>
+        <v>0.05205103281401303</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0752495613323437</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3175228232176989</v>
+        <v>0.05205103281401303</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1135175439652168</v>
+        <v>0.167021083758313</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3173257406472954</v>
+        <v>0.1943681535522143</v>
       </c>
       <c r="N264" t="n">
-        <v>0.15098552659809</v>
+        <v>0.2227632540692014</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3176336821635509</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1943584994230028</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05203787491927619</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05203787491927619</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.006336749584726076</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05203814344774021</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.006336749584726076</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.05203814344774021</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.007663802143969639</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05203841197620423</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.007663802143969639</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05203841197620423</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.008980992465871473</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05203868050466824</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.008980992465871473</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.05203868050466824</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01028815533868757</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05203894903313226</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01028815533868757</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.05203894903313226</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01158512555055954</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05203921756159628</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01158512555055954</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05203921756159628</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01287173788974252</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0520394860900603</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01287173788974252</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.0520394860900603</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01414782714437901</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05203975461852431</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01414782714437901</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.05203975461852431</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01541322810272316</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05204002314698833</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01541322810272316</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05204002314698833</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01666777555291851</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05204029167545234</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.01666777555291851</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.05204029167545234</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01791130428321822</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05204056020391636</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.01791130428321822</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.05204056020391636</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01914364908176677</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05204082873238038</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.01914364908176677</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05204082873238038</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.02036464473681637</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0520410972608444</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.02036464473681637</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.0520410972608444</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.02157412603651246</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05204136578930842</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.02157412603651246</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.05204136578930842</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.02277192776910633</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05204163431777244</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.02277192776910633</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05204163431777244</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.02395788472274432</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05204190284623645</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.02395788472274432</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.05204190284623645</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.02513183168567673</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05204217137470047</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.02513183168567673</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.05204217137470047</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.026293603446051</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05204243990316448</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.026293603446051</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05204243990316448</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02744303479209145</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0520427084316285</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.02744303479209145</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.0520427084316285</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.02857996051202122</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05204297696009252</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.02857996051202122</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.05204297696009252</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02970421539398943</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05204324548855653</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.02970421539398943</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05204324548855653</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.03081563422624364</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05204351401702055</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.03081563422624364</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.05204351401702055</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.03191405179693402</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05204378254548456</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.03191405179693402</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.05204378254548456</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.03299930289430697</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05204405107394858</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.03299930289430697</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05204405107394858</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.03407122230651385</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0520443196024126</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.03407122230651385</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.0520443196024126</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.03513031943665573</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05204458813087662</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.03513031943665573</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05204458813087662</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.03618047676201963</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05204485665934064</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.03618047676201963</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05204485665934064</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.03722220368570561</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05204512518780466</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.03722220368570561</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05204512518780466</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.03825533499586695</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05204539371626867</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.03825533499586695</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05204539371626867</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.03927970548074716</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05204566224473269</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.03927970548074716</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05204566224473269</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.04029514992850025</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05204593077319671</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.04029514992850025</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.05204593077319671</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.04130150312736902</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05204619930166073</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.04130150312736902</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05204619930166073</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.04229859986550827</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05204646783012474</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.04229859986550827</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.05204646783012474</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.04328627493113854</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05204673635858875</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.04328627493113854</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05204673635858875</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.04426436311247964</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05204700488705277</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.04426436311247964</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05204700488705277</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.04523269919768758</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05204727341551679</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.04523269919768758</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.05204727341551679</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.04619111797500308</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05204754194398081</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.04619111797500308</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.05204754194398081</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.04713945423258303</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05204781047244483</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.04713945423258303</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05204781047244483</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0480775427586673</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05204807900090885</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.0480775427586673</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.05204807900090885</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.04900521834141364</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05204834752937286</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.04900521834141364</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05204834752937286</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.04992231576906103</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05204861605783688</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.04992231576906103</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05204861605783688</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.05082866982976808</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05204888458630089</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.05082866982976808</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.05204888458630089</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.05172411531177287</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05204915311476491</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.05172411531177287</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.05204915311476491</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.05260848700323503</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05204942164322893</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.05260848700323503</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05204942164322893</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.0534816196923916</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05204969017169295</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.0534816196923916</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.05204969017169295</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.05434334816740322</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05204995870015696</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.05434334816740322</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.05204995870015696</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.05519350721650587</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05205022722862098</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.05519350721650587</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05205022722862098</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.0560319316278613</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.052050495757085</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.0560319316278613</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.052050495757085</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.05685845618970445</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05205076428554902</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.05685845618970445</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05205076428554902</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.05767291569019797</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05205103281401303</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.05767291569019797</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05205103281401303</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.05767291569019797</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05203787491927619</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.05767291569019797</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05203787491927619</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.05890369813893342</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05204751644065906</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.05890369813893342</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.05204751644065906</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.06012278427065393</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05205715796204193</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.06012278427065393</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05205715796204193</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0613298399109585</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0520667994834248</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.0613298399109585</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.0520667994834248</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.06252453088544621</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05207644100480768</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.06252453088544621</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.05207644100480768</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.06370652301971619</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05208608252619055</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.06370652301971619</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05208608252619055</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.06487548213936739</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05209572404757342</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.06487548213936739</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05209572404757342</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.06603107406999892</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05210536556895629</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.06603107406999892</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05210536556895629</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.06717296463720984</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05211500709033916</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.06717296463720984</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.05211500709033916</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.06830081966659921</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05212464861172204</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.06830081966659921</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05212464861172204</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.06941430498376608</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05213429013310491</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.06941430498376608</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.05213429013310491</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.07051308641430956</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05214393165448777</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.07051308641430956</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05214393165448777</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.07159682978382861</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05215357317587065</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.07159682978382861</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.05215357317587065</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.07266520091792245</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05216321469725352</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.07266520091792245</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.05216321469725352</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.07371786564218996</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05217285621863639</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.07371786564218996</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.05217285621863639</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.07475448978223032</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05218249774001926</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.07475448978223032</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.05218249774001926</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.07577473916364252</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05219213926140213</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.07577473916364252</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05219213926140213</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.07677827961202568</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05220178078278501</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.07677827961202568</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.05220178078278501</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.07776477695297884</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05221142230416788</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.07776477695297884</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05221142230416788</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.07873389701210104</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05222106382555075</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.07873389701210104</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.05222106382555075</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.0796853056149914</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05223070534693362</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.0796853056149914</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.05223070534693362</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.08061866858724889</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05224034686831649</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.08061866858724889</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05224034686831649</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.08153365175447264</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05224998838969936</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.08153365175447264</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.05224998838969936</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0824299209422617</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05225962991108223</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.0824299209422617</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.05225962991108223</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.08330714197621511</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0522692714324651</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.08330714197621511</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.0522692714324651</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.08416634522740241</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05227891295384798</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.08416634522740241</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.05227891295384798</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.08501538379424575</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05228855447523085</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.08501538379424575</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.05228855447523085</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.08585528804781467</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05229819599661372</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.08585528804781467</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.05229819599661372</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.08668572381370815</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05230783751799659</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.08668572381370815</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.05230783751799659</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.08750635691752537</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05231747903937947</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.08750635691752537</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05231747903937947</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.08831685318486529</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05232712056076233</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.08831685318486529</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05232712056076233</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.08911687844132701</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0523367620821452</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.08911687844132701</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.0523367620821452</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.08990609851250964</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05234640360352807</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.08990609851250964</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.05234640360352807</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.09068417922401217</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05235604512491095</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.09068417922401217</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05235604512491095</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.0914507864014337</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05236568664629382</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.0914507864014337</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.05236568664629382</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.09220558587037325</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05237532816767669</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.09220558587037325</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05237532816767669</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.09294824345642994</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05238496968905956</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.09294824345642994</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.05238496968905956</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.09367842498520276</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05239461121044243</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.09367842498520276</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.05239461121044243</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.09439579628229081</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05240425273182531</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.09439579628229081</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.05240425273182531</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.09510002317329316</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05241389425320817</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.09510002317329316</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.05241389425320817</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.09579077148380888</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05242353577459104</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.09579077148380888</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05242353577459104</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.096467707039437</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05243317729597392</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.096467707039437</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05243317729597392</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.09713049566577656</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05244281881735679</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.09713049566577656</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05244281881735679</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.09777880318842666</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05245246033873966</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.09777880318842666</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.05245246033873966</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.09841229543298638</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05246210186012253</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.09841229543298638</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.05246210186012253</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.09903063822505473</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0524717433815054</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.09903063822505473</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.0524717433815054</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.09963349739023081</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05248138490288828</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.09963349739023081</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05248138490288828</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1002205387541137</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05249102642427115</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.1002205387541137</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.05249102642427115</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1007914281423024</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05250066794565402</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1007914281423024</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.05250066794565402</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1013458313803959</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05251030946703689</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1013458313803959</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05251030946703689</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1013458313803959</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05251030946703689</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1013458313803959</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05251030946703689</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.09960261860315808</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05569073581569598</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.09960261860315808</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.05569073581569598</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.09806271621945836</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05887116216435508</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.09806271621945836</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.05887116216435508</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.09671419982566054</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06205158851301418</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.09671419982566054</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.06205158851301418</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.09554514501812858</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06523201486167328</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.09554514501812858</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.06523201486167328</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.09454362739322633</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06841244121033237</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.09454362739322633</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06841244121033237</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.09369772254731767</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07159286755899147</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.09369772254731767</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07159286755899147</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.09299550607676652</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07477329390765056</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.09299550607676652</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.07477329390765056</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.09242505357793671</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07795372025630966</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.09242505357793671</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07795372025630966</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.09197444064719218</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08113414660496876</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.09197444064719218</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08113414660496876</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.09163174288089679</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08431457295362783</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.09163174288089679</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.08431457295362783</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.09138503587541438</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08749499930228694</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.09138503587541438</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08749499930228694</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.09122239522710887</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09067542565094604</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.09122239522710887</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.09067542565094604</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.09113189653234419</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09385585199960514</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.09113189653234419</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.09385585199960514</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.09110161538748413</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09703627834826423</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.09110161538748413</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09703627834826423</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.09139984171857291</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1002167046969233</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.09139984171857291</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1002167046969233</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.09229246934437435</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1033971310455824</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.09229246934437435</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1033971310455824</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.09358760839194014</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1065775573942415</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.09358760839194014</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1065775573942415</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.09509060755900062</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1097579837429006</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.09509060755900062</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1097579837429006</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.09660681554328618</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1129384100915597</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.09660681554328618</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1129384100915597</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.09794158104252718</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1161188364402188</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.09794158104252718</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1161188364402188</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.09890025275445394</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1192992627888779</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.09890025275445394</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1192992627888779</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.09928817937679682</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.122479689137537</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.09928817937679682</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.122479689137537</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0991153600973218</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1256601154861961</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.0991153600973218</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1256601154861961</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.09857910748445117</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1288405418348552</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.09857910748445117</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1288405418348552</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.09771324713762883</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1320209681835143</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.09771324713762883</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1320209681835143</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.09655115431195821</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1352013945321734</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.09655115431195821</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1352013945321734</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.09512620426254281</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1383818208808325</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.09512620426254281</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1383818208808325</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.09347177224448605</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1415622472294916</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.09347177224448605</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1415622472294916</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.09162123351289139</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1447426735781507</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.09162123351289139</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1447426735781507</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.08960796332286231</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1479230999268097</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.08960796332286231</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1479230999268097</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0874653369295022</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.0874653369295022</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.08522672958791452</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1542839526241279</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.08522672958791452</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1542839526241279</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.08292551655320277</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1574643789727871</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.08292551655320277</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1574643789727871</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.08039184571486566</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1606448053214461</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.08039184571486566</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1606448053214461</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.07602816746809044</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1638252316701052</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.07602816746809044</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1638252316701052</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.07115457152100249</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1670056580187644</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.07115457152100249</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1670056580187644</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.06786192361898086</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1701860843674234</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.06786192361898086</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1701860843674234</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.06745627644878699</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1733665107160825</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.06745627644878699</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1733665107160825</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.06748079035988647</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1765469370647416</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.06748079035988647</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1765469370647416</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.06753004258544712</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1797273634134007</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.06753004258544712</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1797273634134007</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.06760571885896025</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1829077897620598</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.06760571885896025</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1829077897620598</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.06770950491391725</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1860882161107189</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.06770950491391725</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1860882161107189</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.06784308648380952</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.189268642459378</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.06784308648380952</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.189268642459378</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0680081493021284</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1924490688080371</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.0680081493021284</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1924490688080371</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.06820637910236524</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1956294951566962</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.06820637910236524</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1956294951566962</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.06857190032894148</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1988099215053553</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.06857190032894148</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1988099215053553</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.07029851398876477</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2019903478540144</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.07029851398876477</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2019903478540144</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.07272123853053486</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2051707742026735</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.07272123853053486</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2051707742026735</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.07465485169195571</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2083512005513326</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.07465485169195571</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2083512005513326</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.07604085716530506</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2115316268999917</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.07604085716530506</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2115316268999917</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.07729084247136808</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2147120532486508</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.07729084247136808</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2147120532486508</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.07844260651927326</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2178924795973099</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.07844260651927326</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2178924795973099</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.07953394821814885</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.221072905945969</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.07953394821814885</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.221072905945969</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.08060266647712322</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2242533322946281</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.08060266647712322</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2242533322946281</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.08167230505871595</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2274337586432872</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.08167230505871595</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2274337586432872</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.08262605788405616</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2306141849919462</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.08262605788405616</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2306141849919462</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.08353035792234231</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2337946113406054</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.08353035792234231</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2337946113406054</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.08451339865687665</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2369750376892645</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.08451339865687665</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2369750376892645</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.08570337357096142</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2401554640379235</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.08570337357096142</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2401554640379235</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.08731025902370176</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2433358903865827</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.08731025902370176</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2433358903865827</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.08942939291527618</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2465163167352417</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.08942939291527618</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2465163167352417</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.09199136625136628</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2496967430839009</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.09199136625136628</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2496967430839009</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.09492661015422443</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2528771694325599</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.09492661015422443</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2528771694325599</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09816555574610292</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2560575957812191</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.09816555574610292</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2560575957812191</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1016386341492541</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2592380221298781</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.1016386341492541</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2592380221298781</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1052762764859305</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2624184484785372</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1052762764859305</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2624184484785372</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1090089138783843</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2655988748271964</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1090089138783843</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2655988748271964</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1127669774488679</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2687793011758554</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1127669774488679</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2687793011758554</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1164808983196335</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2719597275245145</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1164808983196335</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2719597275245145</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.1200811076129338</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2751401538731736</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.1200811076129338</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2751401538731736</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.1234980364510208</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2783205802218327</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.1234980364510208</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2783205802218327</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.1266621159561471</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2815010065704918</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.1266621159561471</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2815010065704918</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.129503777250565</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2846814329191509</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.129503777250565</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2846814329191509</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.1319534514565267</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.28786185926781</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.1319534514565267</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.28786185926781</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.1339415696962848</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2910422856164691</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.1339415696962848</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2910422856164691</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.1353985630920914</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2942227119651282</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.1353985630920914</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2942227119651282</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.1364611085071945</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2974031383137873</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.1364611085071945</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2974031383137873</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1363166479660786</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3005835646624463</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.1363166479660786</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3005835646624463</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1328110085767215</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3037639910111055</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.1328110085767215</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3037639910111055</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1255801981754464</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3069444173597646</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.1255801981754464</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3069444173597646</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1159080754559699</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3101248437084236</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1159080754559699</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3101248437084236</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1050784991120088</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3133052700570828</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1050784991120088</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3133052700570828</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.09437532783727959</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3164856964057419</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.09437532783727959</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3164856964057419</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.08508242032549904</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3196661227544009</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.08508242032549904</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3196661227544009</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.07848363527038379</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.32284654910306</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.07848363527038379</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.32284654910306</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.07492972649693397</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3260269754517192</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.07492972649693397</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3260269754517192</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.07177670238784478</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3292074018003783</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.07177670238784478</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3292074018003783</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.06876814198751244</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3323878281490373</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.06876814198751244</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3323878281490373</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.06592280020660463</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3355682544976964</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.06592280020660463</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3355682544976964</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.06325943195578904</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3387486808463556</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.06325943195578904</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3387486808463556</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.06079679214573339</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3419291071950146</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.06079679214573339</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3419291071950146</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.05855363568710528</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3451095335436737</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.05855363568710528</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3451095335436737</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.05654871749057244</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3482899598923329</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.05654871749057244</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3482899598923329</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.05480079246680256</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3514703862409919</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.05480079246680256</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3514703862409919</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.05332861552646334</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.354650812589651</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.05332861552646334</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.354650812589651</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0521509415802224</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3578312389383101</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.0521509415802224</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3578312389383101</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.05128652553874749</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3610116652869692</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.05128652553874749</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3610116652869692</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.05075412231270623</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3641920916356283</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.05075412231270623</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3641920916356283</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.05057248681276633</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3673725179842874</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.05057248681276633</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3673725179842874</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
